--- a/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA4627D-F6DC-411E-A384-939066D24EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8339129A-04FB-4388-9E41-FD0277AB39DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="Action_Temp" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Actions!$D$1:$D$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Actions!$D$1:$D$257</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Events!$A$1:$M$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outcomes!$A$1:$E$15</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="395">
   <si>
     <t>No</t>
   </si>
@@ -385,9 +385,6 @@
     <t>CloseEverything</t>
   </si>
   <si>
-    <t>EAC Assessment</t>
-  </si>
-  <si>
     <t>CloseWork</t>
   </si>
   <si>
@@ -1003,12 +1000,6 @@
     <t>Set "Start of DPD Development (Day after SoE) | DPD Development (Proponent Time)" ANTICIPATED to thisEvent ACTUAL +1</t>
   </si>
   <si>
-    <t>Add PHASE "Readiness Decision" (a copy of original PHASE)</t>
-  </si>
-  <si>
-    <t>Add PHASE "Revised DPD Development (Proponent Time)" (a renamed copy of original PHASE)</t>
-  </si>
-  <si>
     <t>Add EVENT "Pre-EA (EAC Assessment) | Last Day of Pre-EA (EAC Assessment)" as a "Milestone: Date Capture" EVENT (a new EVENT)</t>
   </si>
   <si>
@@ -1066,12 +1057,6 @@
     <t>Set "Effects Assessment &amp; Recommendation | Start of Effects Assessment (Day One)" ANTICIPATED to thisEvent ACTUAL +1</t>
   </si>
   <si>
-    <t>Add EVENT "Revised EAC Application Development (Proponent Time) | Submission of Updated Revised EAC Application for Acceptance" at thisEvent ACTUAL +28  (a renamed copy of original EVENT)</t>
-  </si>
-  <si>
-    <t>Add EVENT "Revised EAC Application Development (Proponent Time) | Updated Revised EAC Application Acceptance Decision (Day Zero)" at thisEvent ACTUAL +88  (a renamed copy of original EVENT)</t>
-  </si>
-  <si>
     <t>Set "Revised EAC Application Development (Proponent Time) | Updated Revised EAC Application Acceptance Decision (Day Zero)" to PHASE END EVENT</t>
   </si>
   <si>
@@ -1162,12 +1147,6 @@
     <t>{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of Revised EAC Application Development", "start_at": 1 }</t>
   </si>
   <si>
-    <t>[{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised DPD Development (Proponent Time)", "legislated": false }]</t>
-  </si>
-  <si>
-    <t>[{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised Readiness Decision", "legislated": false }]</t>
-  </si>
-  <si>
     <t>[{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Fee Order: Submission of DPD", "is_active": false }]</t>
   </si>
   <si>
@@ -1198,9 +1177,6 @@
     <t>{"phase_name":"Further Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Readiness Decision Report referred to CEAO for Further Decision", "start_at": 1 }</t>
   </si>
   <si>
-    <t>[{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Readiness Decision", "legislated": false }]</t>
-  </si>
-  <si>
     <t>{"federal_involvement_id": 2}</t>
   </si>
   <si>
@@ -1210,12 +1186,6 @@
     <t>{"phase_name":"Effects Assessment &amp; Recommendation","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of Effects Assessment (Day One)", "start_at": 1 }</t>
   </si>
   <si>
-    <t>[{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of Revised EAC Application for CEAO Acceptance", "start_at": 28 }]</t>
-  </si>
-  <si>
-    <t>[{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Revised EAC Application Acceptance Decision (Day Zero)", "start_at": 88 }]</t>
-  </si>
-  <si>
     <t>{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Revised EAC Application Acceptance Decision (Day Zero)"}</t>
   </si>
   <si>
@@ -1228,34 +1198,56 @@
     <t>{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of DPD Development", "start_at": 1 }</t>
   </si>
   <si>
-    <t>Add EVENT "Pre-EA (EAC Assessment) | Submission of Revised IPD/EP for CEAO Approval" at thisEvent ACTUAL +28  (a renamed copy of original EVENT)</t>
-  </si>
-  <si>
-    <t>Add EVENT "Pre-EA (EAC Assessment) | Revised IPD/EP Approval Decision (Day Zero)" at thisEvent ACTUAL +38  (a renamed copy of original EVENT)</t>
-  </si>
-  <si>
     <t>Set "Pre-EA (EAC Assessment) | Revised IPD/EP Approval Decision (Day Zero)" to PHASE END EVENT</t>
   </si>
   <si>
-    <t>[{"phase_name":"Pre-EA (EAC Assessment)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of IPD/EP for CEAO Approval", "start_at": 28 }]</t>
-  </si>
-  <si>
-    <t>[{"phase_name":"Pre-EA (EAC Assessment)","work_type_id": 6, "ea_act_id": 3, "event_name": "IPD/EP Approval Decision (Day Zero)", "start_at": 38 }]</t>
-  </si>
-  <si>
     <t>{"phase_name":"Pre-EA (EAC Assessment)","work_type_id": 6, "ea_act_id": 3, "event_name": "IPD/EP Approval Decision (Day Zero)"}</t>
+  </si>
+  <si>
+    <t>Add EVENT "Pre-EA (EAC Assessment) | Submission of Revised IPD/EP for CEAO Approval" at thisEvent ACTUAL +28  (a renamed copy of original EVENT),Add EVENT "Pre-EA (EAC Assessment) | Revised IPD/EP Approval Decision (Day Zero)" at thisEvent ACTUAL +38  (a renamed copy of original EVENT)</t>
+  </si>
+  <si>
+    <t>Add PHASE "Revised DPD Development (Proponent Time)" (a renamed copy of original PHASE),Add PHASE "Readiness Decision" (a copy of original PHASE)</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised DPD Development (Proponent Time)", "legislated": false },{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised Readiness Decision", "legislated": false }]</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised DPD Development (Proponent Time)", "legislated": false },{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Readiness Decision", "legislated": false }]</t>
+  </si>
+  <si>
+    <t>Add EVENT "Revised EAC Application Development (Proponent Time) | Submission of Updated Revised EAC Application for Acceptance" at thisEvent ACTUAL +28  (a renamed copy of original EVENT),Add EVENT "Revised EAC Application Development (Proponent Time) | Updated Revised EAC Application Acceptance Decision (Day Zero)" at thisEvent ACTUAL +88  (a renamed copy of original EVENT)</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of Revised EAC Application for CEAO Acceptance", "start_at": 28 },{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Revised EAC Application Acceptance Decision (Day Zero)", "start_at": 60 }]</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Pre-EA (EAC Assessment)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of IPD/EP for CEAO Approval", "start_at": 28 },{"phase_name":"Pre-EA (EAC Assessment)","work_type_id": 6, "ea_act_id": 3, "event_name": "IPD/EP Approval Decision (Day Zero)", "start_at": 10 }]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1570,7 +1562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1587,14 +1579,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1603,7 +1595,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1615,19 +1607,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1636,22 +1628,22 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1696,7 +1688,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,57 +1712,51 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2087,7 +2073,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2135,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>9</v>
@@ -2150,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
@@ -2164,10 +2150,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>9</v>
@@ -2179,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
@@ -2193,10 +2179,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>9</v>
@@ -2208,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
@@ -2222,10 +2208,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>9</v>
@@ -2237,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -2251,10 +2237,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>9</v>
@@ -2280,10 +2266,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>9</v>
@@ -2295,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -2309,10 +2295,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>9</v>
@@ -2324,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
@@ -2338,10 +2324,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>9</v>
@@ -2353,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
@@ -2367,10 +2353,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>9</v>
@@ -2382,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
@@ -2396,10 +2382,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>9</v>
@@ -2411,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
@@ -2425,10 +2411,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>9</v>
@@ -2440,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
@@ -2454,10 +2440,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>9</v>
@@ -2469,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
@@ -3110,10 +3096,10 @@
   <dimension ref="A1:M337"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="D137" sqref="A137:D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3179,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>IF((C2=""),"",VLOOKUP(C2,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3218,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>IF((C3=""),"",VLOOKUP(C3,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3243,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M3" s="2">
         <v>2</v>
@@ -3257,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>IF((C4=""),"",VLOOKUP(C4,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3282,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M4" s="2">
         <v>3</v>
@@ -3299,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>IF((C5=""),"",VLOOKUP(C5,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3324,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M5" s="2">
         <v>4</v>
@@ -3338,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>IF((C6=""),"",VLOOKUP(C6,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3377,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>IF((C7=""),"",VLOOKUP(C7,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3402,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M7" s="2">
         <v>6</v>
@@ -3419,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>IF((C8=""),"",VLOOKUP(C8,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3444,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M8" s="2">
         <v>7</v>
@@ -3497,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" s="4" t="str">
         <f>IF((C10=""),"",VLOOKUP(C10,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3539,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>IF((C11=""),"",VLOOKUP(C11,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3581,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>IF((C12=""),"",VLOOKUP(C12,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3620,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>IF((C13=""),"",VLOOKUP(C13,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3662,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="4" t="str">
         <f>IF((C14=""),"",VLOOKUP(C14,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3779,10 +3765,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F17" s="65" t="s">
         <v>43</v>
@@ -3817,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E18" s="4" t="str">
         <f>IF((C18=""),"",VLOOKUP(C18,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3859,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E19" s="4" t="str">
         <f>IF((C19=""),"",VLOOKUP(C19,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3901,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E20" s="4" t="str">
         <f>IF((C20=""),"",VLOOKUP(C20,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3940,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="4" t="str">
         <f>IF((C21=""),"",VLOOKUP(C21,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3979,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" s="4" t="str">
         <f>IF((C22=""),"",VLOOKUP(C22,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4004,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M22" s="2">
         <v>20</v>
@@ -4225,7 +4211,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E28" s="4" t="str">
         <f>IF((C28=""),"",VLOOKUP(C28,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4250,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M28" s="2">
         <v>26</v>
@@ -4267,7 +4253,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E29" s="4" t="str">
         <f>IF((C29=""),"",VLOOKUP(C29,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4292,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M29" s="2">
         <v>27</v>
@@ -4306,7 +4292,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30" s="4" t="str">
         <f>IF((C30=""),"",VLOOKUP(C30,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4348,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31" s="4" t="str">
         <f>IF((C31=""),"",VLOOKUP(C31,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4387,7 +4373,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E32" s="4" t="str">
         <f>IF((C32=""),"",VLOOKUP(C32,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4412,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M32" s="2">
         <v>30</v>
@@ -4426,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="4" t="str">
         <f>IF((C33=""),"",VLOOKUP(C33,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4451,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M33" s="2">
         <v>31</v>
@@ -4468,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E34" s="4" t="str">
         <f>IF((C34=""),"",VLOOKUP(C34,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4493,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M34" s="2">
         <v>32</v>
@@ -4546,7 +4532,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E36" s="4" t="str">
         <f>IF((C36=""),"",VLOOKUP(C36,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4588,7 +4574,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E37" s="4" t="str">
         <f>IF((C37=""),"",VLOOKUP(C37,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4627,7 +4613,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E38" s="4" t="str">
         <f>IF((C38=""),"",VLOOKUP(C38,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4669,7 +4655,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E39" s="4" t="str">
         <f>IF((C39=""),"",VLOOKUP(C39,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4708,7 +4694,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E40" s="4" t="str">
         <f>IF((C40=""),"",VLOOKUP(C40,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4750,7 +4736,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E41" s="4" t="str">
         <f>IF((C41=""),"",VLOOKUP(C41,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4792,7 +4778,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E42" s="4" t="str">
         <f>IF((C42=""),"",VLOOKUP(C42,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5362,17 +5348,17 @@
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E56" s="4" t="str">
         <f>IF((C56=""),"",VLOOKUP(C56,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>Early Engagement</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>27</v>
@@ -5404,7 +5390,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E57" s="4" t="str">
         <f>IF((C57=""),"",VLOOKUP(C57,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5446,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E58" s="4" t="str">
         <f>IF((C58=""),"",VLOOKUP(C58,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5485,17 +5471,17 @@
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E59" s="4" t="str">
         <f>IF((C59=""),"",VLOOKUP(C59,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>Early Engagement</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>27</v>
@@ -5527,7 +5513,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E60" s="4" t="str">
         <f>IF((C60=""),"",VLOOKUP(C60,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5569,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E61" s="4" t="str">
         <f>IF((C61=""),"",VLOOKUP(C61,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5608,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E62" s="4" t="str">
         <f>IF((C62=""),"",VLOOKUP(C62,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5692,7 +5678,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E64" s="4" t="str">
         <f>IF((C64=""),"",VLOOKUP(C64,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5893,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E69" s="4" t="str">
         <f>IF((C69=""),"",VLOOKUP(C69,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5935,7 +5921,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E70" s="4" t="str">
         <f>IF((C70=""),"",VLOOKUP(C70,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5977,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E71" s="4" t="str">
         <f>IF((C71=""),"",VLOOKUP(C71,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6016,7 +6002,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E72" s="4" t="str">
         <f>IF((C72=""),"",VLOOKUP(C72,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6055,7 +6041,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E73" s="4" t="str">
         <f>IF((C73=""),"",VLOOKUP(C73,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6080,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M73" s="2">
         <v>71</v>
@@ -6097,7 +6083,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E74" s="4" t="str">
         <f>IF((C74=""),"",VLOOKUP(C74,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6122,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M74" s="2">
         <v>72</v>
@@ -6175,7 +6161,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E76" s="4" t="str">
         <f>IF((C76=""),"",VLOOKUP(C76,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6217,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E77" s="4" t="str">
         <f>IF((C77=""),"",VLOOKUP(C77,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6256,7 +6242,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E78" s="4" t="str">
         <f>IF((C78=""),"",VLOOKUP(C78,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6298,7 +6284,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E79" s="4" t="str">
         <f>IF((C79=""),"",VLOOKUP(C79,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6340,7 +6326,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E80" s="4" t="str">
         <f>IF((C80=""),"",VLOOKUP(C80,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6379,7 +6365,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E81" s="4" t="str">
         <f>IF((C81=""),"",VLOOKUP(C81,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6463,7 +6449,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E83" s="4" t="str">
         <f>IF((C83=""),"",VLOOKUP(C83,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6664,7 +6650,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E88" s="4" t="str">
         <f>IF((C88=""),"",VLOOKUP(C88,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6703,7 +6689,7 @@
         <v>4</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E89" s="4" t="str">
         <f>IF((C89=""),"",VLOOKUP(C89,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6745,7 +6731,7 @@
         <v>4</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E90" s="4" t="str">
         <f>IF((C90=""),"",VLOOKUP(C90,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6787,7 +6773,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E91" s="4" t="str">
         <f>IF((C91=""),"",VLOOKUP(C91,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6826,7 +6812,7 @@
         <v>4</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E92" s="4" t="str">
         <f>IF((C92=""),"",VLOOKUP(C92,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6868,7 +6854,7 @@
         <v>4</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E93" s="4" t="str">
         <f>IF((C93=""),"",VLOOKUP(C93,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6907,7 +6893,7 @@
         <v>4</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E94" s="4" t="str">
         <f>IF((C94=""),"",VLOOKUP(C94,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6946,7 +6932,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E95" s="4" t="str">
         <f>IF((C95=""),"",VLOOKUP(C95,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6971,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M95" s="2">
         <v>93</v>
@@ -6988,7 +6974,7 @@
         <v>4</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E96" s="4" t="str">
         <f>IF((C96=""),"",VLOOKUP(C96,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7013,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M96" s="2">
         <v>94</v>
@@ -7066,7 +7052,7 @@
         <v>4</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E98" s="4" t="str">
         <f>IF((C98=""),"",VLOOKUP(C98,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7108,7 +7094,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E99" s="4" t="str">
         <f>IF((C99=""),"",VLOOKUP(C99,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7150,7 +7136,7 @@
         <v>4</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E100" s="4" t="str">
         <f>IF((C100=""),"",VLOOKUP(C100,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7189,7 +7175,7 @@
         <v>4</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E101" s="4" t="str">
         <f>IF((C101=""),"",VLOOKUP(C101,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7273,7 +7259,7 @@
         <v>4</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E103" s="4" t="str">
         <f>IF((C103=""),"",VLOOKUP(C103,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7475,7 +7461,7 @@
         <v>4</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E108" s="30" t="str">
         <f>IF((C108=""),"",VLOOKUP(C108,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7515,7 +7501,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E109" s="33" t="str">
         <f>IF((C109=""),"",VLOOKUP(C109,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7554,7 +7540,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="60" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E110" s="4" t="str">
         <f>IF((C110=""),"",VLOOKUP(C110,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7596,7 +7582,7 @@
         <v>4</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E111" s="4" t="str">
         <f>IF((C111=""),"",VLOOKUP(C111,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7638,7 +7624,7 @@
         <v>4</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E112" s="4" t="str">
         <f>IF((C112=""),"",VLOOKUP(C112,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7677,7 +7663,7 @@
         <v>5</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E113" s="4" t="str">
         <f>IF((C113=""),"",VLOOKUP(C113,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7755,7 +7741,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E115" s="4" t="str">
         <f>IF((C115=""),"",VLOOKUP(C115,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7839,7 +7825,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E117" s="4" t="str">
         <f>IF((C117=""),"",VLOOKUP(C117,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8040,7 +8026,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E122" s="4" t="str">
         <f>IF((C122=""),"",VLOOKUP(C122,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8082,7 +8068,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E123" s="4" t="str">
         <f>IF((C123=""),"",VLOOKUP(C123,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8121,7 +8107,7 @@
         <v>6</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E124" s="4" t="str">
         <f>IF((C124=""),"",VLOOKUP(C124,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8199,7 +8185,7 @@
         <v>6</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E126" s="4" t="str">
         <f>IF((C126=""),"",VLOOKUP(C126,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8277,7 +8263,7 @@
         <v>6</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E128" s="4" t="str">
         <f>IF((C128=""),"",VLOOKUP(C128,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8473,7 +8459,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E133" s="47" t="str">
         <f>IF((C133=""),"",VLOOKUP(C133,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8510,7 +8496,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="60" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E134" s="4" t="str">
         <f>IF((C134=""),"",VLOOKUP(C134,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8552,7 +8538,7 @@
         <v>6</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E135" s="4" t="str">
         <f>IF((C135=""),"",VLOOKUP(C135,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8594,7 +8580,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E136" s="4" t="str">
         <f>IF((C136=""),"",VLOOKUP(C136,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8633,7 +8619,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E137" s="4" t="str">
         <f>IF((C137=""),"",VLOOKUP(C137,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8672,7 +8658,7 @@
         <v>7</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E138" s="4" t="str">
         <f>IF((C138=""),"",VLOOKUP(C138,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8714,7 +8700,7 @@
         <v>7</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E139" s="4" t="str">
         <f>IF((C139=""),"",VLOOKUP(C139,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8756,7 +8742,7 @@
         <v>7</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E140" s="4" t="str">
         <f>IF((C140=""),"",VLOOKUP(C140,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8795,7 +8781,7 @@
         <v>7</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E141" s="4" t="str">
         <f>IF((C141=""),"",VLOOKUP(C141,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8820,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M141" s="2">
         <v>139</v>
@@ -9041,7 +9027,7 @@
         <v>7</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E147" s="4" t="str">
         <f>IF((C147=""),"",VLOOKUP(C147,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9066,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M147" s="2">
         <v>145</v>
@@ -9080,7 +9066,7 @@
         <v>7</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E148" s="4" t="str">
         <f>IF((C148=""),"",VLOOKUP(C148,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9105,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M148" s="2">
         <v>146</v>
@@ -9122,7 +9108,7 @@
         <v>7</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E149" s="4" t="str">
         <f>IF((C149=""),"",VLOOKUP(C149,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9147,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M149" s="2">
         <v>147</v>
@@ -9200,7 +9186,7 @@
         <v>7</v>
       </c>
       <c r="D151" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E151" s="4" t="str">
         <f>IF((C151=""),"",VLOOKUP(C151,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9239,7 +9225,7 @@
         <v>7</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E152" s="4" t="str">
         <f>IF((C152=""),"",VLOOKUP(C152,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9278,7 +9264,7 @@
         <v>7</v>
       </c>
       <c r="D153" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E153" s="4" t="str">
         <f>IF((C153=""),"",VLOOKUP(C153,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9317,7 +9303,7 @@
         <v>7</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E154" s="4" t="str">
         <f>IF((C154=""),"",VLOOKUP(C154,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9359,7 +9345,7 @@
         <v>7</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E155" s="4" t="str">
         <f>IF((C155=""),"",VLOOKUP(C155,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9401,7 +9387,7 @@
         <v>7</v>
       </c>
       <c r="D156" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E156" s="4" t="str">
         <f>IF((C156=""),"",VLOOKUP(C156,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9971,17 +9957,17 @@
         <v>7</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E170" s="4" t="str">
         <f>IF((C170=""),"",VLOOKUP(C170,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>Process Planning</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H170" s="11" t="s">
         <v>27</v>
@@ -10013,7 +9999,7 @@
         <v>7</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E171" s="4" t="str">
         <f>IF((C171=""),"",VLOOKUP(C171,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10055,7 +10041,7 @@
         <v>7</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E172" s="4" t="str">
         <f>IF((C172=""),"",VLOOKUP(C172,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10094,17 +10080,17 @@
         <v>7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E173" s="4" t="str">
         <f>IF((C173=""),"",VLOOKUP(C173,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>Process Planning</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H173" s="11" t="s">
         <v>27</v>
@@ -10136,7 +10122,7 @@
         <v>7</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E174" s="4" t="str">
         <f>IF((C174=""),"",VLOOKUP(C174,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10178,7 +10164,7 @@
         <v>7</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E175" s="4" t="str">
         <f>IF((C175=""),"",VLOOKUP(C175,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10217,7 +10203,7 @@
         <v>7</v>
       </c>
       <c r="D176" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E176" s="4" t="str">
         <f>IF((C176=""),"",VLOOKUP(C176,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10301,7 +10287,7 @@
         <v>7</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E178" s="4" t="str">
         <f>IF((C178=""),"",VLOOKUP(C178,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10502,7 +10488,7 @@
         <v>7</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E183" s="4" t="str">
         <f>IF((C183=""),"",VLOOKUP(C183,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10544,7 +10530,7 @@
         <v>7</v>
       </c>
       <c r="D184" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E184" s="4" t="str">
         <f>IF((C184=""),"",VLOOKUP(C184,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10586,7 +10572,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E185" s="4" t="str">
         <f>IF((C185=""),"",VLOOKUP(C185,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10625,7 +10611,7 @@
         <v>8</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E186" s="4" t="str">
         <f>IF((C186=""),"",VLOOKUP(C186,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10664,7 +10650,7 @@
         <v>8</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E187" s="4" t="str">
         <f>IF((C187=""),"",VLOOKUP(C187,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10689,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M187" s="2">
         <v>185</v>
@@ -10706,7 +10692,7 @@
         <v>8</v>
       </c>
       <c r="D188" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E188" s="4" t="str">
         <f>IF((C188=""),"",VLOOKUP(C188,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10731,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M188" s="2">
         <v>186</v>
@@ -10784,7 +10770,7 @@
         <v>8</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E190" s="4" t="str">
         <f>IF((C190=""),"",VLOOKUP(C190,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10826,7 +10812,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E191" s="4" t="str">
         <f>IF((C191=""),"",VLOOKUP(C191,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10865,7 +10851,7 @@
         <v>8</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E192" s="4" t="str">
         <f>IF((C192=""),"",VLOOKUP(C192,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10907,7 +10893,7 @@
         <v>8</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E193" s="4" t="str">
         <f>IF((C193=""),"",VLOOKUP(C193,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10946,7 +10932,7 @@
         <v>8</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E194" s="4" t="str">
         <f>IF((C194=""),"",VLOOKUP(C194,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10988,7 +10974,7 @@
         <v>8</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E195" s="4" t="str">
         <f>IF((C195=""),"",VLOOKUP(C195,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11030,7 +11016,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E196" s="4" t="str">
         <f>IF((C196=""),"",VLOOKUP(C196,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11069,7 +11055,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E197" s="4" t="str">
         <f>IF((C197=""),"",VLOOKUP(C197,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11153,7 +11139,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E199" s="4" t="str">
         <f>IF((C199=""),"",VLOOKUP(C199,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11354,7 +11340,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E204" s="4" t="str">
         <f>IF((C204=""),"",VLOOKUP(C204,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11393,7 +11379,7 @@
         <v>9</v>
       </c>
       <c r="D205" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E205" s="4" t="str">
         <f>IF((C205=""),"",VLOOKUP(C205,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11435,7 +11421,7 @@
         <v>9</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E206" s="4" t="str">
         <f>IF((C206=""),"",VLOOKUP(C206,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11477,7 +11463,7 @@
         <v>9</v>
       </c>
       <c r="D207" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E207" s="4" t="str">
         <f>IF((C207=""),"",VLOOKUP(C207,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11723,7 +11709,7 @@
         <v>9</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E213" s="4" t="str">
         <f>IF((C213=""),"",VLOOKUP(C213,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11765,7 +11751,7 @@
         <v>9</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E214" s="4" t="str">
         <f>IF((C214=""),"",VLOOKUP(C214,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11804,7 +11790,7 @@
         <v>9</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E215" s="4" t="str">
         <f>IF((C215=""),"",VLOOKUP(C215,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11829,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="L215" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M215" s="2">
         <v>213</v>
@@ -11846,7 +11832,7 @@
         <v>9</v>
       </c>
       <c r="D216" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E216" s="4" t="str">
         <f>IF((C216=""),"",VLOOKUP(C216,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11871,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="L216" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M216" s="2">
         <v>214</v>
@@ -11924,7 +11910,7 @@
         <v>9</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E218" s="4" t="str">
         <f>IF((C218=""),"",VLOOKUP(C218,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11966,7 +11952,7 @@
         <v>9</v>
       </c>
       <c r="D219" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E219" s="4" t="str">
         <f>IF((C219=""),"",VLOOKUP(C219,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12005,7 +11991,7 @@
         <v>9</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E220" s="4" t="str">
         <f>IF((C220=""),"",VLOOKUP(C220,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12047,7 +12033,7 @@
         <v>9</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E221" s="4" t="str">
         <f>IF((C221=""),"",VLOOKUP(C221,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12089,7 +12075,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E222" s="4" t="str">
         <f>IF((C222=""),"",VLOOKUP(C222,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12659,17 +12645,17 @@
         <v>9</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E236" s="4" t="str">
         <f>IF((C236=""),"",VLOOKUP(C236,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>EAC Application Review</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G236" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H236" s="11" t="s">
         <v>27</v>
@@ -12701,7 +12687,7 @@
         <v>9</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E237" s="4" t="str">
         <f>IF((C237=""),"",VLOOKUP(C237,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12743,7 +12729,7 @@
         <v>9</v>
       </c>
       <c r="D238" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E238" s="4" t="str">
         <f>IF((C238=""),"",VLOOKUP(C238,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12782,17 +12768,17 @@
         <v>9</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E239" s="4" t="str">
         <f>IF((C239=""),"",VLOOKUP(C239,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>EAC Application Review</v>
       </c>
       <c r="F239" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G239" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H239" s="11" t="s">
         <v>27</v>
@@ -12824,7 +12810,7 @@
         <v>9</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E240" s="4" t="str">
         <f>IF((C240=""),"",VLOOKUP(C240,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12866,7 +12852,7 @@
         <v>9</v>
       </c>
       <c r="D241" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E241" s="4" t="str">
         <f>IF((C241=""),"",VLOOKUP(C241,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12905,7 +12891,7 @@
         <v>9</v>
       </c>
       <c r="D242" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E242" s="4" t="str">
         <f>IF((C242=""),"",VLOOKUP(C242,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12989,7 +12975,7 @@
         <v>9</v>
       </c>
       <c r="D244" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E244" s="4" t="str">
         <f>IF((C244=""),"",VLOOKUP(C244,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13190,7 +13176,7 @@
         <v>9</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E249" s="4" t="str">
         <f>IF((C249=""),"",VLOOKUP(C249,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13232,7 +13218,7 @@
         <v>9</v>
       </c>
       <c r="D250" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E250" s="4" t="str">
         <f>IF((C250=""),"",VLOOKUP(C250,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13274,7 +13260,7 @@
         <v>9</v>
       </c>
       <c r="D251" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E251" s="4" t="str">
         <f>IF((C251=""),"",VLOOKUP(C251,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13313,7 +13299,7 @@
         <v>10</v>
       </c>
       <c r="D252" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E252" s="4" t="str">
         <f>IF((C252=""),"",VLOOKUP(C252,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13352,7 +13338,7 @@
         <v>10</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E253" s="4" t="str">
         <f>IF((C253=""),"",VLOOKUP(C253,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13391,7 +13377,7 @@
         <v>10</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E254" s="4" t="str">
         <f>IF((C254=""),"",VLOOKUP(C254,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13416,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="L254" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M254" s="2">
         <v>252</v>
@@ -13433,7 +13419,7 @@
         <v>10</v>
       </c>
       <c r="D255" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E255" s="4" t="str">
         <f>IF((C255=""),"",VLOOKUP(C255,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13458,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="L255" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M255" s="2">
         <v>253</v>
@@ -13511,7 +13497,7 @@
         <v>10</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E257" s="4" t="str">
         <f>IF((C257=""),"",VLOOKUP(C257,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13553,7 +13539,7 @@
         <v>10</v>
       </c>
       <c r="D258" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E258" s="4" t="str">
         <f>IF((C258=""),"",VLOOKUP(C258,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13592,7 +13578,7 @@
         <v>10</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E259" s="4" t="str">
         <f>IF((C259=""),"",VLOOKUP(C259,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13634,7 +13620,7 @@
         <v>10</v>
       </c>
       <c r="D260" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E260" s="4" t="str">
         <f>IF((C260=""),"",VLOOKUP(C260,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13673,7 +13659,7 @@
         <v>10</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E261" s="4" t="str">
         <f>IF((C261=""),"",VLOOKUP(C261,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13715,7 +13701,7 @@
         <v>10</v>
       </c>
       <c r="D262" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E262" s="4" t="str">
         <f>IF((C262=""),"",VLOOKUP(C262,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13757,7 +13743,7 @@
         <v>10</v>
       </c>
       <c r="D263" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E263" s="4" t="str">
         <f>IF((C263=""),"",VLOOKUP(C263,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13796,7 +13782,7 @@
         <v>10</v>
       </c>
       <c r="D264" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E264" s="4" t="str">
         <f>IF((C264=""),"",VLOOKUP(C264,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13880,7 +13866,7 @@
         <v>10</v>
       </c>
       <c r="D266" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E266" s="4" t="str">
         <f>IF((C266=""),"",VLOOKUP(C266,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14081,7 +14067,7 @@
         <v>10</v>
       </c>
       <c r="D271" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E271" s="4" t="str">
         <f>IF((C271=""),"",VLOOKUP(C271,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14120,7 +14106,7 @@
         <v>10</v>
       </c>
       <c r="D272" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E272" s="4" t="str">
         <f>IF((C272=""),"",VLOOKUP(C272,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14159,7 +14145,7 @@
         <v>10</v>
       </c>
       <c r="D273" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E273" s="4" t="str">
         <f>IF((C273=""),"",VLOOKUP(C273,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14198,7 +14184,7 @@
         <v>11</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E274" s="4" t="str">
         <f>IF((C274=""),"",VLOOKUP(C274,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14240,7 +14226,7 @@
         <v>11</v>
       </c>
       <c r="D275" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E275" s="4" t="str">
         <f>IF((C275=""),"",VLOOKUP(C275,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14282,7 +14268,7 @@
         <v>11</v>
       </c>
       <c r="D276" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E276" s="4" t="str">
         <f>IF((C276=""),"",VLOOKUP(C276,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14321,7 +14307,7 @@
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E277" s="4" t="str">
         <f>IF((C277=""),"",VLOOKUP(C277,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14346,7 +14332,7 @@
         <v>0</v>
       </c>
       <c r="L277" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M277" s="2">
         <v>275</v>
@@ -14567,7 +14553,7 @@
         <v>11</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E283" s="4" t="str">
         <f>IF((C283=""),"",VLOOKUP(C283,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14592,7 +14578,7 @@
         <v>0</v>
       </c>
       <c r="L283" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M283" s="2">
         <v>281</v>
@@ -14609,7 +14595,7 @@
         <v>11</v>
       </c>
       <c r="D284" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E284" s="4" t="str">
         <f>IF((C284=""),"",VLOOKUP(C284,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14634,7 +14620,7 @@
         <v>0</v>
       </c>
       <c r="L284" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M284" s="2">
         <v>282</v>
@@ -14687,7 +14673,7 @@
         <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E286" s="4" t="str">
         <f>IF((C286=""),"",VLOOKUP(C286,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14729,7 +14715,7 @@
         <v>11</v>
       </c>
       <c r="D287" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E287" s="4" t="str">
         <f>IF((C287=""),"",VLOOKUP(C287,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14768,7 +14754,7 @@
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E288" s="4" t="str">
         <f>IF((C288=""),"",VLOOKUP(C288,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14810,7 +14796,7 @@
         <v>11</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E289" s="4" t="str">
         <f>IF((C289=""),"",VLOOKUP(C289,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14852,7 +14838,7 @@
         <v>11</v>
       </c>
       <c r="D290" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E290" s="4" t="str">
         <f>IF((C290=""),"",VLOOKUP(C290,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15422,17 +15408,17 @@
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E304" s="4" t="str">
         <f>IF((C304=""),"",VLOOKUP(C304,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>Effects Assessment &amp; Recommendation</v>
       </c>
       <c r="F304" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G304" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H304" s="11" t="s">
         <v>27</v>
@@ -15464,7 +15450,7 @@
         <v>11</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E305" s="4" t="str">
         <f>IF((C305=""),"",VLOOKUP(C305,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15506,7 +15492,7 @@
         <v>11</v>
       </c>
       <c r="D306" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E306" s="4" t="str">
         <f>IF((C306=""),"",VLOOKUP(C306,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15545,17 +15531,17 @@
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E307" s="4" t="str">
         <f>IF((C307=""),"",VLOOKUP(C307,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>Effects Assessment &amp; Recommendation</v>
       </c>
       <c r="F307" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G307" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H307" s="11" t="s">
         <v>27</v>
@@ -15587,7 +15573,7 @@
         <v>11</v>
       </c>
       <c r="D308" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E308" s="4" t="str">
         <f>IF((C308=""),"",VLOOKUP(C308,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15629,7 +15615,7 @@
         <v>11</v>
       </c>
       <c r="D309" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E309" s="4" t="str">
         <f>IF((C309=""),"",VLOOKUP(C309,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15668,7 +15654,7 @@
         <v>11</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E310" s="4" t="str">
         <f>IF((C310=""),"",VLOOKUP(C310,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15752,7 +15738,7 @@
         <v>11</v>
       </c>
       <c r="D312" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E312" s="4" t="str">
         <f>IF((C312=""),"",VLOOKUP(C312,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15953,14 +15939,14 @@
         <v>11</v>
       </c>
       <c r="D317" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E317" s="4" t="str">
         <f>IF((C317=""),"",VLOOKUP(C317,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>Effects Assessment &amp; Recommendation</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G317" s="11" t="s">
         <v>61</v>
@@ -15992,7 +15978,7 @@
         <v>11</v>
       </c>
       <c r="D318" s="59" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E318" s="4" t="str">
         <f>IF((C318=""),"",VLOOKUP(C318,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16034,7 +16020,7 @@
         <v>11</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E319" s="4" t="str">
         <f>IF((C319=""),"",VLOOKUP(C319,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16073,7 +16059,7 @@
         <v>12</v>
       </c>
       <c r="D320" s="58" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E320" s="4" t="str">
         <f>IF((C320=""),"",VLOOKUP(C320,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16151,7 +16137,7 @@
         <v>12</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E322" s="4" t="str">
         <f>IF((C322=""),"",VLOOKUP(C322,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16313,17 +16299,17 @@
         <v>12</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E326" s="4" t="str">
         <f>IF((C326=""),"",VLOOKUP(C326,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>EAC Decision</v>
       </c>
       <c r="F326" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G326" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H326" s="11" t="s">
         <v>27</v>
@@ -16355,7 +16341,7 @@
         <v>12</v>
       </c>
       <c r="D327" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E327" s="4" t="str">
         <f>IF((C327=""),"",VLOOKUP(C327,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16397,7 +16383,7 @@
         <v>12</v>
       </c>
       <c r="D328" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E328" s="4" t="str">
         <f>IF((C328=""),"",VLOOKUP(C328,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16436,17 +16422,17 @@
         <v>12</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E329" s="4" t="str">
         <f>IF((C329=""),"",VLOOKUP(C329,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>EAC Decision</v>
       </c>
       <c r="F329" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G329" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H329" s="11" t="s">
         <v>27</v>
@@ -16478,7 +16464,7 @@
         <v>12</v>
       </c>
       <c r="D330" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E330" s="4" t="str">
         <f>IF((C330=""),"",VLOOKUP(C330,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16520,7 +16506,7 @@
         <v>12</v>
       </c>
       <c r="D331" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E331" s="4" t="str">
         <f>IF((C331=""),"",VLOOKUP(C331,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16721,7 +16707,7 @@
         <v>12</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E336" s="4" t="str">
         <f>IF((C336=""),"",VLOOKUP(C336,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16763,7 +16749,7 @@
         <v>12</v>
       </c>
       <c r="D337" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E337" s="4" t="str">
         <f>IF((C337=""),"",VLOOKUP(C337,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16855,10 +16841,10 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -16899,7 +16885,7 @@
         <v>Project Transitioning FROM the EA Act (2002)</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -16917,7 +16903,7 @@
         <v>Project Transitioning FROM the EA Act (2002)</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -16935,7 +16921,7 @@
         <v>Project Transitioning FROM the EA Act (2002)</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -16953,7 +16939,7 @@
         <v>Project Transitioning FROM the EA Act (2002)</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -16971,7 +16957,7 @@
         <v>Project Transitioning FROM the EA Act (2002)</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -16989,7 +16975,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -17007,7 +16993,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2">
         <v>7</v>
@@ -17025,7 +17011,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
@@ -17043,7 +17029,7 @@
         <v>IPD/EP Approval Decision (Day Zero)</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="2">
         <v>9</v>
@@ -17061,7 +17047,7 @@
         <v>IPD/EP Approval Decision (Day Zero)</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
@@ -17079,7 +17065,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
@@ -17097,7 +17083,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E13" s="2">
         <v>12</v>
@@ -17115,7 +17101,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
@@ -17133,7 +17119,7 @@
         <v>Summary of Engagement Published</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
@@ -17151,7 +17137,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="2">
         <v>15</v>
@@ -17169,7 +17155,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" s="2">
         <v>16</v>
@@ -17187,7 +17173,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E18" s="2">
         <v>17</v>
@@ -17205,7 +17191,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E19" s="2">
         <v>18</v>
@@ -17223,7 +17209,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E20" s="2">
         <v>19</v>
@@ -17241,7 +17227,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E21" s="2">
         <v>20</v>
@@ -17259,7 +17245,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E22" s="2">
         <v>21</v>
@@ -17277,7 +17263,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E23" s="2">
         <v>22</v>
@@ -17295,7 +17281,7 @@
         <v>CEAO's Readiness Decision (EAC Assessment)</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E24" s="2">
         <v>23</v>
@@ -17313,7 +17299,7 @@
         <v>CEAO's Readiness Decision (EAC Assessment)</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E25" s="2">
         <v>24</v>
@@ -17331,7 +17317,7 @@
         <v>CEAO's Readiness Decision (EAC Assessment)</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E26" s="2">
         <v>25</v>
@@ -17349,7 +17335,7 @@
         <v>CEAO's Readiness Decision (EAC Assessment)</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E27" s="2">
         <v>26</v>
@@ -17367,7 +17353,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E28" s="2">
         <v>27</v>
@@ -17385,7 +17371,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E29" s="2">
         <v>28</v>
@@ -17403,7 +17389,7 @@
         <v>Minister's Termination Decision</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E30" s="2">
         <v>29</v>
@@ -17421,7 +17407,7 @@
         <v>Minister's Termination Decision</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E31" s="2">
         <v>30</v>
@@ -17439,7 +17425,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E32" s="2">
         <v>31</v>
@@ -17457,7 +17443,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E33" s="2">
         <v>32</v>
@@ -17475,7 +17461,7 @@
         <v>CEAO's Further Readiness Decision (EAC Assessment)</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E34" s="2">
         <v>33</v>
@@ -17493,7 +17479,7 @@
         <v>CEAO's Further Readiness Decision (EAC Assessment)</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E35" s="2">
         <v>34</v>
@@ -17511,7 +17497,7 @@
         <v>CEAO's Further Readiness Decision (EAC Assessment)</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E36" s="2">
         <v>35</v>
@@ -17529,7 +17515,7 @@
         <v>Federal Involvement Determination</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E37" s="2">
         <v>36</v>
@@ -17547,7 +17533,7 @@
         <v>Federal Involvement Determination</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" s="2">
         <v>37</v>
@@ -17565,7 +17551,7 @@
         <v>Federal Involvement Determination</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E39" s="2">
         <v>38</v>
@@ -17583,7 +17569,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E40" s="2">
         <v>39</v>
@@ -17601,7 +17587,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E41" s="2">
         <v>40</v>
@@ -17619,7 +17605,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E42" s="2">
         <v>41</v>
@@ -17637,7 +17623,7 @@
         <v>Process Order Issued &amp; Regulatory Coordination Plan Posted</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E43" s="2">
         <v>42</v>
@@ -17655,7 +17641,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" s="2">
         <v>43</v>
@@ -17673,7 +17659,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2">
         <v>44</v>
@@ -17691,7 +17677,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E46" s="2">
         <v>45</v>
@@ -17709,7 +17695,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E47" s="2">
         <v>46</v>
@@ -17727,7 +17713,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E48" s="2">
         <v>47</v>
@@ -17745,7 +17731,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E49" s="2">
         <v>48</v>
@@ -17763,7 +17749,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E50" s="2">
         <v>49</v>
@@ -17781,7 +17767,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E51" s="2">
         <v>50</v>
@@ -17799,7 +17785,7 @@
         <v>Notice to Proponent to Prepare Revised EAC Application</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E52" s="2">
         <v>51</v>
@@ -17817,7 +17803,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E53" s="2">
         <v>52</v>
@@ -17835,7 +17821,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E54" s="2">
         <v>53</v>
@@ -17853,7 +17839,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E55" s="2">
         <v>54</v>
@@ -17871,7 +17857,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E56" s="2">
         <v>55</v>
@@ -17889,7 +17875,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E57" s="2">
         <v>56</v>
@@ -17907,7 +17893,7 @@
         <v>Revised EAC Application Acceptance Decision (Day Zero)</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E58" s="2">
         <v>57</v>
@@ -17925,7 +17911,7 @@
         <v>Revised EAC Application Acceptance Decision (Day Zero)</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E59" s="2">
         <v>58</v>
@@ -17943,7 +17929,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E60" s="2">
         <v>59</v>
@@ -17961,7 +17947,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E61" s="2">
         <v>60</v>
@@ -17979,7 +17965,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E62" s="2">
         <v>61</v>
@@ -17997,7 +17983,7 @@
         <v>EAC Referral Package sent to Ministers</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E63" s="2">
         <v>62</v>
@@ -18015,7 +18001,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E64" s="2">
         <v>63</v>
@@ -18033,7 +18019,7 @@
         <v>EAC Ministers Decision</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E65" s="2">
         <v>64</v>
@@ -18051,7 +18037,7 @@
         <v>EAC Ministers Decision</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E66" s="2">
         <v>65</v>
@@ -18077,13 +18063,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G261"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -18133,10 +18119,13 @@
         <v>Assessment Transitions to the EA Act (2018) Early Engagement PHASE</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>298</v>
+      <c r="F2" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -18157,10 +18146,10 @@
         <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
@@ -18181,10 +18170,10 @@
         <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
@@ -18205,10 +18194,10 @@
         <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G5" s="2">
         <v>4</v>
@@ -18229,10 +18218,10 @@
         <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>
@@ -18253,10 +18242,10 @@
         <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G7" s="2">
         <v>6</v>
@@ -18277,10 +18266,10 @@
         <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G8" s="2">
         <v>7</v>
@@ -18301,10 +18290,10 @@
         <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -18325,10 +18314,10 @@
         <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G10" s="2">
         <v>9</v>
@@ -18349,10 +18338,10 @@
         <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
@@ -18373,10 +18362,10 @@
         <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G12" s="2">
         <v>11</v>
@@ -18397,10 +18386,10 @@
         <v>87</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G13" s="2">
         <v>12</v>
@@ -18421,10 +18410,10 @@
         <v>88</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G14" s="2">
         <v>13</v>
@@ -18445,10 +18434,10 @@
         <v>86</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G15" s="2">
         <v>14</v>
@@ -18469,10 +18458,10 @@
         <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G16" s="2">
         <v>15</v>
@@ -18493,10 +18482,10 @@
         <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G17" s="2">
         <v>16</v>
@@ -18517,10 +18506,10 @@
         <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G18" s="2">
         <v>17</v>
@@ -18541,10 +18530,10 @@
         <v>86</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G19" s="2">
         <v>18</v>
@@ -18565,10 +18554,10 @@
         <v>84</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F20" s="66" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G20" s="2">
         <v>19</v>
@@ -18586,10 +18575,13 @@
         <v>EAO's Viewpoint is POSITIVE</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>298</v>
+      <c r="F21" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G21" s="2">
         <v>20</v>
@@ -18607,10 +18599,13 @@
         <v>EAO's Viewpoint is NEGATIVE</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>298</v>
+      <c r="F22" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G22" s="2">
         <v>21</v>
@@ -18634,7 +18629,7 @@
         <v>90</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G23" s="2">
         <v>22</v>
@@ -18658,7 +18653,7 @@
         <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G24" s="2">
         <v>23</v>
@@ -18682,7 +18677,7 @@
         <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G25" s="2">
         <v>24</v>
@@ -18703,10 +18698,10 @@
         <v>93</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G26" s="2">
         <v>25</v>
@@ -18727,10 +18722,10 @@
         <v>94</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G27" s="2">
         <v>26</v>
@@ -18751,10 +18746,10 @@
         <v>84</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G28" s="2">
         <v>27</v>
@@ -18775,10 +18770,10 @@
         <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="G29" s="2">
         <v>28</v>
@@ -18786,7 +18781,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>10</v>
@@ -18796,13 +18791,13 @@
         <v>CEAO Requires the Proponent to Submit a Revised IPD/EP</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="G30" s="2">
         <v>29</v>
@@ -18810,23 +18805,23 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised IPD/EP</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>396</v>
+        <v>316</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="G31" s="2">
         <v>30</v>
@@ -18834,23 +18829,23 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>317</v>
+        <v>90</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="G32" s="2">
         <v>31</v>
@@ -18858,7 +18853,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3">
         <v>12</v>
@@ -18867,14 +18862,14 @@
         <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D33" t="s">
-        <v>87</v>
+      <c r="D33" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G33" s="2">
         <v>32</v>
@@ -18882,7 +18877,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="3">
         <v>12</v>
@@ -18892,13 +18887,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D34" s="56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G34" s="2">
         <v>33</v>
@@ -18906,7 +18901,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="3">
         <v>12</v>
@@ -18916,13 +18911,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G35" s="2">
         <v>34</v>
@@ -18930,23 +18925,23 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" s="4" t="str">
         <f>IF((B36=""),"",VLOOKUP(B36,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>93</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="G36" s="2">
         <v>35</v>
@@ -18954,7 +18949,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3">
         <v>13</v>
@@ -18963,14 +18958,14 @@
         <f>IF((B37=""),"",VLOOKUP(B37,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D37" t="s">
-        <v>87</v>
+      <c r="D37" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G37" s="2">
         <v>36</v>
@@ -18978,7 +18973,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3">
         <v>13</v>
@@ -18988,13 +18983,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D38" s="56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G38" s="2">
         <v>37</v>
@@ -19002,7 +18997,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3">
         <v>13</v>
@@ -19012,13 +19007,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D39" s="56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>313</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G39" s="2">
         <v>38</v>
@@ -19026,23 +19021,23 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" s="4" t="str">
         <f>IF((B40=""),"",VLOOKUP(B40,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>Last Day of EAC Assessment: Early Engagement PHASE</v>
       </c>
       <c r="D40" s="56" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="G40" s="2">
         <v>39</v>
@@ -19050,20 +19045,20 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" s="4" t="str">
         <f>IF((B41=""),"",VLOOKUP(B41,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Last Day of EAC Assessment: Early Engagement PHASE</v>
-      </c>
-      <c r="D41" s="56" t="s">
-        <v>84</v>
+        <v>EAO's Viewpoint is POSITIVE</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>393</v>
@@ -19074,20 +19069,23 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>IF((B42=""),"",VLOOKUP(B42,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is POSITIVE</v>
+        <v>EAO's Viewpoint is NEGATIVE</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>298</v>
+      <c r="F42" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G42" s="2">
         <v>41</v>
@@ -19095,20 +19093,23 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>IF((B43=""),"",VLOOKUP(B43,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is NEGATIVE</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>298</v>
+        <v>316</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="G43" s="2">
         <v>42</v>
@@ -19116,23 +19117,23 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>IF((B44=""),"",VLOOKUP(B44,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D44" t="s">
+        <v>87</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>317</v>
+        <v>90</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="G44" s="2">
         <v>43</v>
@@ -19140,7 +19141,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3">
         <v>18</v>
@@ -19149,14 +19150,14 @@
         <f>IF((B45=""),"",VLOOKUP(B45,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D45" t="s">
-        <v>87</v>
+      <c r="D45" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G45" s="2">
         <v>44</v>
@@ -19164,7 +19165,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3">
         <v>18</v>
@@ -19174,13 +19175,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D46" s="56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G46" s="2">
         <v>45</v>
@@ -19188,7 +19189,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3">
         <v>18</v>
@@ -19198,13 +19199,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D47" s="56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G47" s="2">
         <v>46</v>
@@ -19212,23 +19213,23 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48" s="4" t="str">
         <f>IF((B48=""),"",VLOOKUP(B48,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D48" s="56" t="s">
-        <v>93</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D48" t="s">
+        <v>87</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="G48" s="2">
         <v>47</v>
@@ -19236,7 +19237,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3">
         <v>19</v>
@@ -19245,14 +19246,14 @@
         <f>IF((B49=""),"",VLOOKUP(B49,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D49" t="s">
-        <v>87</v>
+      <c r="D49" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G49" s="2">
         <v>48</v>
@@ -19260,7 +19261,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="3">
         <v>19</v>
@@ -19270,13 +19271,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D50" s="56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G50" s="2">
         <v>49</v>
@@ -19284,7 +19285,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="3">
         <v>19</v>
@@ -19294,13 +19295,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D51" s="56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>313</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G51" s="2">
         <v>50</v>
@@ -19308,23 +19309,23 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C52" s="4" t="str">
         <f>IF((B52=""),"",VLOOKUP(B52,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D52" s="56" t="s">
-        <v>93</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G52" s="2">
         <v>51</v>
@@ -19332,23 +19333,23 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53" s="4" t="str">
         <f>IF((B53=""),"",VLOOKUP(B53,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D53" t="s">
+        <v>87</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>317</v>
+        <v>90</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="G53" s="2">
         <v>52</v>
@@ -19356,7 +19357,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3">
         <v>21</v>
@@ -19365,14 +19366,14 @@
         <f>IF((B54=""),"",VLOOKUP(B54,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D54" t="s">
-        <v>87</v>
+      <c r="D54" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G54" s="2">
         <v>53</v>
@@ -19380,7 +19381,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3">
         <v>21</v>
@@ -19390,13 +19391,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D55" s="56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G55" s="2">
         <v>54</v>
@@ -19404,7 +19405,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3">
         <v>21</v>
@@ -19414,13 +19415,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D56" s="56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G56" s="2">
         <v>55</v>
@@ -19428,23 +19429,23 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C57" s="4" t="str">
         <f>IF((B57=""),"",VLOOKUP(B57,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D57" s="56" t="s">
-        <v>93</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D57" t="s">
+        <v>87</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="G57" s="2">
         <v>56</v>
@@ -19452,7 +19453,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3">
         <v>22</v>
@@ -19461,14 +19462,14 @@
         <f>IF((B58=""),"",VLOOKUP(B58,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D58" t="s">
-        <v>87</v>
+      <c r="D58" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G58" s="2">
         <v>57</v>
@@ -19476,7 +19477,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="3">
         <v>22</v>
@@ -19486,13 +19487,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D59" s="56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G59" s="2">
         <v>58</v>
@@ -19500,7 +19501,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3">
         <v>22</v>
@@ -19510,13 +19511,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D60" s="56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>92</v>
+        <v>313</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G60" s="2">
         <v>59</v>
@@ -19524,23 +19525,23 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" s="4" t="str">
         <f>IF((B61=""),"",VLOOKUP(B61,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D61" s="56" t="s">
-        <v>93</v>
+        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>362</v>
+        <v>387</v>
+      </c>
+      <c r="F61" s="68" t="s">
+        <v>388</v>
       </c>
       <c r="G61" s="2">
         <v>60</v>
@@ -19548,7 +19549,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" s="3">
         <v>23</v>
@@ -19557,62 +19558,62 @@
         <f>IF((B62=""),"",VLOOKUP(B62,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>320</v>
+      <c r="D62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="67" t="s">
+        <v>319</v>
       </c>
       <c r="F62" s="66" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G62" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="68" customFormat="1">
-      <c r="A63" s="67">
-        <v>62</v>
-      </c>
-      <c r="B63" s="67">
+    <row r="63" spans="1:7">
+      <c r="A63" s="2">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3">
         <v>23</v>
       </c>
-      <c r="C63" s="68" t="str">
+      <c r="C63" s="4" t="str">
         <f>IF((B63=""),"",VLOOKUP(B63,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
       </c>
-      <c r="D63" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="F63" s="69" t="s">
-        <v>373</v>
-      </c>
-      <c r="G63" s="67">
+      <c r="D63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="F63" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="G63" s="2">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64" s="4" t="str">
         <f>IF((B64=""),"",VLOOKUP(B64,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D64" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="F64" s="66" t="s">
-        <v>374</v>
+        <v>Project is Referred to Minister for Termination - s.16(2)(c)</v>
+      </c>
+      <c r="D64" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="G64" s="2">
         <v>63</v>
@@ -19620,23 +19621,23 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C65" s="4" t="str">
         <f>IF((B65=""),"",VLOOKUP(B65,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>84</v>
+        <v>Project is Referred to Minister for Termination - s.16(2)(c)</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
       </c>
       <c r="E65" s="66" t="s">
         <v>325</v>
       </c>
       <c r="F65" s="66" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G65" s="2">
         <v>64</v>
@@ -19644,7 +19645,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66" s="3">
         <v>24</v>
@@ -19653,14 +19654,14 @@
         <f>IF((B66=""),"",VLOOKUP(B66,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Project is Referred to Minister for Termination - s.16(2)(c)</v>
       </c>
-      <c r="D66" s="56" t="s">
-        <v>97</v>
+      <c r="D66" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G66" s="2">
         <v>65</v>
@@ -19668,7 +19669,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67" s="3">
         <v>24</v>
@@ -19677,14 +19678,14 @@
         <f>IF((B67=""),"",VLOOKUP(B67,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Project is Referred to Minister for Termination - s.16(2)(c)</v>
       </c>
-      <c r="D67" t="s">
-        <v>85</v>
+      <c r="D67" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E67" s="66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F67" s="66" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G67" s="2">
         <v>66</v>
@@ -19692,7 +19693,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68" s="3">
         <v>24</v>
@@ -19702,13 +19703,13 @@
         <v>Project is Referred to Minister for Termination - s.16(2)(c)</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>378</v>
+        <v>88</v>
+      </c>
+      <c r="E68" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="F68" s="66" t="s">
+        <v>373</v>
       </c>
       <c r="G68" s="2">
         <v>67</v>
@@ -19716,23 +19717,23 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C69" s="4" t="str">
         <f>IF((B69=""),"",VLOOKUP(B69,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project is Referred to Minister for Termination - s.16(2)(c)</v>
+        <v>Project Moves to Process Planning PHASE - s.18(1)(a)</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F69" s="66" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G69" s="2">
         <v>68</v>
@@ -19740,23 +19741,23 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C70" s="4" t="str">
         <f>IF((B70=""),"",VLOOKUP(B70,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project is Referred to Minister for Termination - s.16(2)(c)</v>
+        <v>Project is Referred to Minister for Process Planning - s.18(1)(b)</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="F70" s="66" t="s">
-        <v>380</v>
+        <v>296</v>
+      </c>
+      <c r="E70" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G70" s="2">
         <v>69</v>
@@ -19764,23 +19765,23 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C71" s="4" t="str">
         <f>IF((B71=""),"",VLOOKUP(B71,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project Moves to Process Planning PHASE - s.18(1)(a)</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E71" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="F71" s="66" t="s">
-        <v>381</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D71" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="G71" s="2">
         <v>70</v>
@@ -19788,20 +19789,23 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C72" s="4" t="str">
         <f>IF((B72=""),"",VLOOKUP(B72,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project is Referred to Minister for Process Planning - s.18(1)(b)</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E72" s="55" t="s">
-        <v>337</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D72" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="G72" s="2">
         <v>71</v>
@@ -19809,7 +19813,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" s="3">
         <v>27</v>
@@ -19818,14 +19822,14 @@
         <f>IF((B73=""),"",VLOOKUP(B73,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D73" t="s">
-        <v>87</v>
+      <c r="D73" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G73" s="2">
         <v>72</v>
@@ -19833,7 +19837,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74" s="3">
         <v>27</v>
@@ -19843,13 +19847,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D74" s="56" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G74" s="2">
         <v>73</v>
@@ -19857,23 +19861,23 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75" s="4" t="str">
         <f>IF((B75=""),"",VLOOKUP(B75,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D75" s="56" t="s">
-        <v>91</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D75" t="s">
+        <v>87</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="G75" s="2">
         <v>74</v>
@@ -19881,23 +19885,23 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76" s="4" t="str">
         <f>IF((B76=""),"",VLOOKUP(B76,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D76" s="56" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G76" s="2">
         <v>75</v>
@@ -19905,7 +19909,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77" s="3">
         <v>28</v>
@@ -19914,14 +19918,14 @@
         <f>IF((B77=""),"",VLOOKUP(B77,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D77" t="s">
-        <v>87</v>
+      <c r="D77" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G77" s="2">
         <v>76</v>
@@ -19929,7 +19933,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78" s="3">
         <v>28</v>
@@ -19939,13 +19943,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G78" s="2">
         <v>77</v>
@@ -19953,23 +19957,23 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C79" s="4" t="str">
         <f>IF((B79=""),"",VLOOKUP(B79,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>Project May Not Proceed as Proposed</v>
       </c>
       <c r="D79" s="56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G79" s="2">
         <v>78</v>
@@ -19977,23 +19981,23 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C80" s="4" t="str">
         <f>IF((B80=""),"",VLOOKUP(B80,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>Project May Not Proceed as Proposed</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>314</v>
+        <v>96</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G80" s="2">
         <v>79</v>
@@ -20001,7 +20005,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" s="3">
         <v>29</v>
@@ -20011,13 +20015,13 @@
         <v>Project May Not Proceed as Proposed</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G81" s="2">
         <v>80</v>
@@ -20025,23 +20029,23 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C82" s="4" t="str">
         <f>IF((B82=""),"",VLOOKUP(B82,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project May Not Proceed as Proposed</v>
+        <v>Project Referred to the CEAO for Further Readiness Decision</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="E82" s="55" t="s">
+        <v>330</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="G82" s="2">
         <v>81</v>
@@ -20049,23 +20053,23 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C83" s="4" t="str">
         <f>IF((B83=""),"",VLOOKUP(B83,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project May Not Proceed as Proposed</v>
-      </c>
-      <c r="D83" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>362</v>
+        <v>Project Referred to the CEAO for Further Readiness Decision</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="F83" s="66" t="s">
+        <v>376</v>
       </c>
       <c r="G83" s="2">
         <v>82</v>
@@ -20073,23 +20077,23 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C84" s="4" t="str">
         <f>IF((B84=""),"",VLOOKUP(B84,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project Referred to the CEAO for Further Readiness Decision</v>
-      </c>
-      <c r="D84" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="E84" s="55" t="s">
-        <v>333</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D84" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="G84" s="2">
         <v>83</v>
@@ -20097,23 +20101,23 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C85" s="4" t="str">
         <f>IF((B85=""),"",VLOOKUP(B85,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project Referred to the CEAO for Further Readiness Decision</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="F85" s="66" t="s">
-        <v>383</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D85" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="G85" s="2">
         <v>84</v>
@@ -20121,7 +20125,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" s="3">
         <v>31</v>
@@ -20130,14 +20134,14 @@
         <f>IF((B86=""),"",VLOOKUP(B86,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D86" t="s">
-        <v>87</v>
+      <c r="D86" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G86" s="2">
         <v>85</v>
@@ -20145,7 +20149,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="3">
         <v>31</v>
@@ -20155,13 +20159,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D87" s="56" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G87" s="2">
         <v>86</v>
@@ -20169,23 +20173,23 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C88" s="4" t="str">
         <f>IF((B88=""),"",VLOOKUP(B88,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D88" s="56" t="s">
-        <v>91</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D88" t="s">
+        <v>87</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="G88" s="2">
         <v>87</v>
@@ -20193,23 +20197,23 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C89" s="4" t="str">
         <f>IF((B89=""),"",VLOOKUP(B89,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D89" s="56" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G89" s="2">
         <v>88</v>
@@ -20217,7 +20221,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="3">
         <v>32</v>
@@ -20226,14 +20230,14 @@
         <f>IF((B90=""),"",VLOOKUP(B90,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D90" t="s">
-        <v>87</v>
+      <c r="D90" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G90" s="2">
         <v>89</v>
@@ -20241,7 +20245,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="3">
         <v>32</v>
@@ -20251,13 +20255,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D91" s="56" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G91" s="2">
         <v>90</v>
@@ -20265,23 +20269,23 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C92" s="4" t="str">
         <f>IF((B92=""),"",VLOOKUP(B92,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D92" s="56" t="s">
-        <v>91</v>
+        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="G92" s="2">
         <v>91</v>
@@ -20289,23 +20293,23 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B93" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C93" s="4" t="str">
         <f>IF((B93=""),"",VLOOKUP(B93,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D93" s="56" t="s">
-        <v>93</v>
+        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D93" t="s">
+        <v>87</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>362</v>
+        <v>319</v>
+      </c>
+      <c r="F93" s="66" t="s">
+        <v>367</v>
       </c>
       <c r="G93" s="2">
         <v>92</v>
@@ -20313,7 +20317,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B94" s="3">
         <v>33</v>
@@ -20323,61 +20327,61 @@
         <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>372</v>
+        <v>322</v>
+      </c>
+      <c r="F94" s="66" t="s">
+        <v>368</v>
       </c>
       <c r="G94" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="68" customFormat="1">
-      <c r="A95" s="67">
-        <v>94</v>
-      </c>
-      <c r="B95" s="67">
-        <v>33</v>
-      </c>
-      <c r="C95" s="68" t="str">
+    <row r="95" spans="1:7">
+      <c r="A95" s="2">
+        <v>97</v>
+      </c>
+      <c r="B95" s="3">
+        <v>34</v>
+      </c>
+      <c r="C95" s="4" t="str">
         <f>IF((B95=""),"",VLOOKUP(B95,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D95" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="E95" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="F95" s="68" t="s">
-        <v>384</v>
-      </c>
-      <c r="G95" s="67">
+        <v>Project Moves to Process Planning PHASE - s.18(1)(a)</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F95" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="G95" s="2">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B96" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C96" s="4" t="str">
         <f>IF((B96=""),"",VLOOKUP(B96,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D96" t="s">
-        <v>87</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F96" s="66" t="s">
-        <v>374</v>
+        <v>Project is Referred to Minister for Process Planning - s.18(1)(b)</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E96" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G96" s="2">
         <v>95</v>
@@ -20385,23 +20389,23 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B97" s="3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C97" s="4" t="str">
         <f>IF((B97=""),"",VLOOKUP(B97,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+        <v>No Federal Involvement triggered for this WORK</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F97" s="66" t="s">
-        <v>375</v>
+        <v>98</v>
+      </c>
+      <c r="E97" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="G97" s="2">
         <v>96</v>
@@ -20409,23 +20413,23 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B98" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C98" s="4" t="str">
         <f>IF((B98=""),"",VLOOKUP(B98,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project Moves to Process Planning PHASE - s.18(1)(a)</v>
+        <v>Federal Substitution Request Approved</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F98" s="66" t="s">
-        <v>381</v>
+        <v>98</v>
+      </c>
+      <c r="E98" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="G98" s="2">
         <v>97</v>
@@ -20433,20 +20437,23 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B99" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C99" s="4" t="str">
         <f>IF((B99=""),"",VLOOKUP(B99,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project is Referred to Minister for Process Planning - s.18(1)(b)</v>
+        <v>Other form of Federal Involvement (Coordination, etc.)</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E99" s="55" t="s">
-        <v>337</v>
+        <v>334</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G99" s="2">
         <v>98</v>
@@ -20454,23 +20461,23 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B100" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C100" s="4" t="str">
         <f>IF((B100=""),"",VLOOKUP(B100,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>No Federal Involvement triggered for this WORK</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E100" s="55" t="s">
-        <v>335</v>
+        <v>95</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="G100" s="2">
         <v>99</v>
@@ -20478,23 +20485,23 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B101" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C101" s="4" t="str">
         <f>IF((B101=""),"",VLOOKUP(B101,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Federal Substitution Request Approved</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E101" s="55" t="s">
-        <v>336</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D101" t="s">
+        <v>87</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="G101" s="2">
         <v>100</v>
@@ -20502,20 +20509,23 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B102" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C102" s="4" t="str">
         <f>IF((B102=""),"",VLOOKUP(B102,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Other form of Federal Involvement (Coordination, etc.)</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E102" s="55" t="s">
-        <v>337</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D102" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="G102" s="2">
         <v>101</v>
@@ -20523,23 +20533,23 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B103" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C103" s="4" t="str">
         <f>IF((B103=""),"",VLOOKUP(B103,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D103" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G103" s="2">
         <v>102</v>
@@ -20547,7 +20557,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B104" s="3">
         <v>40</v>
@@ -20556,14 +20566,14 @@
         <f>IF((B104=""),"",VLOOKUP(B104,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D104" t="s">
-        <v>87</v>
+      <c r="D104" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G104" s="2">
         <v>103</v>
@@ -20571,23 +20581,23 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B105" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C105" s="4" t="str">
         <f>IF((B105=""),"",VLOOKUP(B105,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D105" s="56" t="s">
-        <v>86</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D105" t="s">
+        <v>87</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G105" s="2">
         <v>104</v>
@@ -20595,23 +20605,23 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B106" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C106" s="4" t="str">
         <f>IF((B106=""),"",VLOOKUP(B106,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D106" s="56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G106" s="2">
         <v>105</v>
@@ -20619,23 +20629,23 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B107" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C107" s="4" t="str">
         <f>IF((B107=""),"",VLOOKUP(B107,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D107" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G107" s="2">
         <v>106</v>
@@ -20643,7 +20653,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B108" s="3">
         <v>41</v>
@@ -20652,14 +20662,14 @@
         <f>IF((B108=""),"",VLOOKUP(B108,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D108" t="s">
-        <v>87</v>
+      <c r="D108" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G108" s="2">
         <v>107</v>
@@ -20667,23 +20677,23 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B109" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C109" s="4" t="str">
         <f>IF((B109=""),"",VLOOKUP(B109,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>Last Day of EAC Assessment: Process Planning PHASE</v>
       </c>
       <c r="D109" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>358</v>
+        <v>84</v>
+      </c>
+      <c r="E109" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="F109" s="66" t="s">
+        <v>361</v>
       </c>
       <c r="G109" s="2">
         <v>108</v>
@@ -20691,23 +20701,23 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B110" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C110" s="4" t="str">
         <f>IF((B110=""),"",VLOOKUP(B110,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D110" s="56" t="s">
-        <v>91</v>
+        <v>EAO's Viewpoint is POSITIVE</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="G110" s="2">
         <v>109</v>
@@ -20715,23 +20725,23 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B111" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C111" s="4" t="str">
         <f>IF((B111=""),"",VLOOKUP(B111,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D111" s="56" t="s">
-        <v>93</v>
+        <v>EAO's Viewpoint is NEGATIVE</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="G111" s="2">
         <v>110</v>
@@ -20739,23 +20749,23 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B112" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C112" s="4" t="str">
         <f>IF((B112=""),"",VLOOKUP(B112,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Last Day of EAC Assessment: Process Planning PHASE</v>
-      </c>
-      <c r="D112" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E112" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="F112" s="66" t="s">
-        <v>366</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="G112" s="2">
         <v>111</v>
@@ -20763,20 +20773,23 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B113" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C113" s="4" t="str">
         <f>IF((B113=""),"",VLOOKUP(B113,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is POSITIVE</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>297</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D113" t="s">
+        <v>87</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>298</v>
+        <v>90</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="G113" s="2">
         <v>112</v>
@@ -20784,20 +20797,23 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B114" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C114" s="4" t="str">
         <f>IF((B114=""),"",VLOOKUP(B114,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is NEGATIVE</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>297</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D114" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>298</v>
+        <v>89</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="G114" s="2">
         <v>113</v>
@@ -20805,23 +20821,23 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B115" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C115" s="4" t="str">
         <f>IF((B115=""),"",VLOOKUP(B115,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D115" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G115" s="2">
         <v>114</v>
@@ -20829,7 +20845,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B116" s="3">
         <v>46</v>
@@ -20838,14 +20854,14 @@
         <f>IF((B116=""),"",VLOOKUP(B116,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D116" t="s">
-        <v>87</v>
+      <c r="D116" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G116" s="2">
         <v>115</v>
@@ -20853,23 +20869,23 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B117" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C117" s="4" t="str">
         <f>IF((B117=""),"",VLOOKUP(B117,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D117" s="56" t="s">
-        <v>86</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D117" t="s">
+        <v>87</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G117" s="2">
         <v>116</v>
@@ -20877,23 +20893,23 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B118" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C118" s="4" t="str">
         <f>IF((B118=""),"",VLOOKUP(B118,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D118" s="56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G118" s="2">
         <v>117</v>
@@ -20901,23 +20917,23 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B119" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C119" s="4" t="str">
         <f>IF((B119=""),"",VLOOKUP(B119,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D119" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G119" s="2">
         <v>118</v>
@@ -20925,7 +20941,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B120" s="3">
         <v>47</v>
@@ -20934,14 +20950,14 @@
         <f>IF((B120=""),"",VLOOKUP(B120,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D120" t="s">
-        <v>87</v>
+      <c r="D120" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G120" s="2">
         <v>119</v>
@@ -20949,20 +20965,20 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B121" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C121" s="4" t="str">
         <f>IF((B121=""),"",VLOOKUP(B121,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D121" s="56" t="s">
-        <v>86</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>358</v>
@@ -20973,23 +20989,23 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B122" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C122" s="4" t="str">
         <f>IF((B122=""),"",VLOOKUP(B122,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D122" s="56" t="s">
-        <v>91</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D122" t="s">
+        <v>87</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="G122" s="2">
         <v>121</v>
@@ -20997,23 +21013,23 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B123" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C123" s="4" t="str">
         <f>IF((B123=""),"",VLOOKUP(B123,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D123" s="56" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G123" s="2">
         <v>122</v>
@@ -21021,23 +21037,23 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B124" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C124" s="4" t="str">
         <f>IF((B124=""),"",VLOOKUP(B124,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D124" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G124" s="2">
         <v>123</v>
@@ -21045,7 +21061,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B125" s="3">
         <v>49</v>
@@ -21054,14 +21070,14 @@
         <f>IF((B125=""),"",VLOOKUP(B125,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D125" t="s">
-        <v>87</v>
+      <c r="D125" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G125" s="2">
         <v>124</v>
@@ -21069,23 +21085,23 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B126" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C126" s="4" t="str">
         <f>IF((B126=""),"",VLOOKUP(B126,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D126" s="56" t="s">
-        <v>86</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D126" t="s">
+        <v>87</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G126" s="2">
         <v>125</v>
@@ -21093,23 +21109,23 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B127" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C127" s="4" t="str">
         <f>IF((B127=""),"",VLOOKUP(B127,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D127" s="56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G127" s="2">
         <v>126</v>
@@ -21117,23 +21133,23 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B128" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C128" s="4" t="str">
         <f>IF((B128=""),"",VLOOKUP(B128,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D128" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G128" s="2">
         <v>127</v>
@@ -21141,7 +21157,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B129" s="3">
         <v>50</v>
@@ -21150,14 +21166,14 @@
         <f>IF((B129=""),"",VLOOKUP(B129,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D129" t="s">
-        <v>87</v>
+      <c r="D129" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G129" s="2">
         <v>128</v>
@@ -21165,23 +21181,23 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B130" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C130" s="4" t="str">
         <f>IF((B130=""),"",VLOOKUP(B130,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>Last Day of EAC Assessment: EAC Application Review PHASE</v>
       </c>
       <c r="D130" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>358</v>
+        <v>84</v>
+      </c>
+      <c r="E130" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="F130" s="66" t="s">
+        <v>366</v>
       </c>
       <c r="G130" s="2">
         <v>129</v>
@@ -21189,23 +21205,23 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B131" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C131" s="4" t="str">
         <f>IF((B131=""),"",VLOOKUP(B131,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D131" s="56" t="s">
-        <v>91</v>
+        <v>EAO's Viewpoint is POSITIVE</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="G131" s="2">
         <v>130</v>
@@ -21213,23 +21229,23 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B132" s="3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C132" s="4" t="str">
         <f>IF((B132=""),"",VLOOKUP(B132,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D132" s="56" t="s">
-        <v>93</v>
+        <v>EAO's Viewpoint is NEGATIVE</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="G132" s="2">
         <v>131</v>
@@ -21237,23 +21253,23 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B133" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C133" s="4" t="str">
         <f>IF((B133=""),"",VLOOKUP(B133,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Last Day of EAC Assessment: EAC Application Review PHASE</v>
-      </c>
-      <c r="D133" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E133" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="F133" s="66" t="s">
-        <v>371</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="G133" s="2">
         <v>132</v>
@@ -21261,20 +21277,23 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B134" s="3">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C134" s="4" t="str">
         <f>IF((B134=""),"",VLOOKUP(B134,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is POSITIVE</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>297</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D134" t="s">
+        <v>87</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>298</v>
+        <v>90</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="G134" s="2">
         <v>133</v>
@@ -21282,20 +21301,23 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B135" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C135" s="4" t="str">
         <f>IF((B135=""),"",VLOOKUP(B135,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is NEGATIVE</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>297</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D135" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>298</v>
+        <v>89</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="G135" s="2">
         <v>134</v>
@@ -21303,23 +21325,23 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B136" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C136" s="4" t="str">
         <f>IF((B136=""),"",VLOOKUP(B136,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D136" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G136" s="2">
         <v>135</v>
@@ -21327,7 +21349,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B137" s="3">
         <v>55</v>
@@ -21336,14 +21358,14 @@
         <f>IF((B137=""),"",VLOOKUP(B137,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D137" t="s">
-        <v>87</v>
+      <c r="D137" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G137" s="2">
         <v>136</v>
@@ -21351,23 +21373,23 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B138" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C138" s="4" t="str">
         <f>IF((B138=""),"",VLOOKUP(B138,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D138" s="56" t="s">
-        <v>86</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D138" t="s">
+        <v>87</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G138" s="2">
         <v>137</v>
@@ -21375,23 +21397,23 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B139" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C139" s="4" t="str">
         <f>IF((B139=""),"",VLOOKUP(B139,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D139" s="56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G139" s="2">
         <v>138</v>
@@ -21399,23 +21421,23 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B140" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C140" s="4" t="str">
         <f>IF((B140=""),"",VLOOKUP(B140,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D140" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G140" s="2">
         <v>139</v>
@@ -21423,7 +21445,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B141" s="3">
         <v>56</v>
@@ -21432,14 +21454,14 @@
         <f>IF((B141=""),"",VLOOKUP(B141,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D141" t="s">
-        <v>87</v>
+      <c r="D141" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G141" s="2">
         <v>140</v>
@@ -21447,23 +21469,23 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B142" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C142" s="4" t="str">
         <f>IF((B142=""),"",VLOOKUP(B142,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D142" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>358</v>
+        <v>Revised EAC Application Sufficient to Proceed</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E142" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="F142" s="66" t="s">
+        <v>379</v>
       </c>
       <c r="G142" s="2">
         <v>141</v>
@@ -21471,23 +21493,23 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B143" s="3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C143" s="4" t="str">
         <f>IF((B143=""),"",VLOOKUP(B143,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>Proponent must provide an updated Revised EAC Application</v>
       </c>
       <c r="D143" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="E143" s="68" t="s">
+        <v>390</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="G143" s="2">
         <v>142</v>
@@ -21495,23 +21517,23 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B144" s="3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C144" s="4" t="str">
         <f>IF((B144=""),"",VLOOKUP(B144,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D144" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>314</v>
+        <v>Proponent must provide an updated Revised EAC Application</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E144" s="66" t="s">
+        <v>337</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="G144" s="2">
         <v>143</v>
@@ -21519,23 +21541,23 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B145" s="3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C145" s="4" t="str">
         <f>IF((B145=""),"",VLOOKUP(B145,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Revised EAC Application Sufficient to Proceed</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E145" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="F145" s="66" t="s">
-        <v>387</v>
+        <v>95</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="G145" s="2">
         <v>144</v>
@@ -21543,23 +21565,23 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B146" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C146" s="4" t="str">
         <f>IF((B146=""),"",VLOOKUP(B146,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent must provide an updated Revised EAC Application</v>
-      </c>
-      <c r="D146" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="E146" s="66" t="s">
-        <v>340</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D146" t="s">
+        <v>87</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="G146" s="2">
         <v>145</v>
@@ -21567,23 +21589,23 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B147" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C147" s="4" t="str">
         <f>IF((B147=""),"",VLOOKUP(B147,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent must provide an updated Revised EAC Application</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E147" s="55" t="s">
-        <v>341</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D147" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="G147" s="2">
         <v>146</v>
@@ -21591,23 +21613,23 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B148" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C148" s="4" t="str">
         <f>IF((B148=""),"",VLOOKUP(B148,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent must provide an updated Revised EAC Application</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E148" s="66" t="s">
-        <v>342</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D148" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="G148" s="2">
         <v>147</v>
@@ -21615,23 +21637,23 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B149" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C149" s="4" t="str">
         <f>IF((B149=""),"",VLOOKUP(B149,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D149" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G149" s="2">
         <v>148</v>
@@ -21639,14 +21661,14 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B150" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C150" s="4" t="str">
         <f>IF((B150=""),"",VLOOKUP(B150,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D150" t="s">
         <v>87</v>
@@ -21655,7 +21677,7 @@
         <v>90</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G150" s="2">
         <v>149</v>
@@ -21663,14 +21685,14 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B151" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C151" s="4" t="str">
         <f>IF((B151=""),"",VLOOKUP(B151,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D151" s="56" t="s">
         <v>86</v>
@@ -21679,7 +21701,7 @@
         <v>89</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G151" s="2">
         <v>150</v>
@@ -21687,23 +21709,23 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B152" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C152" s="4" t="str">
         <f>IF((B152=""),"",VLOOKUP(B152,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D152" s="56" t="s">
         <v>91</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G152" s="2">
         <v>151</v>
@@ -21711,23 +21733,23 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B153" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C153" s="4" t="str">
         <f>IF((B153=""),"",VLOOKUP(B153,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D153" s="56" t="s">
         <v>93</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G153" s="2">
         <v>152</v>
@@ -21735,23 +21757,23 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B154" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C154" s="4" t="str">
         <f>IF((B154=""),"",VLOOKUP(B154,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D154" t="s">
-        <v>87</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>350</v>
+        <v>Last Day of EAC Assessment: Effects Assessment PHASE</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E154" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="F154" s="66" t="s">
+        <v>381</v>
       </c>
       <c r="G154" s="2">
         <v>153</v>
@@ -21759,23 +21781,23 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B155" s="3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C155" s="4" t="str">
         <f>IF((B155=""),"",VLOOKUP(B155,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D155" s="56" t="s">
-        <v>86</v>
+      <c r="D155" t="s">
+        <v>87</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G155" s="2">
         <v>154</v>
@@ -21783,23 +21805,23 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B156" s="3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C156" s="4" t="str">
         <f>IF((B156=""),"",VLOOKUP(B156,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D156" s="56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G156" s="2">
         <v>155</v>
@@ -21807,23 +21829,23 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B157" s="3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C157" s="4" t="str">
         <f>IF((B157=""),"",VLOOKUP(B157,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D157" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G157" s="2">
         <v>156</v>
@@ -21831,23 +21853,23 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B158" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C158" s="4" t="str">
         <f>IF((B158=""),"",VLOOKUP(B158,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Last Day of EAC Assessment: Effects Assessment PHASE</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E158" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="F158" s="66" t="s">
-        <v>391</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D158" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="G158" s="2">
         <v>157</v>
@@ -21855,23 +21877,23 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B159" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C159" s="4" t="str">
         <f>IF((B159=""),"",VLOOKUP(B159,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D159" t="s">
-        <v>87</v>
+        <v>Environmental Assessment Certificate GRANTED</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>90</v>
+        <v>341</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G159" s="2">
         <v>158</v>
@@ -21879,23 +21901,23 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B160" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C160" s="4" t="str">
         <f>IF((B160=""),"",VLOOKUP(B160,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D160" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>89</v>
+        <v>Environmental Assessment Certificate GRANTED</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E160" s="55" t="s">
+        <v>342</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="G160" s="2">
         <v>159</v>
@@ -21903,23 +21925,23 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B161" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C161" s="4" t="str">
         <f>IF((B161=""),"",VLOOKUP(B161,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D161" s="56" t="s">
+        <v>Environmental Assessment Certificate REFUSED</v>
+      </c>
+      <c r="D161" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>92</v>
+      <c r="E161" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G161" s="2">
         <v>160</v>
@@ -21927,23 +21949,23 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B162" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C162" s="4" t="str">
         <f>IF((B162=""),"",VLOOKUP(B162,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D162" s="56" t="s">
+        <v>Environmental Assessment Certificate REFUSED</v>
+      </c>
+      <c r="D162" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G162" s="2">
         <v>161</v>
@@ -21951,1321 +21973,1041 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>162</v>
-      </c>
-      <c r="B163" s="3">
-        <v>64</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B163" s="3"/>
       <c r="C163" s="4" t="str">
         <f>IF((B163=""),"",VLOOKUP(B163,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate GRANTED</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G163" s="2">
-        <v>162</v>
-      </c>
+        <v/>
+      </c>
+      <c r="G163" s="2"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>163</v>
-      </c>
-      <c r="B164" s="3">
-        <v>64</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B164" s="3"/>
       <c r="C164" s="4" t="str">
         <f>IF((B164=""),"",VLOOKUP(B164,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate GRANTED</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E164" s="55" t="s">
-        <v>347</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G164" s="2">
-        <v>163</v>
-      </c>
+        <v/>
+      </c>
+      <c r="G164" s="2"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>164</v>
-      </c>
-      <c r="B165" s="3">
-        <v>65</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B165" s="3"/>
       <c r="C165" s="4" t="str">
         <f>IF((B165=""),"",VLOOKUP(B165,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate REFUSED</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G165" s="2">
-        <v>164</v>
-      </c>
+        <v/>
+      </c>
+      <c r="G165" s="2"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>165</v>
-      </c>
-      <c r="B166" s="3">
-        <v>65</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B166" s="3"/>
       <c r="C166" s="4" t="str">
         <f>IF((B166=""),"",VLOOKUP(B166,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate REFUSED</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G166" s="2">
-        <v>165</v>
-      </c>
+        <v/>
+      </c>
+      <c r="G166" s="2"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="4" t="str">
         <f>IF((B167=""),"",VLOOKUP(B167,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G167" s="2">
-        <v>166</v>
-      </c>
+      <c r="G167" s="2"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="4" t="str">
         <f>IF((B168=""),"",VLOOKUP(B168,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G168" s="2">
-        <v>167</v>
-      </c>
+      <c r="G168" s="2"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="4" t="str">
         <f>IF((B169=""),"",VLOOKUP(B169,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G169" s="2">
-        <v>168</v>
-      </c>
+      <c r="G169" s="2"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="4" t="str">
         <f>IF((B170=""),"",VLOOKUP(B170,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G170" s="2">
-        <v>169</v>
-      </c>
+      <c r="G170" s="2"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="4" t="str">
         <f>IF((B171=""),"",VLOOKUP(B171,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G171" s="2">
-        <v>170</v>
-      </c>
+      <c r="G171" s="2"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="4" t="str">
         <f>IF((B172=""),"",VLOOKUP(B172,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G172" s="2">
-        <v>171</v>
-      </c>
+      <c r="G172" s="2"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="4" t="str">
         <f>IF((B173=""),"",VLOOKUP(B173,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G173" s="2">
-        <v>172</v>
-      </c>
+      <c r="G173" s="2"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="4" t="str">
         <f>IF((B174=""),"",VLOOKUP(B174,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G174" s="2">
-        <v>173</v>
-      </c>
+      <c r="G174" s="2"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="4" t="str">
         <f>IF((B175=""),"",VLOOKUP(B175,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G175" s="2">
-        <v>174</v>
-      </c>
+      <c r="G175" s="2"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="4" t="str">
         <f>IF((B176=""),"",VLOOKUP(B176,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G176" s="2">
-        <v>175</v>
-      </c>
+      <c r="G176" s="2"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="4" t="str">
         <f>IF((B177=""),"",VLOOKUP(B177,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G177" s="2">
-        <v>176</v>
-      </c>
+      <c r="G177" s="2"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="4" t="str">
         <f>IF((B178=""),"",VLOOKUP(B178,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G178" s="2">
-        <v>177</v>
-      </c>
+      <c r="G178" s="2"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="4" t="str">
         <f>IF((B179=""),"",VLOOKUP(B179,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G179" s="2">
-        <v>178</v>
-      </c>
+      <c r="G179" s="2"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="4" t="str">
         <f>IF((B180=""),"",VLOOKUP(B180,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G180" s="2">
-        <v>179</v>
-      </c>
+      <c r="G180" s="2"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="4" t="str">
         <f>IF((B181=""),"",VLOOKUP(B181,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G181" s="2">
-        <v>180</v>
-      </c>
+      <c r="G181" s="2"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="4" t="str">
         <f>IF((B182=""),"",VLOOKUP(B182,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G182" s="2">
-        <v>181</v>
-      </c>
+      <c r="G182" s="2"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="4" t="str">
         <f>IF((B183=""),"",VLOOKUP(B183,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G183" s="2">
-        <v>182</v>
-      </c>
+      <c r="G183" s="2"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="4" t="str">
         <f>IF((B184=""),"",VLOOKUP(B184,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G184" s="2">
-        <v>183</v>
-      </c>
+      <c r="G184" s="2"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="4" t="str">
         <f>IF((B185=""),"",VLOOKUP(B185,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G185" s="2">
-        <v>184</v>
-      </c>
+      <c r="G185" s="2"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="4" t="str">
         <f>IF((B186=""),"",VLOOKUP(B186,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G186" s="2">
-        <v>185</v>
-      </c>
+      <c r="G186" s="2"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="4" t="str">
         <f>IF((B187=""),"",VLOOKUP(B187,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G187" s="2">
-        <v>186</v>
-      </c>
+      <c r="G187" s="2"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="4" t="str">
         <f>IF((B188=""),"",VLOOKUP(B188,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G188" s="2">
-        <v>187</v>
-      </c>
+      <c r="G188" s="2"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="4" t="str">
         <f>IF((B189=""),"",VLOOKUP(B189,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G189" s="2">
-        <v>188</v>
-      </c>
+      <c r="G189" s="2"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="4" t="str">
         <f>IF((B190=""),"",VLOOKUP(B190,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G190" s="2">
-        <v>189</v>
-      </c>
+      <c r="G190" s="2"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="4" t="str">
         <f>IF((B191=""),"",VLOOKUP(B191,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G191" s="2">
-        <v>190</v>
-      </c>
+      <c r="G191" s="2"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="4" t="str">
         <f>IF((B192=""),"",VLOOKUP(B192,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G192" s="2">
-        <v>191</v>
-      </c>
+      <c r="G192" s="2"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="4" t="str">
         <f>IF((B193=""),"",VLOOKUP(B193,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G193" s="2">
-        <v>192</v>
-      </c>
+      <c r="G193" s="2"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="4" t="str">
         <f>IF((B194=""),"",VLOOKUP(B194,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G194" s="2">
-        <v>193</v>
-      </c>
+      <c r="G194" s="2"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="4" t="str">
         <f>IF((B195=""),"",VLOOKUP(B195,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G195" s="2">
-        <v>194</v>
-      </c>
+      <c r="G195" s="2"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="4" t="str">
         <f>IF((B196=""),"",VLOOKUP(B196,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G196" s="2">
-        <v>195</v>
-      </c>
+      <c r="G196" s="2"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="4" t="str">
         <f>IF((B197=""),"",VLOOKUP(B197,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G197" s="2">
-        <v>196</v>
-      </c>
+      <c r="G197" s="2"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="4" t="str">
         <f>IF((B198=""),"",VLOOKUP(B198,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G198" s="2">
-        <v>197</v>
-      </c>
+      <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="4" t="str">
         <f>IF((B199=""),"",VLOOKUP(B199,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G199" s="2">
-        <v>198</v>
-      </c>
+      <c r="G199" s="2"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="4" t="str">
         <f>IF((B200=""),"",VLOOKUP(B200,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G200" s="2">
-        <v>199</v>
-      </c>
+      <c r="G200" s="2"/>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="4" t="str">
         <f>IF((B201=""),"",VLOOKUP(B201,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G201" s="2">
-        <v>200</v>
-      </c>
+      <c r="G201" s="2"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="4" t="str">
         <f>IF((B202=""),"",VLOOKUP(B202,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G202" s="2">
-        <v>201</v>
-      </c>
+      <c r="G202" s="2"/>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="4" t="str">
         <f>IF((B203=""),"",VLOOKUP(B203,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G203" s="2">
-        <v>202</v>
-      </c>
+      <c r="G203" s="2"/>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="4" t="str">
         <f>IF((B204=""),"",VLOOKUP(B204,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G204" s="2">
-        <v>203</v>
-      </c>
+      <c r="G204" s="2"/>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="4" t="str">
         <f>IF((B205=""),"",VLOOKUP(B205,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G205" s="2">
-        <v>204</v>
-      </c>
+      <c r="G205" s="2"/>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="4" t="str">
         <f>IF((B206=""),"",VLOOKUP(B206,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G206" s="2">
-        <v>205</v>
-      </c>
+      <c r="G206" s="2"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="4" t="str">
         <f>IF((B207=""),"",VLOOKUP(B207,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G207" s="2">
-        <v>206</v>
-      </c>
+      <c r="G207" s="2"/>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="4" t="str">
         <f>IF((B208=""),"",VLOOKUP(B208,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G208" s="2">
-        <v>207</v>
-      </c>
+      <c r="G208" s="2"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="4" t="str">
         <f>IF((B209=""),"",VLOOKUP(B209,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G209" s="2">
-        <v>208</v>
-      </c>
+      <c r="G209" s="2"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="4" t="str">
         <f>IF((B210=""),"",VLOOKUP(B210,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G210" s="2">
-        <v>209</v>
-      </c>
+      <c r="G210" s="2"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="4" t="str">
         <f>IF((B211=""),"",VLOOKUP(B211,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G211" s="2">
-        <v>210</v>
-      </c>
+      <c r="G211" s="2"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="4" t="str">
         <f>IF((B212=""),"",VLOOKUP(B212,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G212" s="2">
-        <v>211</v>
-      </c>
+      <c r="G212" s="2"/>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="4" t="str">
         <f>IF((B213=""),"",VLOOKUP(B213,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G213" s="2">
-        <v>212</v>
-      </c>
+      <c r="G213" s="2"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="4" t="str">
         <f>IF((B214=""),"",VLOOKUP(B214,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G214" s="2">
-        <v>213</v>
-      </c>
+      <c r="G214" s="2"/>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="4" t="str">
         <f>IF((B215=""),"",VLOOKUP(B215,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G215" s="2">
-        <v>214</v>
-      </c>
+      <c r="G215" s="2"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="4" t="str">
         <f>IF((B216=""),"",VLOOKUP(B216,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G216" s="2">
-        <v>215</v>
-      </c>
+      <c r="G216" s="2"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="4" t="str">
         <f>IF((B217=""),"",VLOOKUP(B217,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G217" s="2">
-        <v>216</v>
-      </c>
+      <c r="G217" s="2"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="4" t="str">
         <f>IF((B218=""),"",VLOOKUP(B218,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G218" s="2">
-        <v>217</v>
-      </c>
+      <c r="G218" s="2"/>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="4" t="str">
         <f>IF((B219=""),"",VLOOKUP(B219,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G219" s="2">
-        <v>218</v>
-      </c>
+      <c r="G219" s="2"/>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="4" t="str">
         <f>IF((B220=""),"",VLOOKUP(B220,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G220" s="2">
-        <v>219</v>
-      </c>
+      <c r="G220" s="2"/>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" s="4" t="str">
         <f>IF((B221=""),"",VLOOKUP(B221,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G221" s="2">
-        <v>220</v>
-      </c>
+      <c r="G221" s="2"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="4" t="str">
         <f>IF((B222=""),"",VLOOKUP(B222,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G222" s="2">
-        <v>221</v>
-      </c>
+      <c r="G222" s="2"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="4" t="str">
         <f>IF((B223=""),"",VLOOKUP(B223,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G223" s="2">
-        <v>222</v>
-      </c>
+      <c r="G223" s="2"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="4" t="str">
         <f>IF((B224=""),"",VLOOKUP(B224,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G224" s="2">
-        <v>223</v>
-      </c>
+      <c r="G224" s="2"/>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="4" t="str">
         <f>IF((B225=""),"",VLOOKUP(B225,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G225" s="2">
-        <v>224</v>
-      </c>
+      <c r="G225" s="2"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="4" t="str">
         <f>IF((B226=""),"",VLOOKUP(B226,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G226" s="2">
-        <v>225</v>
-      </c>
+      <c r="G226" s="2"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="4" t="str">
         <f>IF((B227=""),"",VLOOKUP(B227,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G227" s="2">
-        <v>226</v>
-      </c>
+      <c r="G227" s="2"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="4" t="str">
         <f>IF((B228=""),"",VLOOKUP(B228,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G228" s="2">
-        <v>227</v>
-      </c>
+      <c r="G228" s="2"/>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="4" t="str">
         <f>IF((B229=""),"",VLOOKUP(B229,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G229" s="2">
-        <v>228</v>
-      </c>
+      <c r="G229" s="2"/>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="4" t="str">
         <f>IF((B230=""),"",VLOOKUP(B230,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G230" s="2">
-        <v>229</v>
-      </c>
+      <c r="G230" s="2"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="4" t="str">
         <f>IF((B231=""),"",VLOOKUP(B231,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G231" s="2">
-        <v>230</v>
-      </c>
+      <c r="G231" s="2"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="4" t="str">
         <f>IF((B232=""),"",VLOOKUP(B232,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G232" s="2">
-        <v>231</v>
-      </c>
+      <c r="G232" s="2"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="4" t="str">
         <f>IF((B233=""),"",VLOOKUP(B233,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G233" s="2">
-        <v>232</v>
-      </c>
+      <c r="G233" s="2"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="4" t="str">
         <f>IF((B234=""),"",VLOOKUP(B234,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G234" s="2">
-        <v>233</v>
-      </c>
+      <c r="G234" s="2"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="4" t="str">
         <f>IF((B235=""),"",VLOOKUP(B235,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G235" s="2">
-        <v>234</v>
-      </c>
+      <c r="G235" s="2"/>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="4" t="str">
         <f>IF((B236=""),"",VLOOKUP(B236,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G236" s="2">
-        <v>235</v>
-      </c>
+      <c r="G236" s="2"/>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="4" t="str">
         <f>IF((B237=""),"",VLOOKUP(B237,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G237" s="2">
-        <v>236</v>
-      </c>
+      <c r="G237" s="2"/>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B238" s="3"/>
       <c r="C238" s="4" t="str">
         <f>IF((B238=""),"",VLOOKUP(B238,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G238" s="2">
-        <v>237</v>
-      </c>
+      <c r="G238" s="2"/>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="4" t="str">
         <f>IF((B239=""),"",VLOOKUP(B239,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G239" s="2">
-        <v>238</v>
-      </c>
+      <c r="G239" s="2"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="4" t="str">
         <f>IF((B240=""),"",VLOOKUP(B240,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G240" s="2">
-        <v>239</v>
-      </c>
+      <c r="G240" s="2"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="4" t="str">
         <f>IF((B241=""),"",VLOOKUP(B241,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G241" s="2">
-        <v>240</v>
-      </c>
+      <c r="G241" s="2"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="4" t="str">
         <f>IF((B242=""),"",VLOOKUP(B242,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G242" s="2">
-        <v>241</v>
-      </c>
+      <c r="G242" s="2"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="4" t="str">
         <f>IF((B243=""),"",VLOOKUP(B243,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G243" s="2">
-        <v>242</v>
-      </c>
+      <c r="G243" s="2"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="4" t="str">
         <f>IF((B244=""),"",VLOOKUP(B244,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G244" s="2">
-        <v>243</v>
-      </c>
+      <c r="G244" s="2"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="4" t="str">
         <f>IF((B245=""),"",VLOOKUP(B245,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G245" s="2">
-        <v>244</v>
-      </c>
+      <c r="G245" s="2"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="4" t="str">
         <f>IF((B246=""),"",VLOOKUP(B246,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G246" s="2">
-        <v>245</v>
-      </c>
+      <c r="G246" s="2"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="4" t="str">
         <f>IF((B247=""),"",VLOOKUP(B247,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G247" s="2">
-        <v>246</v>
-      </c>
+      <c r="G247" s="2"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="4" t="str">
         <f>IF((B248=""),"",VLOOKUP(B248,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G248" s="2">
-        <v>247</v>
-      </c>
+      <c r="G248" s="2"/>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="4" t="str">
         <f>IF((B249=""),"",VLOOKUP(B249,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G249" s="2">
-        <v>248</v>
-      </c>
+      <c r="G249" s="2"/>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="4" t="str">
         <f>IF((B250=""),"",VLOOKUP(B250,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G250" s="2">
-        <v>249</v>
-      </c>
+      <c r="G250" s="2"/>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="4" t="str">
         <f>IF((B251=""),"",VLOOKUP(B251,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G251" s="2">
-        <v>250</v>
-      </c>
+      <c r="G251" s="2"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="4" t="str">
         <f>IF((B252=""),"",VLOOKUP(B252,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G252" s="2">
-        <v>251</v>
-      </c>
+      <c r="G252" s="2"/>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="4" t="str">
         <f>IF((B253=""),"",VLOOKUP(B253,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G253" s="2">
-        <v>252</v>
-      </c>
+      <c r="G253" s="2"/>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="4" t="str">
         <f>IF((B254=""),"",VLOOKUP(B254,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G254" s="2">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="2">
-        <v>254</v>
-      </c>
-      <c r="B255" s="3"/>
-      <c r="C255" s="4" t="str">
-        <f>IF((B255=""),"",VLOOKUP(B255,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G255" s="2">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="2">
-        <v>255</v>
-      </c>
-      <c r="B256" s="3"/>
-      <c r="C256" s="4" t="str">
-        <f>IF((B256=""),"",VLOOKUP(B256,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G256" s="2">
-        <v>255</v>
-      </c>
+      <c r="G254" s="2"/>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="2">
-        <v>256</v>
-      </c>
-      <c r="B257" s="3"/>
-      <c r="C257" s="4" t="str">
-        <f>IF((B257=""),"",VLOOKUP(B257,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G257" s="2">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="2">
-        <v>257</v>
-      </c>
-      <c r="B258" s="3"/>
-      <c r="C258" s="4" t="str">
-        <f>IF((B258=""),"",VLOOKUP(B258,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G258" s="2">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="B261" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="C261" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="D261" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="E261" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="F261" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="G261" s="52" t="s">
-        <v>296</v>
+      <c r="A257" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="B257" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="C257" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="D257" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="E257" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="F257" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="G257" s="52" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D261" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <autoFilter ref="D1:D257" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -23275,13 +23017,13 @@
           <x14:formula1>
             <xm:f>Lookups!$U$3:$U$16</xm:f>
           </x14:formula1>
-          <xm:sqref>D167:D258 D2:D162</xm:sqref>
+          <xm:sqref>D163:D254 D2:D158</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$66</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B258</xm:sqref>
+          <xm:sqref>B2:B254</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -23296,7 +23038,9 @@
   </sheetPr>
   <dimension ref="A1:BG329"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -23367,7 +23111,7 @@
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
@@ -23463,7 +23207,7 @@
         <v>31</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>109</v>
@@ -23509,7 +23253,7 @@
     </row>
     <row r="6" spans="1:59">
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>24</v>
@@ -23524,7 +23268,7 @@
         <v>12</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U6" s="19" t="s">
         <v>95</v>
@@ -23532,7 +23276,7 @@
     </row>
     <row r="7" spans="1:59">
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>24</v>
@@ -23544,7 +23288,7 @@
         <v>47</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U7" s="19" t="s">
         <v>94</v>
@@ -23552,7 +23296,7 @@
     </row>
     <row r="8" spans="1:59">
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>24</v>
@@ -23564,7 +23308,7 @@
         <v>61</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U8" s="19" t="s">
         <v>84</v>
@@ -23572,7 +23316,7 @@
     </row>
     <row r="9" spans="1:59">
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>24</v>
@@ -23581,18 +23325,18 @@
         <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="U9" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:59">
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>24</v>
@@ -23601,7 +23345,7 @@
         <v>32</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U10" s="19" t="s">
         <v>98</v>
@@ -23609,7 +23353,7 @@
     </row>
     <row r="11" spans="1:59">
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>24</v>
@@ -23619,12 +23363,12 @@
       </c>
       <c r="O11" s="8"/>
       <c r="U11" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:59">
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>24</v>
@@ -23639,7 +23383,7 @@
     </row>
     <row r="13" spans="1:59">
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>61</v>
@@ -23654,7 +23398,7 @@
     </row>
     <row r="14" spans="1:59">
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>61</v>
@@ -23664,18 +23408,18 @@
       </c>
       <c r="O14" s="8"/>
       <c r="U14" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:59">
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>61</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M15" s="8"/>
       <c r="O15" s="8"/>
@@ -23688,22 +23432,22 @@
         <v>42</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M16" s="8"/>
       <c r="U16" s="55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="8:21">
       <c r="H17" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M17" s="8"/>
       <c r="U17" s="8"/>
@@ -23743,7 +23487,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M21" s="8"/>
       <c r="U21" s="8"/>
@@ -23773,7 +23517,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M24" s="8"/>
       <c r="U24" s="8"/>
@@ -23873,7 +23617,7 @@
         <v>31</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M34" s="8"/>
       <c r="U34" s="8"/>
@@ -23913,7 +23657,7 @@
         <v>29</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M38" s="8"/>
       <c r="U38" s="8"/>
@@ -23923,7 +23667,7 @@
         <v>29</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M39" s="8"/>
       <c r="U39" s="8"/>

--- a/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8339129A-04FB-4388-9E41-FD0277AB39DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F32154-305A-49FA-AB56-9C730B9C82B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Actions!$D$1:$D$257</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Events!$A$1:$M$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Events!$A$1:$M$337</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outcomes!$A$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="396">
   <si>
     <t>No</t>
   </si>
@@ -1229,6 +1229,9 @@
   </si>
   <si>
     <t>[{"phase_name":"Pre-EA (EAC Assessment)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of IPD/EP for CEAO Approval", "start_at": 28 },{"phase_name":"Pre-EA (EAC Assessment)","work_type_id": 6, "ea_act_id": 3, "event_name": "IPD/EP Approval Decision (Day Zero)", "start_at": 10 }]</t>
+  </si>
+  <si>
+    <t>TESTED</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1448,6 +1451,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1562,7 +1571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1760,6 +1769,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3095,11 +3107,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M337"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D137" sqref="A137:D137"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -16781,7 +16793,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M71" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:M337" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="H1:H16 H18:H337">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="END">
       <formula>NOT(ISERROR(SEARCH("END",H1)))</formula>
@@ -16838,13 +16850,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37:D66"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -16856,7 +16868,7 @@
     <col min="6" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1">
+    <row r="1" spans="1:6" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -16872,8 +16884,11 @@
       <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -16891,7 +16906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -16909,7 +16924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -16927,7 +16942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -16945,7 +16960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -16962,8 +16977,9 @@
       <c r="E6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="69"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -16981,7 +16997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -16999,7 +17015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -17017,7 +17033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -17035,7 +17051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -17053,7 +17069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -17071,7 +17087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -17089,7 +17105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -17107,7 +17123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -17125,7 +17141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -18065,11 +18081,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -24703,12 +24719,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24941,20 +24959,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
+    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24979,12 +24998,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
-    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA4627D-F6DC-411E-A384-939066D24EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F32154-305A-49FA-AB56-9C730B9C82B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="Action_Temp" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Actions!$D$1:$D$261</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Events!$A$1:$M$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Actions!$D$1:$D$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Events!$A$1:$M$337</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outcomes!$A$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="396">
   <si>
     <t>No</t>
   </si>
@@ -385,9 +385,6 @@
     <t>CloseEverything</t>
   </si>
   <si>
-    <t>EAC Assessment</t>
-  </si>
-  <si>
     <t>CloseWork</t>
   </si>
   <si>
@@ -1003,12 +1000,6 @@
     <t>Set "Start of DPD Development (Day after SoE) | DPD Development (Proponent Time)" ANTICIPATED to thisEvent ACTUAL +1</t>
   </si>
   <si>
-    <t>Add PHASE "Readiness Decision" (a copy of original PHASE)</t>
-  </si>
-  <si>
-    <t>Add PHASE "Revised DPD Development (Proponent Time)" (a renamed copy of original PHASE)</t>
-  </si>
-  <si>
     <t>Add EVENT "Pre-EA (EAC Assessment) | Last Day of Pre-EA (EAC Assessment)" as a "Milestone: Date Capture" EVENT (a new EVENT)</t>
   </si>
   <si>
@@ -1066,12 +1057,6 @@
     <t>Set "Effects Assessment &amp; Recommendation | Start of Effects Assessment (Day One)" ANTICIPATED to thisEvent ACTUAL +1</t>
   </si>
   <si>
-    <t>Add EVENT "Revised EAC Application Development (Proponent Time) | Submission of Updated Revised EAC Application for Acceptance" at thisEvent ACTUAL +28  (a renamed copy of original EVENT)</t>
-  </si>
-  <si>
-    <t>Add EVENT "Revised EAC Application Development (Proponent Time) | Updated Revised EAC Application Acceptance Decision (Day Zero)" at thisEvent ACTUAL +88  (a renamed copy of original EVENT)</t>
-  </si>
-  <si>
     <t>Set "Revised EAC Application Development (Proponent Time) | Updated Revised EAC Application Acceptance Decision (Day Zero)" to PHASE END EVENT</t>
   </si>
   <si>
@@ -1162,12 +1147,6 @@
     <t>{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of Revised EAC Application Development", "start_at": 1 }</t>
   </si>
   <si>
-    <t>[{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised DPD Development (Proponent Time)", "legislated": false }]</t>
-  </si>
-  <si>
-    <t>[{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised Readiness Decision", "legislated": false }]</t>
-  </si>
-  <si>
     <t>[{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Fee Order: Submission of DPD", "is_active": false }]</t>
   </si>
   <si>
@@ -1198,9 +1177,6 @@
     <t>{"phase_name":"Further Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Readiness Decision Report referred to CEAO for Further Decision", "start_at": 1 }</t>
   </si>
   <si>
-    <t>[{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Readiness Decision", "legislated": false }]</t>
-  </si>
-  <si>
     <t>{"federal_involvement_id": 2}</t>
   </si>
   <si>
@@ -1210,12 +1186,6 @@
     <t>{"phase_name":"Effects Assessment &amp; Recommendation","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of Effects Assessment (Day One)", "start_at": 1 }</t>
   </si>
   <si>
-    <t>[{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of Revised EAC Application for CEAO Acceptance", "start_at": 28 }]</t>
-  </si>
-  <si>
-    <t>[{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Revised EAC Application Acceptance Decision (Day Zero)", "start_at": 88 }]</t>
-  </si>
-  <si>
     <t>{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Revised EAC Application Acceptance Decision (Day Zero)"}</t>
   </si>
   <si>
@@ -1228,34 +1198,59 @@
     <t>{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of DPD Development", "start_at": 1 }</t>
   </si>
   <si>
-    <t>Add EVENT "Pre-EA (EAC Assessment) | Submission of Revised IPD/EP for CEAO Approval" at thisEvent ACTUAL +28  (a renamed copy of original EVENT)</t>
-  </si>
-  <si>
-    <t>Add EVENT "Pre-EA (EAC Assessment) | Revised IPD/EP Approval Decision (Day Zero)" at thisEvent ACTUAL +38  (a renamed copy of original EVENT)</t>
-  </si>
-  <si>
     <t>Set "Pre-EA (EAC Assessment) | Revised IPD/EP Approval Decision (Day Zero)" to PHASE END EVENT</t>
   </si>
   <si>
-    <t>[{"phase_name":"Pre-EA (EAC Assessment)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of IPD/EP for CEAO Approval", "start_at": 28 }]</t>
-  </si>
-  <si>
-    <t>[{"phase_name":"Pre-EA (EAC Assessment)","work_type_id": 6, "ea_act_id": 3, "event_name": "IPD/EP Approval Decision (Day Zero)", "start_at": 38 }]</t>
-  </si>
-  <si>
     <t>{"phase_name":"Pre-EA (EAC Assessment)","work_type_id": 6, "ea_act_id": 3, "event_name": "IPD/EP Approval Decision (Day Zero)"}</t>
+  </si>
+  <si>
+    <t>Add EVENT "Pre-EA (EAC Assessment) | Submission of Revised IPD/EP for CEAO Approval" at thisEvent ACTUAL +28  (a renamed copy of original EVENT),Add EVENT "Pre-EA (EAC Assessment) | Revised IPD/EP Approval Decision (Day Zero)" at thisEvent ACTUAL +38  (a renamed copy of original EVENT)</t>
+  </si>
+  <si>
+    <t>Add PHASE "Revised DPD Development (Proponent Time)" (a renamed copy of original PHASE),Add PHASE "Readiness Decision" (a copy of original PHASE)</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised DPD Development (Proponent Time)", "legislated": false },{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised Readiness Decision", "legislated": false }]</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised DPD Development (Proponent Time)", "legislated": false },{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Readiness Decision", "legislated": false }]</t>
+  </si>
+  <si>
+    <t>Add EVENT "Revised EAC Application Development (Proponent Time) | Submission of Updated Revised EAC Application for Acceptance" at thisEvent ACTUAL +28  (a renamed copy of original EVENT),Add EVENT "Revised EAC Application Development (Proponent Time) | Updated Revised EAC Application Acceptance Decision (Day Zero)" at thisEvent ACTUAL +88  (a renamed copy of original EVENT)</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of Revised EAC Application for CEAO Acceptance", "start_at": 28 },{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Revised EAC Application Acceptance Decision (Day Zero)", "start_at": 60 }]</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Pre-EA (EAC Assessment)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of IPD/EP for CEAO Approval", "start_at": 28 },{"phase_name":"Pre-EA (EAC Assessment)","work_type_id": 6, "ea_act_id": 3, "event_name": "IPD/EP Approval Decision (Day Zero)", "start_at": 10 }]</t>
+  </si>
+  <si>
+    <t>TESTED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1350,7 +1345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1456,6 +1451,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1570,7 +1571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1587,14 +1588,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1603,7 +1604,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1615,19 +1616,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1636,22 +1637,22 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1696,7 +1697,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,60 +1721,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2087,7 +2085,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2135,10 +2133,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>9</v>
@@ -2150,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
@@ -2164,10 +2162,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>9</v>
@@ -2179,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
@@ -2193,10 +2191,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>9</v>
@@ -2208,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
@@ -2222,10 +2220,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>9</v>
@@ -2237,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -2251,10 +2249,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>9</v>
@@ -2280,10 +2278,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>9</v>
@@ -2295,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -2309,10 +2307,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>9</v>
@@ -2324,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
@@ -2338,10 +2336,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>9</v>
@@ -2353,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
@@ -2367,10 +2365,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>9</v>
@@ -2382,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
@@ -2396,10 +2394,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>9</v>
@@ -2411,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
@@ -2425,10 +2423,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>9</v>
@@ -2440,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
@@ -2454,10 +2452,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>9</v>
@@ -2469,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
@@ -3109,11 +3107,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M337"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3179,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>IF((C2=""),"",VLOOKUP(C2,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3218,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>IF((C3=""),"",VLOOKUP(C3,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3243,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M3" s="2">
         <v>2</v>
@@ -3257,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>IF((C4=""),"",VLOOKUP(C4,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3282,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M4" s="2">
         <v>3</v>
@@ -3299,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>IF((C5=""),"",VLOOKUP(C5,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3324,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M5" s="2">
         <v>4</v>
@@ -3338,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>IF((C6=""),"",VLOOKUP(C6,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3377,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>IF((C7=""),"",VLOOKUP(C7,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3402,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M7" s="2">
         <v>6</v>
@@ -3419,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>IF((C8=""),"",VLOOKUP(C8,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3444,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M8" s="2">
         <v>7</v>
@@ -3497,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" s="4" t="str">
         <f>IF((C10=""),"",VLOOKUP(C10,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3539,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>IF((C11=""),"",VLOOKUP(C11,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3581,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>IF((C12=""),"",VLOOKUP(C12,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3620,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>IF((C13=""),"",VLOOKUP(C13,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3662,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="4" t="str">
         <f>IF((C14=""),"",VLOOKUP(C14,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3779,10 +3777,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F17" s="65" t="s">
         <v>43</v>
@@ -3817,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E18" s="4" t="str">
         <f>IF((C18=""),"",VLOOKUP(C18,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3859,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E19" s="4" t="str">
         <f>IF((C19=""),"",VLOOKUP(C19,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3901,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E20" s="4" t="str">
         <f>IF((C20=""),"",VLOOKUP(C20,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3940,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="4" t="str">
         <f>IF((C21=""),"",VLOOKUP(C21,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -3979,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" s="4" t="str">
         <f>IF((C22=""),"",VLOOKUP(C22,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4004,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M22" s="2">
         <v>20</v>
@@ -4225,7 +4223,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E28" s="4" t="str">
         <f>IF((C28=""),"",VLOOKUP(C28,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4250,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M28" s="2">
         <v>26</v>
@@ -4267,7 +4265,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E29" s="4" t="str">
         <f>IF((C29=""),"",VLOOKUP(C29,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4292,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M29" s="2">
         <v>27</v>
@@ -4306,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30" s="4" t="str">
         <f>IF((C30=""),"",VLOOKUP(C30,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4348,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31" s="4" t="str">
         <f>IF((C31=""),"",VLOOKUP(C31,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4387,7 +4385,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E32" s="4" t="str">
         <f>IF((C32=""),"",VLOOKUP(C32,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4412,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M32" s="2">
         <v>30</v>
@@ -4426,7 +4424,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="4" t="str">
         <f>IF((C33=""),"",VLOOKUP(C33,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4451,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M33" s="2">
         <v>31</v>
@@ -4468,7 +4466,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E34" s="4" t="str">
         <f>IF((C34=""),"",VLOOKUP(C34,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4493,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M34" s="2">
         <v>32</v>
@@ -4546,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E36" s="4" t="str">
         <f>IF((C36=""),"",VLOOKUP(C36,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4588,7 +4586,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E37" s="4" t="str">
         <f>IF((C37=""),"",VLOOKUP(C37,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4627,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E38" s="4" t="str">
         <f>IF((C38=""),"",VLOOKUP(C38,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4669,7 +4667,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E39" s="4" t="str">
         <f>IF((C39=""),"",VLOOKUP(C39,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4708,7 +4706,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E40" s="4" t="str">
         <f>IF((C40=""),"",VLOOKUP(C40,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4750,7 +4748,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E41" s="4" t="str">
         <f>IF((C41=""),"",VLOOKUP(C41,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -4792,7 +4790,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E42" s="4" t="str">
         <f>IF((C42=""),"",VLOOKUP(C42,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5362,17 +5360,17 @@
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E56" s="4" t="str">
         <f>IF((C56=""),"",VLOOKUP(C56,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>Early Engagement</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>27</v>
@@ -5404,7 +5402,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E57" s="4" t="str">
         <f>IF((C57=""),"",VLOOKUP(C57,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5446,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E58" s="4" t="str">
         <f>IF((C58=""),"",VLOOKUP(C58,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5485,17 +5483,17 @@
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E59" s="4" t="str">
         <f>IF((C59=""),"",VLOOKUP(C59,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>Early Engagement</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>27</v>
@@ -5527,7 +5525,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E60" s="4" t="str">
         <f>IF((C60=""),"",VLOOKUP(C60,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5569,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E61" s="4" t="str">
         <f>IF((C61=""),"",VLOOKUP(C61,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5608,7 +5606,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E62" s="4" t="str">
         <f>IF((C62=""),"",VLOOKUP(C62,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5692,7 +5690,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E64" s="4" t="str">
         <f>IF((C64=""),"",VLOOKUP(C64,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5893,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E69" s="4" t="str">
         <f>IF((C69=""),"",VLOOKUP(C69,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5935,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E70" s="4" t="str">
         <f>IF((C70=""),"",VLOOKUP(C70,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -5977,7 +5975,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E71" s="4" t="str">
         <f>IF((C71=""),"",VLOOKUP(C71,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6016,7 +6014,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E72" s="4" t="str">
         <f>IF((C72=""),"",VLOOKUP(C72,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6055,7 +6053,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E73" s="4" t="str">
         <f>IF((C73=""),"",VLOOKUP(C73,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6080,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M73" s="2">
         <v>71</v>
@@ -6097,7 +6095,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E74" s="4" t="str">
         <f>IF((C74=""),"",VLOOKUP(C74,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6122,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M74" s="2">
         <v>72</v>
@@ -6175,7 +6173,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E76" s="4" t="str">
         <f>IF((C76=""),"",VLOOKUP(C76,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6217,7 +6215,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E77" s="4" t="str">
         <f>IF((C77=""),"",VLOOKUP(C77,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6256,7 +6254,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E78" s="4" t="str">
         <f>IF((C78=""),"",VLOOKUP(C78,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6298,7 +6296,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E79" s="4" t="str">
         <f>IF((C79=""),"",VLOOKUP(C79,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6340,7 +6338,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E80" s="4" t="str">
         <f>IF((C80=""),"",VLOOKUP(C80,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6379,7 +6377,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E81" s="4" t="str">
         <f>IF((C81=""),"",VLOOKUP(C81,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6463,7 +6461,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E83" s="4" t="str">
         <f>IF((C83=""),"",VLOOKUP(C83,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6664,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E88" s="4" t="str">
         <f>IF((C88=""),"",VLOOKUP(C88,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6703,7 +6701,7 @@
         <v>4</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E89" s="4" t="str">
         <f>IF((C89=""),"",VLOOKUP(C89,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6745,7 +6743,7 @@
         <v>4</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E90" s="4" t="str">
         <f>IF((C90=""),"",VLOOKUP(C90,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6787,7 +6785,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E91" s="4" t="str">
         <f>IF((C91=""),"",VLOOKUP(C91,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6826,7 +6824,7 @@
         <v>4</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E92" s="4" t="str">
         <f>IF((C92=""),"",VLOOKUP(C92,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6868,7 +6866,7 @@
         <v>4</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E93" s="4" t="str">
         <f>IF((C93=""),"",VLOOKUP(C93,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6907,7 +6905,7 @@
         <v>4</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E94" s="4" t="str">
         <f>IF((C94=""),"",VLOOKUP(C94,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6946,7 +6944,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E95" s="4" t="str">
         <f>IF((C95=""),"",VLOOKUP(C95,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -6971,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M95" s="2">
         <v>93</v>
@@ -6988,7 +6986,7 @@
         <v>4</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E96" s="4" t="str">
         <f>IF((C96=""),"",VLOOKUP(C96,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7013,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M96" s="2">
         <v>94</v>
@@ -7066,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E98" s="4" t="str">
         <f>IF((C98=""),"",VLOOKUP(C98,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7108,7 +7106,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E99" s="4" t="str">
         <f>IF((C99=""),"",VLOOKUP(C99,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7150,7 +7148,7 @@
         <v>4</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E100" s="4" t="str">
         <f>IF((C100=""),"",VLOOKUP(C100,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7189,7 +7187,7 @@
         <v>4</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E101" s="4" t="str">
         <f>IF((C101=""),"",VLOOKUP(C101,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7273,7 +7271,7 @@
         <v>4</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E103" s="4" t="str">
         <f>IF((C103=""),"",VLOOKUP(C103,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7475,7 +7473,7 @@
         <v>4</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E108" s="30" t="str">
         <f>IF((C108=""),"",VLOOKUP(C108,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7515,7 +7513,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E109" s="33" t="str">
         <f>IF((C109=""),"",VLOOKUP(C109,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7554,7 +7552,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="60" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E110" s="4" t="str">
         <f>IF((C110=""),"",VLOOKUP(C110,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7596,7 +7594,7 @@
         <v>4</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E111" s="4" t="str">
         <f>IF((C111=""),"",VLOOKUP(C111,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7638,7 +7636,7 @@
         <v>4</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E112" s="4" t="str">
         <f>IF((C112=""),"",VLOOKUP(C112,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7677,7 +7675,7 @@
         <v>5</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E113" s="4" t="str">
         <f>IF((C113=""),"",VLOOKUP(C113,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7755,7 +7753,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E115" s="4" t="str">
         <f>IF((C115=""),"",VLOOKUP(C115,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7839,7 +7837,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E117" s="4" t="str">
         <f>IF((C117=""),"",VLOOKUP(C117,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8040,7 +8038,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E122" s="4" t="str">
         <f>IF((C122=""),"",VLOOKUP(C122,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8082,7 +8080,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E123" s="4" t="str">
         <f>IF((C123=""),"",VLOOKUP(C123,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8121,7 +8119,7 @@
         <v>6</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E124" s="4" t="str">
         <f>IF((C124=""),"",VLOOKUP(C124,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8199,7 +8197,7 @@
         <v>6</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E126" s="4" t="str">
         <f>IF((C126=""),"",VLOOKUP(C126,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8277,7 +8275,7 @@
         <v>6</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E128" s="4" t="str">
         <f>IF((C128=""),"",VLOOKUP(C128,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8473,7 +8471,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E133" s="47" t="str">
         <f>IF((C133=""),"",VLOOKUP(C133,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8510,7 +8508,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="60" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E134" s="4" t="str">
         <f>IF((C134=""),"",VLOOKUP(C134,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8552,7 +8550,7 @@
         <v>6</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E135" s="4" t="str">
         <f>IF((C135=""),"",VLOOKUP(C135,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8594,7 +8592,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E136" s="4" t="str">
         <f>IF((C136=""),"",VLOOKUP(C136,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8633,7 +8631,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E137" s="4" t="str">
         <f>IF((C137=""),"",VLOOKUP(C137,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8672,7 +8670,7 @@
         <v>7</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E138" s="4" t="str">
         <f>IF((C138=""),"",VLOOKUP(C138,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8714,7 +8712,7 @@
         <v>7</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E139" s="4" t="str">
         <f>IF((C139=""),"",VLOOKUP(C139,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8756,7 +8754,7 @@
         <v>7</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E140" s="4" t="str">
         <f>IF((C140=""),"",VLOOKUP(C140,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8795,7 +8793,7 @@
         <v>7</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E141" s="4" t="str">
         <f>IF((C141=""),"",VLOOKUP(C141,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8820,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M141" s="2">
         <v>139</v>
@@ -9041,7 +9039,7 @@
         <v>7</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E147" s="4" t="str">
         <f>IF((C147=""),"",VLOOKUP(C147,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9066,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M147" s="2">
         <v>145</v>
@@ -9080,7 +9078,7 @@
         <v>7</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E148" s="4" t="str">
         <f>IF((C148=""),"",VLOOKUP(C148,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9105,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M148" s="2">
         <v>146</v>
@@ -9122,7 +9120,7 @@
         <v>7</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E149" s="4" t="str">
         <f>IF((C149=""),"",VLOOKUP(C149,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9147,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M149" s="2">
         <v>147</v>
@@ -9200,7 +9198,7 @@
         <v>7</v>
       </c>
       <c r="D151" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E151" s="4" t="str">
         <f>IF((C151=""),"",VLOOKUP(C151,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9239,7 +9237,7 @@
         <v>7</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E152" s="4" t="str">
         <f>IF((C152=""),"",VLOOKUP(C152,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9278,7 +9276,7 @@
         <v>7</v>
       </c>
       <c r="D153" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E153" s="4" t="str">
         <f>IF((C153=""),"",VLOOKUP(C153,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9317,7 +9315,7 @@
         <v>7</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E154" s="4" t="str">
         <f>IF((C154=""),"",VLOOKUP(C154,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9359,7 +9357,7 @@
         <v>7</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E155" s="4" t="str">
         <f>IF((C155=""),"",VLOOKUP(C155,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9401,7 +9399,7 @@
         <v>7</v>
       </c>
       <c r="D156" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E156" s="4" t="str">
         <f>IF((C156=""),"",VLOOKUP(C156,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -9971,17 +9969,17 @@
         <v>7</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E170" s="4" t="str">
         <f>IF((C170=""),"",VLOOKUP(C170,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>Process Planning</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H170" s="11" t="s">
         <v>27</v>
@@ -10013,7 +10011,7 @@
         <v>7</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E171" s="4" t="str">
         <f>IF((C171=""),"",VLOOKUP(C171,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10055,7 +10053,7 @@
         <v>7</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E172" s="4" t="str">
         <f>IF((C172=""),"",VLOOKUP(C172,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10094,17 +10092,17 @@
         <v>7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E173" s="4" t="str">
         <f>IF((C173=""),"",VLOOKUP(C173,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>Process Planning</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H173" s="11" t="s">
         <v>27</v>
@@ -10136,7 +10134,7 @@
         <v>7</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E174" s="4" t="str">
         <f>IF((C174=""),"",VLOOKUP(C174,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10178,7 +10176,7 @@
         <v>7</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E175" s="4" t="str">
         <f>IF((C175=""),"",VLOOKUP(C175,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10217,7 +10215,7 @@
         <v>7</v>
       </c>
       <c r="D176" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E176" s="4" t="str">
         <f>IF((C176=""),"",VLOOKUP(C176,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10301,7 +10299,7 @@
         <v>7</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E178" s="4" t="str">
         <f>IF((C178=""),"",VLOOKUP(C178,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10502,7 +10500,7 @@
         <v>7</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E183" s="4" t="str">
         <f>IF((C183=""),"",VLOOKUP(C183,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10544,7 +10542,7 @@
         <v>7</v>
       </c>
       <c r="D184" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E184" s="4" t="str">
         <f>IF((C184=""),"",VLOOKUP(C184,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10586,7 +10584,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E185" s="4" t="str">
         <f>IF((C185=""),"",VLOOKUP(C185,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10625,7 +10623,7 @@
         <v>8</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E186" s="4" t="str">
         <f>IF((C186=""),"",VLOOKUP(C186,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10664,7 +10662,7 @@
         <v>8</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E187" s="4" t="str">
         <f>IF((C187=""),"",VLOOKUP(C187,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10689,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M187" s="2">
         <v>185</v>
@@ -10706,7 +10704,7 @@
         <v>8</v>
       </c>
       <c r="D188" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E188" s="4" t="str">
         <f>IF((C188=""),"",VLOOKUP(C188,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10731,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M188" s="2">
         <v>186</v>
@@ -10784,7 +10782,7 @@
         <v>8</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E190" s="4" t="str">
         <f>IF((C190=""),"",VLOOKUP(C190,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10826,7 +10824,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E191" s="4" t="str">
         <f>IF((C191=""),"",VLOOKUP(C191,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10865,7 +10863,7 @@
         <v>8</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E192" s="4" t="str">
         <f>IF((C192=""),"",VLOOKUP(C192,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10907,7 +10905,7 @@
         <v>8</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E193" s="4" t="str">
         <f>IF((C193=""),"",VLOOKUP(C193,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10946,7 +10944,7 @@
         <v>8</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E194" s="4" t="str">
         <f>IF((C194=""),"",VLOOKUP(C194,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -10988,7 +10986,7 @@
         <v>8</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E195" s="4" t="str">
         <f>IF((C195=""),"",VLOOKUP(C195,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11030,7 +11028,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E196" s="4" t="str">
         <f>IF((C196=""),"",VLOOKUP(C196,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11069,7 +11067,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E197" s="4" t="str">
         <f>IF((C197=""),"",VLOOKUP(C197,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11153,7 +11151,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E199" s="4" t="str">
         <f>IF((C199=""),"",VLOOKUP(C199,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11354,7 +11352,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E204" s="4" t="str">
         <f>IF((C204=""),"",VLOOKUP(C204,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11393,7 +11391,7 @@
         <v>9</v>
       </c>
       <c r="D205" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E205" s="4" t="str">
         <f>IF((C205=""),"",VLOOKUP(C205,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11435,7 +11433,7 @@
         <v>9</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E206" s="4" t="str">
         <f>IF((C206=""),"",VLOOKUP(C206,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11477,7 +11475,7 @@
         <v>9</v>
       </c>
       <c r="D207" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E207" s="4" t="str">
         <f>IF((C207=""),"",VLOOKUP(C207,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11723,7 +11721,7 @@
         <v>9</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E213" s="4" t="str">
         <f>IF((C213=""),"",VLOOKUP(C213,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11765,7 +11763,7 @@
         <v>9</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E214" s="4" t="str">
         <f>IF((C214=""),"",VLOOKUP(C214,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11804,7 +11802,7 @@
         <v>9</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E215" s="4" t="str">
         <f>IF((C215=""),"",VLOOKUP(C215,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11829,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="L215" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M215" s="2">
         <v>213</v>
@@ -11846,7 +11844,7 @@
         <v>9</v>
       </c>
       <c r="D216" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E216" s="4" t="str">
         <f>IF((C216=""),"",VLOOKUP(C216,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11871,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="L216" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M216" s="2">
         <v>214</v>
@@ -11924,7 +11922,7 @@
         <v>9</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E218" s="4" t="str">
         <f>IF((C218=""),"",VLOOKUP(C218,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -11966,7 +11964,7 @@
         <v>9</v>
       </c>
       <c r="D219" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E219" s="4" t="str">
         <f>IF((C219=""),"",VLOOKUP(C219,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12005,7 +12003,7 @@
         <v>9</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E220" s="4" t="str">
         <f>IF((C220=""),"",VLOOKUP(C220,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12047,7 +12045,7 @@
         <v>9</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E221" s="4" t="str">
         <f>IF((C221=""),"",VLOOKUP(C221,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12089,7 +12087,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E222" s="4" t="str">
         <f>IF((C222=""),"",VLOOKUP(C222,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12659,17 +12657,17 @@
         <v>9</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E236" s="4" t="str">
         <f>IF((C236=""),"",VLOOKUP(C236,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>EAC Application Review</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G236" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H236" s="11" t="s">
         <v>27</v>
@@ -12701,7 +12699,7 @@
         <v>9</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E237" s="4" t="str">
         <f>IF((C237=""),"",VLOOKUP(C237,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12743,7 +12741,7 @@
         <v>9</v>
       </c>
       <c r="D238" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E238" s="4" t="str">
         <f>IF((C238=""),"",VLOOKUP(C238,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12782,17 +12780,17 @@
         <v>9</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E239" s="4" t="str">
         <f>IF((C239=""),"",VLOOKUP(C239,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>EAC Application Review</v>
       </c>
       <c r="F239" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G239" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H239" s="11" t="s">
         <v>27</v>
@@ -12824,7 +12822,7 @@
         <v>9</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E240" s="4" t="str">
         <f>IF((C240=""),"",VLOOKUP(C240,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12866,7 +12864,7 @@
         <v>9</v>
       </c>
       <c r="D241" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E241" s="4" t="str">
         <f>IF((C241=""),"",VLOOKUP(C241,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12905,7 +12903,7 @@
         <v>9</v>
       </c>
       <c r="D242" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E242" s="4" t="str">
         <f>IF((C242=""),"",VLOOKUP(C242,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -12989,7 +12987,7 @@
         <v>9</v>
       </c>
       <c r="D244" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E244" s="4" t="str">
         <f>IF((C244=""),"",VLOOKUP(C244,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13190,7 +13188,7 @@
         <v>9</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E249" s="4" t="str">
         <f>IF((C249=""),"",VLOOKUP(C249,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13232,7 +13230,7 @@
         <v>9</v>
       </c>
       <c r="D250" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E250" s="4" t="str">
         <f>IF((C250=""),"",VLOOKUP(C250,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13274,7 +13272,7 @@
         <v>9</v>
       </c>
       <c r="D251" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E251" s="4" t="str">
         <f>IF((C251=""),"",VLOOKUP(C251,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13313,7 +13311,7 @@
         <v>10</v>
       </c>
       <c r="D252" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E252" s="4" t="str">
         <f>IF((C252=""),"",VLOOKUP(C252,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13352,7 +13350,7 @@
         <v>10</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E253" s="4" t="str">
         <f>IF((C253=""),"",VLOOKUP(C253,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13391,7 +13389,7 @@
         <v>10</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E254" s="4" t="str">
         <f>IF((C254=""),"",VLOOKUP(C254,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13416,7 +13414,7 @@
         <v>0</v>
       </c>
       <c r="L254" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M254" s="2">
         <v>252</v>
@@ -13433,7 +13431,7 @@
         <v>10</v>
       </c>
       <c r="D255" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E255" s="4" t="str">
         <f>IF((C255=""),"",VLOOKUP(C255,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13458,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="L255" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M255" s="2">
         <v>253</v>
@@ -13511,7 +13509,7 @@
         <v>10</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E257" s="4" t="str">
         <f>IF((C257=""),"",VLOOKUP(C257,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13553,7 +13551,7 @@
         <v>10</v>
       </c>
       <c r="D258" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E258" s="4" t="str">
         <f>IF((C258=""),"",VLOOKUP(C258,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13592,7 +13590,7 @@
         <v>10</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E259" s="4" t="str">
         <f>IF((C259=""),"",VLOOKUP(C259,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13634,7 +13632,7 @@
         <v>10</v>
       </c>
       <c r="D260" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E260" s="4" t="str">
         <f>IF((C260=""),"",VLOOKUP(C260,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13673,7 +13671,7 @@
         <v>10</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E261" s="4" t="str">
         <f>IF((C261=""),"",VLOOKUP(C261,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13715,7 +13713,7 @@
         <v>10</v>
       </c>
       <c r="D262" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E262" s="4" t="str">
         <f>IF((C262=""),"",VLOOKUP(C262,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13757,7 +13755,7 @@
         <v>10</v>
       </c>
       <c r="D263" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E263" s="4" t="str">
         <f>IF((C263=""),"",VLOOKUP(C263,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13796,7 +13794,7 @@
         <v>10</v>
       </c>
       <c r="D264" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E264" s="4" t="str">
         <f>IF((C264=""),"",VLOOKUP(C264,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13880,7 +13878,7 @@
         <v>10</v>
       </c>
       <c r="D266" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E266" s="4" t="str">
         <f>IF((C266=""),"",VLOOKUP(C266,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14081,7 +14079,7 @@
         <v>10</v>
       </c>
       <c r="D271" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E271" s="4" t="str">
         <f>IF((C271=""),"",VLOOKUP(C271,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14120,7 +14118,7 @@
         <v>10</v>
       </c>
       <c r="D272" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E272" s="4" t="str">
         <f>IF((C272=""),"",VLOOKUP(C272,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14159,7 +14157,7 @@
         <v>10</v>
       </c>
       <c r="D273" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E273" s="4" t="str">
         <f>IF((C273=""),"",VLOOKUP(C273,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14198,7 +14196,7 @@
         <v>11</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E274" s="4" t="str">
         <f>IF((C274=""),"",VLOOKUP(C274,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14240,7 +14238,7 @@
         <v>11</v>
       </c>
       <c r="D275" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E275" s="4" t="str">
         <f>IF((C275=""),"",VLOOKUP(C275,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14282,7 +14280,7 @@
         <v>11</v>
       </c>
       <c r="D276" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E276" s="4" t="str">
         <f>IF((C276=""),"",VLOOKUP(C276,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14321,7 +14319,7 @@
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E277" s="4" t="str">
         <f>IF((C277=""),"",VLOOKUP(C277,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14346,7 +14344,7 @@
         <v>0</v>
       </c>
       <c r="L277" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M277" s="2">
         <v>275</v>
@@ -14567,7 +14565,7 @@
         <v>11</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E283" s="4" t="str">
         <f>IF((C283=""),"",VLOOKUP(C283,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14592,7 +14590,7 @@
         <v>0</v>
       </c>
       <c r="L283" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M283" s="2">
         <v>281</v>
@@ -14609,7 +14607,7 @@
         <v>11</v>
       </c>
       <c r="D284" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E284" s="4" t="str">
         <f>IF((C284=""),"",VLOOKUP(C284,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14634,7 +14632,7 @@
         <v>0</v>
       </c>
       <c r="L284" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M284" s="2">
         <v>282</v>
@@ -14687,7 +14685,7 @@
         <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E286" s="4" t="str">
         <f>IF((C286=""),"",VLOOKUP(C286,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14729,7 +14727,7 @@
         <v>11</v>
       </c>
       <c r="D287" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E287" s="4" t="str">
         <f>IF((C287=""),"",VLOOKUP(C287,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14768,7 +14766,7 @@
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E288" s="4" t="str">
         <f>IF((C288=""),"",VLOOKUP(C288,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14810,7 +14808,7 @@
         <v>11</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E289" s="4" t="str">
         <f>IF((C289=""),"",VLOOKUP(C289,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14852,7 +14850,7 @@
         <v>11</v>
       </c>
       <c r="D290" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E290" s="4" t="str">
         <f>IF((C290=""),"",VLOOKUP(C290,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15422,17 +15420,17 @@
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E304" s="4" t="str">
         <f>IF((C304=""),"",VLOOKUP(C304,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>Effects Assessment &amp; Recommendation</v>
       </c>
       <c r="F304" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G304" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H304" s="11" t="s">
         <v>27</v>
@@ -15464,7 +15462,7 @@
         <v>11</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E305" s="4" t="str">
         <f>IF((C305=""),"",VLOOKUP(C305,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15506,7 +15504,7 @@
         <v>11</v>
       </c>
       <c r="D306" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E306" s="4" t="str">
         <f>IF((C306=""),"",VLOOKUP(C306,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15545,17 +15543,17 @@
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E307" s="4" t="str">
         <f>IF((C307=""),"",VLOOKUP(C307,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>Effects Assessment &amp; Recommendation</v>
       </c>
       <c r="F307" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G307" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H307" s="11" t="s">
         <v>27</v>
@@ -15587,7 +15585,7 @@
         <v>11</v>
       </c>
       <c r="D308" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E308" s="4" t="str">
         <f>IF((C308=""),"",VLOOKUP(C308,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15629,7 +15627,7 @@
         <v>11</v>
       </c>
       <c r="D309" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E309" s="4" t="str">
         <f>IF((C309=""),"",VLOOKUP(C309,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15668,7 +15666,7 @@
         <v>11</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E310" s="4" t="str">
         <f>IF((C310=""),"",VLOOKUP(C310,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15752,7 +15750,7 @@
         <v>11</v>
       </c>
       <c r="D312" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E312" s="4" t="str">
         <f>IF((C312=""),"",VLOOKUP(C312,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15953,14 +15951,14 @@
         <v>11</v>
       </c>
       <c r="D317" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E317" s="4" t="str">
         <f>IF((C317=""),"",VLOOKUP(C317,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>Effects Assessment &amp; Recommendation</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G317" s="11" t="s">
         <v>61</v>
@@ -15992,7 +15990,7 @@
         <v>11</v>
       </c>
       <c r="D318" s="59" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E318" s="4" t="str">
         <f>IF((C318=""),"",VLOOKUP(C318,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16034,7 +16032,7 @@
         <v>11</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E319" s="4" t="str">
         <f>IF((C319=""),"",VLOOKUP(C319,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16073,7 +16071,7 @@
         <v>12</v>
       </c>
       <c r="D320" s="58" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E320" s="4" t="str">
         <f>IF((C320=""),"",VLOOKUP(C320,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16151,7 +16149,7 @@
         <v>12</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E322" s="4" t="str">
         <f>IF((C322=""),"",VLOOKUP(C322,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16313,17 +16311,17 @@
         <v>12</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E326" s="4" t="str">
         <f>IF((C326=""),"",VLOOKUP(C326,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>EAC Decision</v>
       </c>
       <c r="F326" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G326" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H326" s="11" t="s">
         <v>27</v>
@@ -16355,7 +16353,7 @@
         <v>12</v>
       </c>
       <c r="D327" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E327" s="4" t="str">
         <f>IF((C327=""),"",VLOOKUP(C327,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16397,7 +16395,7 @@
         <v>12</v>
       </c>
       <c r="D328" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E328" s="4" t="str">
         <f>IF((C328=""),"",VLOOKUP(C328,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16436,17 +16434,17 @@
         <v>12</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E329" s="4" t="str">
         <f>IF((C329=""),"",VLOOKUP(C329,Phases!$A$2:$B$13,2,FALSE))</f>
         <v>EAC Decision</v>
       </c>
       <c r="F329" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G329" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H329" s="11" t="s">
         <v>27</v>
@@ -16478,7 +16476,7 @@
         <v>12</v>
       </c>
       <c r="D330" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E330" s="4" t="str">
         <f>IF((C330=""),"",VLOOKUP(C330,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16520,7 +16518,7 @@
         <v>12</v>
       </c>
       <c r="D331" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E331" s="4" t="str">
         <f>IF((C331=""),"",VLOOKUP(C331,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16721,7 +16719,7 @@
         <v>12</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E336" s="4" t="str">
         <f>IF((C336=""),"",VLOOKUP(C336,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16763,7 +16761,7 @@
         <v>12</v>
       </c>
       <c r="D337" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E337" s="4" t="str">
         <f>IF((C337=""),"",VLOOKUP(C337,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16795,7 +16793,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M71" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:M337" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="H1:H16 H18:H337">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="END">
       <formula>NOT(ISERROR(SEARCH("END",H1)))</formula>
@@ -16852,13 +16850,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -16870,7 +16868,7 @@
     <col min="6" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1">
+    <row r="1" spans="1:6" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -16886,8 +16884,11 @@
       <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -16899,13 +16900,13 @@
         <v>Project Transitioning FROM the EA Act (2002)</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -16917,13 +16918,13 @@
         <v>Project Transitioning FROM the EA Act (2002)</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -16935,13 +16936,13 @@
         <v>Project Transitioning FROM the EA Act (2002)</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -16953,13 +16954,13 @@
         <v>Project Transitioning FROM the EA Act (2002)</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -16971,13 +16972,14 @@
         <v>Project Transitioning FROM the EA Act (2002)</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="69"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -16989,13 +16991,13 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -17007,13 +17009,13 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -17025,13 +17027,13 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -17043,13 +17045,13 @@
         <v>IPD/EP Approval Decision (Day Zero)</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -17061,13 +17063,13 @@
         <v>IPD/EP Approval Decision (Day Zero)</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -17079,13 +17081,13 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -17097,13 +17099,13 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E13" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -17115,13 +17117,13 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -17133,13 +17135,13 @@
         <v>Summary of Engagement Published</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -17151,7 +17153,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="2">
         <v>15</v>
@@ -17169,7 +17171,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" s="2">
         <v>16</v>
@@ -17187,7 +17189,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E18" s="2">
         <v>17</v>
@@ -17205,7 +17207,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E19" s="2">
         <v>18</v>
@@ -17223,7 +17225,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E20" s="2">
         <v>19</v>
@@ -17241,7 +17243,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E21" s="2">
         <v>20</v>
@@ -17259,7 +17261,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E22" s="2">
         <v>21</v>
@@ -17277,7 +17279,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E23" s="2">
         <v>22</v>
@@ -17295,7 +17297,7 @@
         <v>CEAO's Readiness Decision (EAC Assessment)</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E24" s="2">
         <v>23</v>
@@ -17313,7 +17315,7 @@
         <v>CEAO's Readiness Decision (EAC Assessment)</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E25" s="2">
         <v>24</v>
@@ -17331,7 +17333,7 @@
         <v>CEAO's Readiness Decision (EAC Assessment)</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E26" s="2">
         <v>25</v>
@@ -17349,7 +17351,7 @@
         <v>CEAO's Readiness Decision (EAC Assessment)</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E27" s="2">
         <v>26</v>
@@ -17367,7 +17369,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E28" s="2">
         <v>27</v>
@@ -17385,7 +17387,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E29" s="2">
         <v>28</v>
@@ -17403,7 +17405,7 @@
         <v>Minister's Termination Decision</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E30" s="2">
         <v>29</v>
@@ -17421,7 +17423,7 @@
         <v>Minister's Termination Decision</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E31" s="2">
         <v>30</v>
@@ -17439,7 +17441,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E32" s="2">
         <v>31</v>
@@ -17457,7 +17459,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E33" s="2">
         <v>32</v>
@@ -17475,7 +17477,7 @@
         <v>CEAO's Further Readiness Decision (EAC Assessment)</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E34" s="2">
         <v>33</v>
@@ -17493,7 +17495,7 @@
         <v>CEAO's Further Readiness Decision (EAC Assessment)</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E35" s="2">
         <v>34</v>
@@ -17511,7 +17513,7 @@
         <v>CEAO's Further Readiness Decision (EAC Assessment)</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E36" s="2">
         <v>35</v>
@@ -17529,7 +17531,7 @@
         <v>Federal Involvement Determination</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E37" s="2">
         <v>36</v>
@@ -17547,7 +17549,7 @@
         <v>Federal Involvement Determination</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" s="2">
         <v>37</v>
@@ -17565,7 +17567,7 @@
         <v>Federal Involvement Determination</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E39" s="2">
         <v>38</v>
@@ -17583,7 +17585,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E40" s="2">
         <v>39</v>
@@ -17601,7 +17603,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E41" s="2">
         <v>40</v>
@@ -17619,7 +17621,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E42" s="2">
         <v>41</v>
@@ -17637,7 +17639,7 @@
         <v>Process Order Issued &amp; Regulatory Coordination Plan Posted</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E43" s="2">
         <v>42</v>
@@ -17655,7 +17657,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" s="2">
         <v>43</v>
@@ -17673,7 +17675,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2">
         <v>44</v>
@@ -17691,7 +17693,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E46" s="2">
         <v>45</v>
@@ -17709,7 +17711,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E47" s="2">
         <v>46</v>
@@ -17727,7 +17729,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E48" s="2">
         <v>47</v>
@@ -17745,7 +17747,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E49" s="2">
         <v>48</v>
@@ -17763,7 +17765,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E50" s="2">
         <v>49</v>
@@ -17781,7 +17783,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E51" s="2">
         <v>50</v>
@@ -17799,7 +17801,7 @@
         <v>Notice to Proponent to Prepare Revised EAC Application</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E52" s="2">
         <v>51</v>
@@ -17817,7 +17819,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E53" s="2">
         <v>52</v>
@@ -17835,7 +17837,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E54" s="2">
         <v>53</v>
@@ -17853,7 +17855,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E55" s="2">
         <v>54</v>
@@ -17871,7 +17873,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E56" s="2">
         <v>55</v>
@@ -17889,7 +17891,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E57" s="2">
         <v>56</v>
@@ -17907,7 +17909,7 @@
         <v>Revised EAC Application Acceptance Decision (Day Zero)</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E58" s="2">
         <v>57</v>
@@ -17925,7 +17927,7 @@
         <v>Revised EAC Application Acceptance Decision (Day Zero)</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E59" s="2">
         <v>58</v>
@@ -17943,7 +17945,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E60" s="2">
         <v>59</v>
@@ -17961,7 +17963,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E61" s="2">
         <v>60</v>
@@ -17979,7 +17981,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E62" s="2">
         <v>61</v>
@@ -17997,7 +17999,7 @@
         <v>EAC Referral Package sent to Ministers</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E63" s="2">
         <v>62</v>
@@ -18015,7 +18017,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E64" s="2">
         <v>63</v>
@@ -18033,7 +18035,7 @@
         <v>EAC Ministers Decision</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E65" s="2">
         <v>64</v>
@@ -18051,7 +18053,7 @@
         <v>EAC Ministers Decision</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E66" s="2">
         <v>65</v>
@@ -18077,13 +18079,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G261"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -18133,10 +18135,13 @@
         <v>Assessment Transitions to the EA Act (2018) Early Engagement PHASE</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>298</v>
+      <c r="F2" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -18157,10 +18162,10 @@
         <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
@@ -18181,10 +18186,10 @@
         <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
@@ -18205,10 +18210,10 @@
         <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G5" s="2">
         <v>4</v>
@@ -18229,10 +18234,10 @@
         <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>
@@ -18253,10 +18258,10 @@
         <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G7" s="2">
         <v>6</v>
@@ -18277,10 +18282,10 @@
         <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G8" s="2">
         <v>7</v>
@@ -18301,10 +18306,10 @@
         <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -18325,10 +18330,10 @@
         <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G10" s="2">
         <v>9</v>
@@ -18349,10 +18354,10 @@
         <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
@@ -18373,10 +18378,10 @@
         <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G12" s="2">
         <v>11</v>
@@ -18397,10 +18402,10 @@
         <v>87</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G13" s="2">
         <v>12</v>
@@ -18421,10 +18426,10 @@
         <v>88</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G14" s="2">
         <v>13</v>
@@ -18445,10 +18450,10 @@
         <v>86</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G15" s="2">
         <v>14</v>
@@ -18469,10 +18474,10 @@
         <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G16" s="2">
         <v>15</v>
@@ -18493,10 +18498,10 @@
         <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G17" s="2">
         <v>16</v>
@@ -18517,10 +18522,10 @@
         <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G18" s="2">
         <v>17</v>
@@ -18541,10 +18546,10 @@
         <v>86</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G19" s="2">
         <v>18</v>
@@ -18565,10 +18570,10 @@
         <v>84</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F20" s="66" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G20" s="2">
         <v>19</v>
@@ -18586,10 +18591,13 @@
         <v>EAO's Viewpoint is POSITIVE</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>298</v>
+      <c r="F21" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G21" s="2">
         <v>20</v>
@@ -18607,10 +18615,13 @@
         <v>EAO's Viewpoint is NEGATIVE</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>298</v>
+      <c r="F22" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G22" s="2">
         <v>21</v>
@@ -18634,7 +18645,7 @@
         <v>90</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G23" s="2">
         <v>22</v>
@@ -18658,7 +18669,7 @@
         <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G24" s="2">
         <v>23</v>
@@ -18682,7 +18693,7 @@
         <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G25" s="2">
         <v>24</v>
@@ -18703,10 +18714,10 @@
         <v>93</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G26" s="2">
         <v>25</v>
@@ -18727,10 +18738,10 @@
         <v>94</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G27" s="2">
         <v>26</v>
@@ -18751,10 +18762,10 @@
         <v>84</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G28" s="2">
         <v>27</v>
@@ -18775,10 +18786,10 @@
         <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="G29" s="2">
         <v>28</v>
@@ -18786,7 +18797,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>10</v>
@@ -18796,13 +18807,13 @@
         <v>CEAO Requires the Proponent to Submit a Revised IPD/EP</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="G30" s="2">
         <v>29</v>
@@ -18810,23 +18821,23 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised IPD/EP</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>396</v>
+        <v>316</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="G31" s="2">
         <v>30</v>
@@ -18834,23 +18845,23 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>317</v>
+        <v>90</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="G32" s="2">
         <v>31</v>
@@ -18858,7 +18869,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3">
         <v>12</v>
@@ -18867,14 +18878,14 @@
         <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D33" t="s">
-        <v>87</v>
+      <c r="D33" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G33" s="2">
         <v>32</v>
@@ -18882,7 +18893,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="3">
         <v>12</v>
@@ -18892,13 +18903,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D34" s="56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G34" s="2">
         <v>33</v>
@@ -18906,7 +18917,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="3">
         <v>12</v>
@@ -18916,13 +18927,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G35" s="2">
         <v>34</v>
@@ -18930,23 +18941,23 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" s="4" t="str">
         <f>IF((B36=""),"",VLOOKUP(B36,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>93</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="G36" s="2">
         <v>35</v>
@@ -18954,7 +18965,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3">
         <v>13</v>
@@ -18963,14 +18974,14 @@
         <f>IF((B37=""),"",VLOOKUP(B37,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D37" t="s">
-        <v>87</v>
+      <c r="D37" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G37" s="2">
         <v>36</v>
@@ -18978,7 +18989,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3">
         <v>13</v>
@@ -18988,13 +18999,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D38" s="56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G38" s="2">
         <v>37</v>
@@ -19002,7 +19013,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3">
         <v>13</v>
@@ -19012,13 +19023,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D39" s="56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>313</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G39" s="2">
         <v>38</v>
@@ -19026,23 +19037,23 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" s="4" t="str">
         <f>IF((B40=""),"",VLOOKUP(B40,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>Last Day of EAC Assessment: Early Engagement PHASE</v>
       </c>
       <c r="D40" s="56" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="G40" s="2">
         <v>39</v>
@@ -19050,20 +19061,20 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" s="4" t="str">
         <f>IF((B41=""),"",VLOOKUP(B41,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Last Day of EAC Assessment: Early Engagement PHASE</v>
-      </c>
-      <c r="D41" s="56" t="s">
-        <v>84</v>
+        <v>EAO's Viewpoint is POSITIVE</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>393</v>
@@ -19074,20 +19085,23 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>IF((B42=""),"",VLOOKUP(B42,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is POSITIVE</v>
+        <v>EAO's Viewpoint is NEGATIVE</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>298</v>
+      <c r="F42" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G42" s="2">
         <v>41</v>
@@ -19095,20 +19109,23 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>IF((B43=""),"",VLOOKUP(B43,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is NEGATIVE</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>298</v>
+        <v>316</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="G43" s="2">
         <v>42</v>
@@ -19116,23 +19133,23 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>IF((B44=""),"",VLOOKUP(B44,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D44" t="s">
+        <v>87</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>317</v>
+        <v>90</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="G44" s="2">
         <v>43</v>
@@ -19140,7 +19157,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3">
         <v>18</v>
@@ -19149,14 +19166,14 @@
         <f>IF((B45=""),"",VLOOKUP(B45,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D45" t="s">
-        <v>87</v>
+      <c r="D45" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G45" s="2">
         <v>44</v>
@@ -19164,7 +19181,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3">
         <v>18</v>
@@ -19174,13 +19191,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D46" s="56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G46" s="2">
         <v>45</v>
@@ -19188,7 +19205,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3">
         <v>18</v>
@@ -19198,13 +19215,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D47" s="56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G47" s="2">
         <v>46</v>
@@ -19212,23 +19229,23 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48" s="4" t="str">
         <f>IF((B48=""),"",VLOOKUP(B48,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D48" s="56" t="s">
-        <v>93</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D48" t="s">
+        <v>87</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="G48" s="2">
         <v>47</v>
@@ -19236,7 +19253,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3">
         <v>19</v>
@@ -19245,14 +19262,14 @@
         <f>IF((B49=""),"",VLOOKUP(B49,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D49" t="s">
-        <v>87</v>
+      <c r="D49" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G49" s="2">
         <v>48</v>
@@ -19260,7 +19277,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="3">
         <v>19</v>
@@ -19270,13 +19287,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D50" s="56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G50" s="2">
         <v>49</v>
@@ -19284,7 +19301,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="3">
         <v>19</v>
@@ -19294,13 +19311,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D51" s="56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>313</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G51" s="2">
         <v>50</v>
@@ -19308,23 +19325,23 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C52" s="4" t="str">
         <f>IF((B52=""),"",VLOOKUP(B52,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D52" s="56" t="s">
-        <v>93</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G52" s="2">
         <v>51</v>
@@ -19332,23 +19349,23 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53" s="4" t="str">
         <f>IF((B53=""),"",VLOOKUP(B53,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D53" t="s">
+        <v>87</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>317</v>
+        <v>90</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="G53" s="2">
         <v>52</v>
@@ -19356,7 +19373,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3">
         <v>21</v>
@@ -19365,14 +19382,14 @@
         <f>IF((B54=""),"",VLOOKUP(B54,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D54" t="s">
-        <v>87</v>
+      <c r="D54" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G54" s="2">
         <v>53</v>
@@ -19380,7 +19397,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3">
         <v>21</v>
@@ -19390,13 +19407,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D55" s="56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G55" s="2">
         <v>54</v>
@@ -19404,7 +19421,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3">
         <v>21</v>
@@ -19414,13 +19431,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D56" s="56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G56" s="2">
         <v>55</v>
@@ -19428,23 +19445,23 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C57" s="4" t="str">
         <f>IF((B57=""),"",VLOOKUP(B57,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D57" s="56" t="s">
-        <v>93</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D57" t="s">
+        <v>87</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="G57" s="2">
         <v>56</v>
@@ -19452,7 +19469,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3">
         <v>22</v>
@@ -19461,14 +19478,14 @@
         <f>IF((B58=""),"",VLOOKUP(B58,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D58" t="s">
-        <v>87</v>
+      <c r="D58" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G58" s="2">
         <v>57</v>
@@ -19476,7 +19493,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="3">
         <v>22</v>
@@ -19486,13 +19503,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D59" s="56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G59" s="2">
         <v>58</v>
@@ -19500,7 +19517,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3">
         <v>22</v>
@@ -19510,13 +19527,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D60" s="56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>92</v>
+        <v>313</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G60" s="2">
         <v>59</v>
@@ -19524,23 +19541,23 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" s="4" t="str">
         <f>IF((B61=""),"",VLOOKUP(B61,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D61" s="56" t="s">
-        <v>93</v>
+        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>362</v>
+        <v>387</v>
+      </c>
+      <c r="F61" s="68" t="s">
+        <v>388</v>
       </c>
       <c r="G61" s="2">
         <v>60</v>
@@ -19548,7 +19565,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" s="3">
         <v>23</v>
@@ -19557,62 +19574,62 @@
         <f>IF((B62=""),"",VLOOKUP(B62,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>320</v>
+      <c r="D62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="67" t="s">
+        <v>319</v>
       </c>
       <c r="F62" s="66" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G62" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="68" customFormat="1">
-      <c r="A63" s="67">
-        <v>62</v>
-      </c>
-      <c r="B63" s="67">
+    <row r="63" spans="1:7">
+      <c r="A63" s="2">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3">
         <v>23</v>
       </c>
-      <c r="C63" s="68" t="str">
+      <c r="C63" s="4" t="str">
         <f>IF((B63=""),"",VLOOKUP(B63,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
       </c>
-      <c r="D63" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="F63" s="69" t="s">
-        <v>373</v>
-      </c>
-      <c r="G63" s="67">
+      <c r="D63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="F63" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="G63" s="2">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64" s="4" t="str">
         <f>IF((B64=""),"",VLOOKUP(B64,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D64" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="F64" s="66" t="s">
-        <v>374</v>
+        <v>Project is Referred to Minister for Termination - s.16(2)(c)</v>
+      </c>
+      <c r="D64" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="G64" s="2">
         <v>63</v>
@@ -19620,23 +19637,23 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C65" s="4" t="str">
         <f>IF((B65=""),"",VLOOKUP(B65,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>84</v>
+        <v>Project is Referred to Minister for Termination - s.16(2)(c)</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
       </c>
       <c r="E65" s="66" t="s">
         <v>325</v>
       </c>
       <c r="F65" s="66" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G65" s="2">
         <v>64</v>
@@ -19644,7 +19661,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66" s="3">
         <v>24</v>
@@ -19653,14 +19670,14 @@
         <f>IF((B66=""),"",VLOOKUP(B66,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Project is Referred to Minister for Termination - s.16(2)(c)</v>
       </c>
-      <c r="D66" s="56" t="s">
-        <v>97</v>
+      <c r="D66" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G66" s="2">
         <v>65</v>
@@ -19668,7 +19685,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67" s="3">
         <v>24</v>
@@ -19677,14 +19694,14 @@
         <f>IF((B67=""),"",VLOOKUP(B67,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Project is Referred to Minister for Termination - s.16(2)(c)</v>
       </c>
-      <c r="D67" t="s">
-        <v>85</v>
+      <c r="D67" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E67" s="66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F67" s="66" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G67" s="2">
         <v>66</v>
@@ -19692,7 +19709,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68" s="3">
         <v>24</v>
@@ -19702,13 +19719,13 @@
         <v>Project is Referred to Minister for Termination - s.16(2)(c)</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>378</v>
+        <v>88</v>
+      </c>
+      <c r="E68" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="F68" s="66" t="s">
+        <v>373</v>
       </c>
       <c r="G68" s="2">
         <v>67</v>
@@ -19716,23 +19733,23 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C69" s="4" t="str">
         <f>IF((B69=""),"",VLOOKUP(B69,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project is Referred to Minister for Termination - s.16(2)(c)</v>
+        <v>Project Moves to Process Planning PHASE - s.18(1)(a)</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F69" s="66" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G69" s="2">
         <v>68</v>
@@ -19740,23 +19757,23 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C70" s="4" t="str">
         <f>IF((B70=""),"",VLOOKUP(B70,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project is Referred to Minister for Termination - s.16(2)(c)</v>
+        <v>Project is Referred to Minister for Process Planning - s.18(1)(b)</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="F70" s="66" t="s">
-        <v>380</v>
+        <v>296</v>
+      </c>
+      <c r="E70" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G70" s="2">
         <v>69</v>
@@ -19764,23 +19781,23 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C71" s="4" t="str">
         <f>IF((B71=""),"",VLOOKUP(B71,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project Moves to Process Planning PHASE - s.18(1)(a)</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E71" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="F71" s="66" t="s">
-        <v>381</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D71" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="G71" s="2">
         <v>70</v>
@@ -19788,20 +19805,23 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C72" s="4" t="str">
         <f>IF((B72=""),"",VLOOKUP(B72,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project is Referred to Minister for Process Planning - s.18(1)(b)</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E72" s="55" t="s">
-        <v>337</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D72" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="G72" s="2">
         <v>71</v>
@@ -19809,7 +19829,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" s="3">
         <v>27</v>
@@ -19818,14 +19838,14 @@
         <f>IF((B73=""),"",VLOOKUP(B73,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D73" t="s">
-        <v>87</v>
+      <c r="D73" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G73" s="2">
         <v>72</v>
@@ -19833,7 +19853,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74" s="3">
         <v>27</v>
@@ -19843,13 +19863,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D74" s="56" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G74" s="2">
         <v>73</v>
@@ -19857,23 +19877,23 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75" s="4" t="str">
         <f>IF((B75=""),"",VLOOKUP(B75,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D75" s="56" t="s">
-        <v>91</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D75" t="s">
+        <v>87</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="G75" s="2">
         <v>74</v>
@@ -19881,23 +19901,23 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76" s="4" t="str">
         <f>IF((B76=""),"",VLOOKUP(B76,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D76" s="56" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G76" s="2">
         <v>75</v>
@@ -19905,7 +19925,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77" s="3">
         <v>28</v>
@@ -19914,14 +19934,14 @@
         <f>IF((B77=""),"",VLOOKUP(B77,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D77" t="s">
-        <v>87</v>
+      <c r="D77" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G77" s="2">
         <v>76</v>
@@ -19929,7 +19949,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78" s="3">
         <v>28</v>
@@ -19939,13 +19959,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G78" s="2">
         <v>77</v>
@@ -19953,23 +19973,23 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C79" s="4" t="str">
         <f>IF((B79=""),"",VLOOKUP(B79,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>Project May Not Proceed as Proposed</v>
       </c>
       <c r="D79" s="56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G79" s="2">
         <v>78</v>
@@ -19977,23 +19997,23 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C80" s="4" t="str">
         <f>IF((B80=""),"",VLOOKUP(B80,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>Project May Not Proceed as Proposed</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>314</v>
+        <v>96</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G80" s="2">
         <v>79</v>
@@ -20001,7 +20021,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" s="3">
         <v>29</v>
@@ -20011,13 +20031,13 @@
         <v>Project May Not Proceed as Proposed</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G81" s="2">
         <v>80</v>
@@ -20025,23 +20045,23 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C82" s="4" t="str">
         <f>IF((B82=""),"",VLOOKUP(B82,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project May Not Proceed as Proposed</v>
+        <v>Project Referred to the CEAO for Further Readiness Decision</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="E82" s="55" t="s">
+        <v>330</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="G82" s="2">
         <v>81</v>
@@ -20049,23 +20069,23 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C83" s="4" t="str">
         <f>IF((B83=""),"",VLOOKUP(B83,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project May Not Proceed as Proposed</v>
-      </c>
-      <c r="D83" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>362</v>
+        <v>Project Referred to the CEAO for Further Readiness Decision</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="F83" s="66" t="s">
+        <v>376</v>
       </c>
       <c r="G83" s="2">
         <v>82</v>
@@ -20073,23 +20093,23 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C84" s="4" t="str">
         <f>IF((B84=""),"",VLOOKUP(B84,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project Referred to the CEAO for Further Readiness Decision</v>
-      </c>
-      <c r="D84" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="E84" s="55" t="s">
-        <v>333</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D84" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="G84" s="2">
         <v>83</v>
@@ -20097,23 +20117,23 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C85" s="4" t="str">
         <f>IF((B85=""),"",VLOOKUP(B85,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project Referred to the CEAO for Further Readiness Decision</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="F85" s="66" t="s">
-        <v>383</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D85" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="G85" s="2">
         <v>84</v>
@@ -20121,7 +20141,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" s="3">
         <v>31</v>
@@ -20130,14 +20150,14 @@
         <f>IF((B86=""),"",VLOOKUP(B86,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D86" t="s">
-        <v>87</v>
+      <c r="D86" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G86" s="2">
         <v>85</v>
@@ -20145,7 +20165,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="3">
         <v>31</v>
@@ -20155,13 +20175,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D87" s="56" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G87" s="2">
         <v>86</v>
@@ -20169,23 +20189,23 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C88" s="4" t="str">
         <f>IF((B88=""),"",VLOOKUP(B88,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D88" s="56" t="s">
-        <v>91</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D88" t="s">
+        <v>87</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="G88" s="2">
         <v>87</v>
@@ -20193,23 +20213,23 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C89" s="4" t="str">
         <f>IF((B89=""),"",VLOOKUP(B89,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D89" s="56" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G89" s="2">
         <v>88</v>
@@ -20217,7 +20237,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="3">
         <v>32</v>
@@ -20226,14 +20246,14 @@
         <f>IF((B90=""),"",VLOOKUP(B90,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D90" t="s">
-        <v>87</v>
+      <c r="D90" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G90" s="2">
         <v>89</v>
@@ -20241,7 +20261,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="3">
         <v>32</v>
@@ -20251,13 +20271,13 @@
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D91" s="56" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G91" s="2">
         <v>90</v>
@@ -20265,23 +20285,23 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C92" s="4" t="str">
         <f>IF((B92=""),"",VLOOKUP(B92,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D92" s="56" t="s">
-        <v>91</v>
+        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="G92" s="2">
         <v>91</v>
@@ -20289,23 +20309,23 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B93" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C93" s="4" t="str">
         <f>IF((B93=""),"",VLOOKUP(B93,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D93" s="56" t="s">
-        <v>93</v>
+        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D93" t="s">
+        <v>87</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>362</v>
+        <v>319</v>
+      </c>
+      <c r="F93" s="66" t="s">
+        <v>367</v>
       </c>
       <c r="G93" s="2">
         <v>92</v>
@@ -20313,7 +20333,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B94" s="3">
         <v>33</v>
@@ -20323,61 +20343,61 @@
         <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>372</v>
+        <v>322</v>
+      </c>
+      <c r="F94" s="66" t="s">
+        <v>368</v>
       </c>
       <c r="G94" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="68" customFormat="1">
-      <c r="A95" s="67">
-        <v>94</v>
-      </c>
-      <c r="B95" s="67">
-        <v>33</v>
-      </c>
-      <c r="C95" s="68" t="str">
+    <row r="95" spans="1:7">
+      <c r="A95" s="2">
+        <v>97</v>
+      </c>
+      <c r="B95" s="3">
+        <v>34</v>
+      </c>
+      <c r="C95" s="4" t="str">
         <f>IF((B95=""),"",VLOOKUP(B95,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D95" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="E95" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="F95" s="68" t="s">
-        <v>384</v>
-      </c>
-      <c r="G95" s="67">
+        <v>Project Moves to Process Planning PHASE - s.18(1)(a)</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F95" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="G95" s="2">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B96" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C96" s="4" t="str">
         <f>IF((B96=""),"",VLOOKUP(B96,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D96" t="s">
-        <v>87</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F96" s="66" t="s">
-        <v>374</v>
+        <v>Project is Referred to Minister for Process Planning - s.18(1)(b)</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E96" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G96" s="2">
         <v>95</v>
@@ -20385,23 +20405,23 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B97" s="3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C97" s="4" t="str">
         <f>IF((B97=""),"",VLOOKUP(B97,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+        <v>No Federal Involvement triggered for this WORK</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F97" s="66" t="s">
-        <v>375</v>
+        <v>98</v>
+      </c>
+      <c r="E97" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="G97" s="2">
         <v>96</v>
@@ -20409,23 +20429,23 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B98" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C98" s="4" t="str">
         <f>IF((B98=""),"",VLOOKUP(B98,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project Moves to Process Planning PHASE - s.18(1)(a)</v>
+        <v>Federal Substitution Request Approved</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F98" s="66" t="s">
-        <v>381</v>
+        <v>98</v>
+      </c>
+      <c r="E98" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="G98" s="2">
         <v>97</v>
@@ -20433,20 +20453,23 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B99" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C99" s="4" t="str">
         <f>IF((B99=""),"",VLOOKUP(B99,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Project is Referred to Minister for Process Planning - s.18(1)(b)</v>
+        <v>Other form of Federal Involvement (Coordination, etc.)</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E99" s="55" t="s">
-        <v>337</v>
+        <v>334</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G99" s="2">
         <v>98</v>
@@ -20454,23 +20477,23 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B100" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C100" s="4" t="str">
         <f>IF((B100=""),"",VLOOKUP(B100,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>No Federal Involvement triggered for this WORK</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E100" s="55" t="s">
-        <v>335</v>
+        <v>95</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="G100" s="2">
         <v>99</v>
@@ -20478,23 +20501,23 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B101" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C101" s="4" t="str">
         <f>IF((B101=""),"",VLOOKUP(B101,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Federal Substitution Request Approved</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E101" s="55" t="s">
-        <v>336</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D101" t="s">
+        <v>87</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="G101" s="2">
         <v>100</v>
@@ -20502,20 +20525,23 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B102" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C102" s="4" t="str">
         <f>IF((B102=""),"",VLOOKUP(B102,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Other form of Federal Involvement (Coordination, etc.)</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E102" s="55" t="s">
-        <v>337</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D102" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="G102" s="2">
         <v>101</v>
@@ -20523,23 +20549,23 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B103" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C103" s="4" t="str">
         <f>IF((B103=""),"",VLOOKUP(B103,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D103" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G103" s="2">
         <v>102</v>
@@ -20547,7 +20573,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B104" s="3">
         <v>40</v>
@@ -20556,14 +20582,14 @@
         <f>IF((B104=""),"",VLOOKUP(B104,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D104" t="s">
-        <v>87</v>
+      <c r="D104" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G104" s="2">
         <v>103</v>
@@ -20571,23 +20597,23 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B105" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C105" s="4" t="str">
         <f>IF((B105=""),"",VLOOKUP(B105,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D105" s="56" t="s">
-        <v>86</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D105" t="s">
+        <v>87</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G105" s="2">
         <v>104</v>
@@ -20595,23 +20621,23 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B106" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C106" s="4" t="str">
         <f>IF((B106=""),"",VLOOKUP(B106,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D106" s="56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G106" s="2">
         <v>105</v>
@@ -20619,23 +20645,23 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B107" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C107" s="4" t="str">
         <f>IF((B107=""),"",VLOOKUP(B107,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D107" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G107" s="2">
         <v>106</v>
@@ -20643,7 +20669,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B108" s="3">
         <v>41</v>
@@ -20652,14 +20678,14 @@
         <f>IF((B108=""),"",VLOOKUP(B108,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D108" t="s">
-        <v>87</v>
+      <c r="D108" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G108" s="2">
         <v>107</v>
@@ -20667,23 +20693,23 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B109" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C109" s="4" t="str">
         <f>IF((B109=""),"",VLOOKUP(B109,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>Last Day of EAC Assessment: Process Planning PHASE</v>
       </c>
       <c r="D109" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>358</v>
+        <v>84</v>
+      </c>
+      <c r="E109" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="F109" s="66" t="s">
+        <v>361</v>
       </c>
       <c r="G109" s="2">
         <v>108</v>
@@ -20691,23 +20717,23 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B110" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C110" s="4" t="str">
         <f>IF((B110=""),"",VLOOKUP(B110,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D110" s="56" t="s">
-        <v>91</v>
+        <v>EAO's Viewpoint is POSITIVE</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="G110" s="2">
         <v>109</v>
@@ -20715,23 +20741,23 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B111" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C111" s="4" t="str">
         <f>IF((B111=""),"",VLOOKUP(B111,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D111" s="56" t="s">
-        <v>93</v>
+        <v>EAO's Viewpoint is NEGATIVE</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="G111" s="2">
         <v>110</v>
@@ -20739,23 +20765,23 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B112" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C112" s="4" t="str">
         <f>IF((B112=""),"",VLOOKUP(B112,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Last Day of EAC Assessment: Process Planning PHASE</v>
-      </c>
-      <c r="D112" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E112" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="F112" s="66" t="s">
-        <v>366</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="G112" s="2">
         <v>111</v>
@@ -20763,20 +20789,23 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B113" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C113" s="4" t="str">
         <f>IF((B113=""),"",VLOOKUP(B113,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is POSITIVE</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>297</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D113" t="s">
+        <v>87</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>298</v>
+        <v>90</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="G113" s="2">
         <v>112</v>
@@ -20784,20 +20813,23 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B114" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C114" s="4" t="str">
         <f>IF((B114=""),"",VLOOKUP(B114,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is NEGATIVE</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>297</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D114" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>298</v>
+        <v>89</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="G114" s="2">
         <v>113</v>
@@ -20805,23 +20837,23 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B115" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C115" s="4" t="str">
         <f>IF((B115=""),"",VLOOKUP(B115,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D115" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G115" s="2">
         <v>114</v>
@@ -20829,7 +20861,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B116" s="3">
         <v>46</v>
@@ -20838,14 +20870,14 @@
         <f>IF((B116=""),"",VLOOKUP(B116,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D116" t="s">
-        <v>87</v>
+      <c r="D116" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G116" s="2">
         <v>115</v>
@@ -20853,23 +20885,23 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B117" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C117" s="4" t="str">
         <f>IF((B117=""),"",VLOOKUP(B117,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D117" s="56" t="s">
-        <v>86</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D117" t="s">
+        <v>87</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G117" s="2">
         <v>116</v>
@@ -20877,23 +20909,23 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B118" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C118" s="4" t="str">
         <f>IF((B118=""),"",VLOOKUP(B118,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D118" s="56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G118" s="2">
         <v>117</v>
@@ -20901,23 +20933,23 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B119" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C119" s="4" t="str">
         <f>IF((B119=""),"",VLOOKUP(B119,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D119" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G119" s="2">
         <v>118</v>
@@ -20925,7 +20957,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B120" s="3">
         <v>47</v>
@@ -20934,14 +20966,14 @@
         <f>IF((B120=""),"",VLOOKUP(B120,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D120" t="s">
-        <v>87</v>
+      <c r="D120" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G120" s="2">
         <v>119</v>
@@ -20949,20 +20981,20 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B121" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C121" s="4" t="str">
         <f>IF((B121=""),"",VLOOKUP(B121,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D121" s="56" t="s">
-        <v>86</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>358</v>
@@ -20973,23 +21005,23 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B122" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C122" s="4" t="str">
         <f>IF((B122=""),"",VLOOKUP(B122,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D122" s="56" t="s">
-        <v>91</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D122" t="s">
+        <v>87</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="G122" s="2">
         <v>121</v>
@@ -20997,23 +21029,23 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B123" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C123" s="4" t="str">
         <f>IF((B123=""),"",VLOOKUP(B123,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D123" s="56" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G123" s="2">
         <v>122</v>
@@ -21021,23 +21053,23 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B124" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C124" s="4" t="str">
         <f>IF((B124=""),"",VLOOKUP(B124,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D124" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G124" s="2">
         <v>123</v>
@@ -21045,7 +21077,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B125" s="3">
         <v>49</v>
@@ -21054,14 +21086,14 @@
         <f>IF((B125=""),"",VLOOKUP(B125,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D125" t="s">
-        <v>87</v>
+      <c r="D125" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G125" s="2">
         <v>124</v>
@@ -21069,23 +21101,23 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B126" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C126" s="4" t="str">
         <f>IF((B126=""),"",VLOOKUP(B126,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D126" s="56" t="s">
-        <v>86</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D126" t="s">
+        <v>87</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G126" s="2">
         <v>125</v>
@@ -21093,23 +21125,23 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B127" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C127" s="4" t="str">
         <f>IF((B127=""),"",VLOOKUP(B127,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D127" s="56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G127" s="2">
         <v>126</v>
@@ -21117,23 +21149,23 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B128" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C128" s="4" t="str">
         <f>IF((B128=""),"",VLOOKUP(B128,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D128" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G128" s="2">
         <v>127</v>
@@ -21141,7 +21173,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B129" s="3">
         <v>50</v>
@@ -21150,14 +21182,14 @@
         <f>IF((B129=""),"",VLOOKUP(B129,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D129" t="s">
-        <v>87</v>
+      <c r="D129" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G129" s="2">
         <v>128</v>
@@ -21165,23 +21197,23 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B130" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C130" s="4" t="str">
         <f>IF((B130=""),"",VLOOKUP(B130,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>Last Day of EAC Assessment: EAC Application Review PHASE</v>
       </c>
       <c r="D130" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>358</v>
+        <v>84</v>
+      </c>
+      <c r="E130" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="F130" s="66" t="s">
+        <v>366</v>
       </c>
       <c r="G130" s="2">
         <v>129</v>
@@ -21189,23 +21221,23 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B131" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C131" s="4" t="str">
         <f>IF((B131=""),"",VLOOKUP(B131,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D131" s="56" t="s">
-        <v>91</v>
+        <v>EAO's Viewpoint is POSITIVE</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="G131" s="2">
         <v>130</v>
@@ -21213,23 +21245,23 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B132" s="3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C132" s="4" t="str">
         <f>IF((B132=""),"",VLOOKUP(B132,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D132" s="56" t="s">
-        <v>93</v>
+        <v>EAO's Viewpoint is NEGATIVE</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="G132" s="2">
         <v>131</v>
@@ -21237,23 +21269,23 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B133" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C133" s="4" t="str">
         <f>IF((B133=""),"",VLOOKUP(B133,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Last Day of EAC Assessment: EAC Application Review PHASE</v>
-      </c>
-      <c r="D133" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E133" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="F133" s="66" t="s">
-        <v>371</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="G133" s="2">
         <v>132</v>
@@ -21261,20 +21293,23 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B134" s="3">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C134" s="4" t="str">
         <f>IF((B134=""),"",VLOOKUP(B134,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is POSITIVE</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>297</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D134" t="s">
+        <v>87</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>298</v>
+        <v>90</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="G134" s="2">
         <v>133</v>
@@ -21282,20 +21317,23 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B135" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C135" s="4" t="str">
         <f>IF((B135=""),"",VLOOKUP(B135,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is NEGATIVE</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>297</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D135" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>298</v>
+        <v>89</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="G135" s="2">
         <v>134</v>
@@ -21303,23 +21341,23 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B136" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C136" s="4" t="str">
         <f>IF((B136=""),"",VLOOKUP(B136,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D136" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G136" s="2">
         <v>135</v>
@@ -21327,7 +21365,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B137" s="3">
         <v>55</v>
@@ -21336,14 +21374,14 @@
         <f>IF((B137=""),"",VLOOKUP(B137,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D137" t="s">
-        <v>87</v>
+      <c r="D137" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G137" s="2">
         <v>136</v>
@@ -21351,23 +21389,23 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B138" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C138" s="4" t="str">
         <f>IF((B138=""),"",VLOOKUP(B138,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D138" s="56" t="s">
-        <v>86</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D138" t="s">
+        <v>87</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G138" s="2">
         <v>137</v>
@@ -21375,23 +21413,23 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B139" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C139" s="4" t="str">
         <f>IF((B139=""),"",VLOOKUP(B139,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D139" s="56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G139" s="2">
         <v>138</v>
@@ -21399,23 +21437,23 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B140" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C140" s="4" t="str">
         <f>IF((B140=""),"",VLOOKUP(B140,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D140" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G140" s="2">
         <v>139</v>
@@ -21423,7 +21461,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B141" s="3">
         <v>56</v>
@@ -21432,14 +21470,14 @@
         <f>IF((B141=""),"",VLOOKUP(B141,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D141" t="s">
-        <v>87</v>
+      <c r="D141" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G141" s="2">
         <v>140</v>
@@ -21447,23 +21485,23 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B142" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C142" s="4" t="str">
         <f>IF((B142=""),"",VLOOKUP(B142,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D142" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>358</v>
+        <v>Revised EAC Application Sufficient to Proceed</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E142" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="F142" s="66" t="s">
+        <v>379</v>
       </c>
       <c r="G142" s="2">
         <v>141</v>
@@ -21471,23 +21509,23 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B143" s="3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C143" s="4" t="str">
         <f>IF((B143=""),"",VLOOKUP(B143,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>Proponent must provide an updated Revised EAC Application</v>
       </c>
       <c r="D143" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="E143" s="68" t="s">
+        <v>390</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="G143" s="2">
         <v>142</v>
@@ -21495,23 +21533,23 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B144" s="3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C144" s="4" t="str">
         <f>IF((B144=""),"",VLOOKUP(B144,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D144" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>314</v>
+        <v>Proponent must provide an updated Revised EAC Application</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E144" s="66" t="s">
+        <v>337</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="G144" s="2">
         <v>143</v>
@@ -21519,23 +21557,23 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B145" s="3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C145" s="4" t="str">
         <f>IF((B145=""),"",VLOOKUP(B145,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Revised EAC Application Sufficient to Proceed</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E145" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="F145" s="66" t="s">
-        <v>387</v>
+        <v>95</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="G145" s="2">
         <v>144</v>
@@ -21543,23 +21581,23 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B146" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C146" s="4" t="str">
         <f>IF((B146=""),"",VLOOKUP(B146,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent must provide an updated Revised EAC Application</v>
-      </c>
-      <c r="D146" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="E146" s="66" t="s">
-        <v>340</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D146" t="s">
+        <v>87</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="G146" s="2">
         <v>145</v>
@@ -21567,23 +21605,23 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B147" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C147" s="4" t="str">
         <f>IF((B147=""),"",VLOOKUP(B147,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent must provide an updated Revised EAC Application</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E147" s="55" t="s">
-        <v>341</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D147" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="G147" s="2">
         <v>146</v>
@@ -21591,23 +21629,23 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B148" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C148" s="4" t="str">
         <f>IF((B148=""),"",VLOOKUP(B148,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent must provide an updated Revised EAC Application</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E148" s="66" t="s">
-        <v>342</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D148" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="G148" s="2">
         <v>147</v>
@@ -21615,23 +21653,23 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B149" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C149" s="4" t="str">
         <f>IF((B149=""),"",VLOOKUP(B149,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>95</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D149" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G149" s="2">
         <v>148</v>
@@ -21639,14 +21677,14 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B150" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C150" s="4" t="str">
         <f>IF((B150=""),"",VLOOKUP(B150,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D150" t="s">
         <v>87</v>
@@ -21655,7 +21693,7 @@
         <v>90</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G150" s="2">
         <v>149</v>
@@ -21663,14 +21701,14 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B151" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C151" s="4" t="str">
         <f>IF((B151=""),"",VLOOKUP(B151,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D151" s="56" t="s">
         <v>86</v>
@@ -21679,7 +21717,7 @@
         <v>89</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G151" s="2">
         <v>150</v>
@@ -21687,23 +21725,23 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B152" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C152" s="4" t="str">
         <f>IF((B152=""),"",VLOOKUP(B152,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D152" s="56" t="s">
         <v>91</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G152" s="2">
         <v>151</v>
@@ -21711,23 +21749,23 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B153" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C153" s="4" t="str">
         <f>IF((B153=""),"",VLOOKUP(B153,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D153" s="56" t="s">
         <v>93</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G153" s="2">
         <v>152</v>
@@ -21735,23 +21773,23 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B154" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C154" s="4" t="str">
         <f>IF((B154=""),"",VLOOKUP(B154,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D154" t="s">
-        <v>87</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>350</v>
+        <v>Last Day of EAC Assessment: Effects Assessment PHASE</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E154" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="F154" s="66" t="s">
+        <v>381</v>
       </c>
       <c r="G154" s="2">
         <v>153</v>
@@ -21759,23 +21797,23 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B155" s="3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C155" s="4" t="str">
         <f>IF((B155=""),"",VLOOKUP(B155,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D155" s="56" t="s">
-        <v>86</v>
+      <c r="D155" t="s">
+        <v>87</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G155" s="2">
         <v>154</v>
@@ -21783,23 +21821,23 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B156" s="3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C156" s="4" t="str">
         <f>IF((B156=""),"",VLOOKUP(B156,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D156" s="56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G156" s="2">
         <v>155</v>
@@ -21807,23 +21845,23 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B157" s="3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C157" s="4" t="str">
         <f>IF((B157=""),"",VLOOKUP(B157,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D157" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G157" s="2">
         <v>156</v>
@@ -21831,23 +21869,23 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B158" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C158" s="4" t="str">
         <f>IF((B158=""),"",VLOOKUP(B158,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Last Day of EAC Assessment: Effects Assessment PHASE</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E158" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="F158" s="66" t="s">
-        <v>391</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D158" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="G158" s="2">
         <v>157</v>
@@ -21855,23 +21893,23 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B159" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C159" s="4" t="str">
         <f>IF((B159=""),"",VLOOKUP(B159,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D159" t="s">
-        <v>87</v>
+        <v>Environmental Assessment Certificate GRANTED</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>90</v>
+        <v>341</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G159" s="2">
         <v>158</v>
@@ -21879,23 +21917,23 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B160" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C160" s="4" t="str">
         <f>IF((B160=""),"",VLOOKUP(B160,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D160" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>89</v>
+        <v>Environmental Assessment Certificate GRANTED</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E160" s="55" t="s">
+        <v>342</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="G160" s="2">
         <v>159</v>
@@ -21903,23 +21941,23 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B161" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C161" s="4" t="str">
         <f>IF((B161=""),"",VLOOKUP(B161,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D161" s="56" t="s">
+        <v>Environmental Assessment Certificate REFUSED</v>
+      </c>
+      <c r="D161" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>92</v>
+      <c r="E161" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G161" s="2">
         <v>160</v>
@@ -21927,23 +21965,23 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B162" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C162" s="4" t="str">
         <f>IF((B162=""),"",VLOOKUP(B162,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D162" s="56" t="s">
+        <v>Environmental Assessment Certificate REFUSED</v>
+      </c>
+      <c r="D162" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G162" s="2">
         <v>161</v>
@@ -21951,1321 +21989,1041 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>162</v>
-      </c>
-      <c r="B163" s="3">
-        <v>64</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B163" s="3"/>
       <c r="C163" s="4" t="str">
         <f>IF((B163=""),"",VLOOKUP(B163,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate GRANTED</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G163" s="2">
-        <v>162</v>
-      </c>
+        <v/>
+      </c>
+      <c r="G163" s="2"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>163</v>
-      </c>
-      <c r="B164" s="3">
-        <v>64</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B164" s="3"/>
       <c r="C164" s="4" t="str">
         <f>IF((B164=""),"",VLOOKUP(B164,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate GRANTED</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E164" s="55" t="s">
-        <v>347</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G164" s="2">
-        <v>163</v>
-      </c>
+        <v/>
+      </c>
+      <c r="G164" s="2"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>164</v>
-      </c>
-      <c r="B165" s="3">
-        <v>65</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B165" s="3"/>
       <c r="C165" s="4" t="str">
         <f>IF((B165=""),"",VLOOKUP(B165,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate REFUSED</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G165" s="2">
-        <v>164</v>
-      </c>
+        <v/>
+      </c>
+      <c r="G165" s="2"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>165</v>
-      </c>
-      <c r="B166" s="3">
-        <v>65</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B166" s="3"/>
       <c r="C166" s="4" t="str">
         <f>IF((B166=""),"",VLOOKUP(B166,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate REFUSED</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G166" s="2">
-        <v>165</v>
-      </c>
+        <v/>
+      </c>
+      <c r="G166" s="2"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="4" t="str">
         <f>IF((B167=""),"",VLOOKUP(B167,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G167" s="2">
-        <v>166</v>
-      </c>
+      <c r="G167" s="2"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="4" t="str">
         <f>IF((B168=""),"",VLOOKUP(B168,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G168" s="2">
-        <v>167</v>
-      </c>
+      <c r="G168" s="2"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="4" t="str">
         <f>IF((B169=""),"",VLOOKUP(B169,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G169" s="2">
-        <v>168</v>
-      </c>
+      <c r="G169" s="2"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="4" t="str">
         <f>IF((B170=""),"",VLOOKUP(B170,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G170" s="2">
-        <v>169</v>
-      </c>
+      <c r="G170" s="2"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="4" t="str">
         <f>IF((B171=""),"",VLOOKUP(B171,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G171" s="2">
-        <v>170</v>
-      </c>
+      <c r="G171" s="2"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="4" t="str">
         <f>IF((B172=""),"",VLOOKUP(B172,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G172" s="2">
-        <v>171</v>
-      </c>
+      <c r="G172" s="2"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="4" t="str">
         <f>IF((B173=""),"",VLOOKUP(B173,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G173" s="2">
-        <v>172</v>
-      </c>
+      <c r="G173" s="2"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="4" t="str">
         <f>IF((B174=""),"",VLOOKUP(B174,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G174" s="2">
-        <v>173</v>
-      </c>
+      <c r="G174" s="2"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="4" t="str">
         <f>IF((B175=""),"",VLOOKUP(B175,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G175" s="2">
-        <v>174</v>
-      </c>
+      <c r="G175" s="2"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="4" t="str">
         <f>IF((B176=""),"",VLOOKUP(B176,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G176" s="2">
-        <v>175</v>
-      </c>
+      <c r="G176" s="2"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="4" t="str">
         <f>IF((B177=""),"",VLOOKUP(B177,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G177" s="2">
-        <v>176</v>
-      </c>
+      <c r="G177" s="2"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="4" t="str">
         <f>IF((B178=""),"",VLOOKUP(B178,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G178" s="2">
-        <v>177</v>
-      </c>
+      <c r="G178" s="2"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="4" t="str">
         <f>IF((B179=""),"",VLOOKUP(B179,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G179" s="2">
-        <v>178</v>
-      </c>
+      <c r="G179" s="2"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="4" t="str">
         <f>IF((B180=""),"",VLOOKUP(B180,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G180" s="2">
-        <v>179</v>
-      </c>
+      <c r="G180" s="2"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="4" t="str">
         <f>IF((B181=""),"",VLOOKUP(B181,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G181" s="2">
-        <v>180</v>
-      </c>
+      <c r="G181" s="2"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="4" t="str">
         <f>IF((B182=""),"",VLOOKUP(B182,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G182" s="2">
-        <v>181</v>
-      </c>
+      <c r="G182" s="2"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="4" t="str">
         <f>IF((B183=""),"",VLOOKUP(B183,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G183" s="2">
-        <v>182</v>
-      </c>
+      <c r="G183" s="2"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="4" t="str">
         <f>IF((B184=""),"",VLOOKUP(B184,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G184" s="2">
-        <v>183</v>
-      </c>
+      <c r="G184" s="2"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="4" t="str">
         <f>IF((B185=""),"",VLOOKUP(B185,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G185" s="2">
-        <v>184</v>
-      </c>
+      <c r="G185" s="2"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="4" t="str">
         <f>IF((B186=""),"",VLOOKUP(B186,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G186" s="2">
-        <v>185</v>
-      </c>
+      <c r="G186" s="2"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="4" t="str">
         <f>IF((B187=""),"",VLOOKUP(B187,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G187" s="2">
-        <v>186</v>
-      </c>
+      <c r="G187" s="2"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="4" t="str">
         <f>IF((B188=""),"",VLOOKUP(B188,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G188" s="2">
-        <v>187</v>
-      </c>
+      <c r="G188" s="2"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="4" t="str">
         <f>IF((B189=""),"",VLOOKUP(B189,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G189" s="2">
-        <v>188</v>
-      </c>
+      <c r="G189" s="2"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="4" t="str">
         <f>IF((B190=""),"",VLOOKUP(B190,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G190" s="2">
-        <v>189</v>
-      </c>
+      <c r="G190" s="2"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="4" t="str">
         <f>IF((B191=""),"",VLOOKUP(B191,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G191" s="2">
-        <v>190</v>
-      </c>
+      <c r="G191" s="2"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="4" t="str">
         <f>IF((B192=""),"",VLOOKUP(B192,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G192" s="2">
-        <v>191</v>
-      </c>
+      <c r="G192" s="2"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="4" t="str">
         <f>IF((B193=""),"",VLOOKUP(B193,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G193" s="2">
-        <v>192</v>
-      </c>
+      <c r="G193" s="2"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="4" t="str">
         <f>IF((B194=""),"",VLOOKUP(B194,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G194" s="2">
-        <v>193</v>
-      </c>
+      <c r="G194" s="2"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="4" t="str">
         <f>IF((B195=""),"",VLOOKUP(B195,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G195" s="2">
-        <v>194</v>
-      </c>
+      <c r="G195" s="2"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="4" t="str">
         <f>IF((B196=""),"",VLOOKUP(B196,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G196" s="2">
-        <v>195</v>
-      </c>
+      <c r="G196" s="2"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="4" t="str">
         <f>IF((B197=""),"",VLOOKUP(B197,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G197" s="2">
-        <v>196</v>
-      </c>
+      <c r="G197" s="2"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="4" t="str">
         <f>IF((B198=""),"",VLOOKUP(B198,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G198" s="2">
-        <v>197</v>
-      </c>
+      <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="4" t="str">
         <f>IF((B199=""),"",VLOOKUP(B199,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G199" s="2">
-        <v>198</v>
-      </c>
+      <c r="G199" s="2"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="4" t="str">
         <f>IF((B200=""),"",VLOOKUP(B200,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G200" s="2">
-        <v>199</v>
-      </c>
+      <c r="G200" s="2"/>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="4" t="str">
         <f>IF((B201=""),"",VLOOKUP(B201,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G201" s="2">
-        <v>200</v>
-      </c>
+      <c r="G201" s="2"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="4" t="str">
         <f>IF((B202=""),"",VLOOKUP(B202,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G202" s="2">
-        <v>201</v>
-      </c>
+      <c r="G202" s="2"/>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="4" t="str">
         <f>IF((B203=""),"",VLOOKUP(B203,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G203" s="2">
-        <v>202</v>
-      </c>
+      <c r="G203" s="2"/>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="4" t="str">
         <f>IF((B204=""),"",VLOOKUP(B204,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G204" s="2">
-        <v>203</v>
-      </c>
+      <c r="G204" s="2"/>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="4" t="str">
         <f>IF((B205=""),"",VLOOKUP(B205,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G205" s="2">
-        <v>204</v>
-      </c>
+      <c r="G205" s="2"/>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="4" t="str">
         <f>IF((B206=""),"",VLOOKUP(B206,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G206" s="2">
-        <v>205</v>
-      </c>
+      <c r="G206" s="2"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="4" t="str">
         <f>IF((B207=""),"",VLOOKUP(B207,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G207" s="2">
-        <v>206</v>
-      </c>
+      <c r="G207" s="2"/>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="4" t="str">
         <f>IF((B208=""),"",VLOOKUP(B208,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G208" s="2">
-        <v>207</v>
-      </c>
+      <c r="G208" s="2"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="4" t="str">
         <f>IF((B209=""),"",VLOOKUP(B209,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G209" s="2">
-        <v>208</v>
-      </c>
+      <c r="G209" s="2"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="4" t="str">
         <f>IF((B210=""),"",VLOOKUP(B210,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G210" s="2">
-        <v>209</v>
-      </c>
+      <c r="G210" s="2"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="4" t="str">
         <f>IF((B211=""),"",VLOOKUP(B211,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G211" s="2">
-        <v>210</v>
-      </c>
+      <c r="G211" s="2"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="4" t="str">
         <f>IF((B212=""),"",VLOOKUP(B212,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G212" s="2">
-        <v>211</v>
-      </c>
+      <c r="G212" s="2"/>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="4" t="str">
         <f>IF((B213=""),"",VLOOKUP(B213,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G213" s="2">
-        <v>212</v>
-      </c>
+      <c r="G213" s="2"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="4" t="str">
         <f>IF((B214=""),"",VLOOKUP(B214,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G214" s="2">
-        <v>213</v>
-      </c>
+      <c r="G214" s="2"/>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="4" t="str">
         <f>IF((B215=""),"",VLOOKUP(B215,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G215" s="2">
-        <v>214</v>
-      </c>
+      <c r="G215" s="2"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="4" t="str">
         <f>IF((B216=""),"",VLOOKUP(B216,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G216" s="2">
-        <v>215</v>
-      </c>
+      <c r="G216" s="2"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="4" t="str">
         <f>IF((B217=""),"",VLOOKUP(B217,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G217" s="2">
-        <v>216</v>
-      </c>
+      <c r="G217" s="2"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="4" t="str">
         <f>IF((B218=""),"",VLOOKUP(B218,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G218" s="2">
-        <v>217</v>
-      </c>
+      <c r="G218" s="2"/>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="4" t="str">
         <f>IF((B219=""),"",VLOOKUP(B219,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G219" s="2">
-        <v>218</v>
-      </c>
+      <c r="G219" s="2"/>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="4" t="str">
         <f>IF((B220=""),"",VLOOKUP(B220,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G220" s="2">
-        <v>219</v>
-      </c>
+      <c r="G220" s="2"/>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" s="4" t="str">
         <f>IF((B221=""),"",VLOOKUP(B221,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G221" s="2">
-        <v>220</v>
-      </c>
+      <c r="G221" s="2"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="4" t="str">
         <f>IF((B222=""),"",VLOOKUP(B222,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G222" s="2">
-        <v>221</v>
-      </c>
+      <c r="G222" s="2"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="4" t="str">
         <f>IF((B223=""),"",VLOOKUP(B223,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G223" s="2">
-        <v>222</v>
-      </c>
+      <c r="G223" s="2"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="4" t="str">
         <f>IF((B224=""),"",VLOOKUP(B224,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G224" s="2">
-        <v>223</v>
-      </c>
+      <c r="G224" s="2"/>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="4" t="str">
         <f>IF((B225=""),"",VLOOKUP(B225,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G225" s="2">
-        <v>224</v>
-      </c>
+      <c r="G225" s="2"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="4" t="str">
         <f>IF((B226=""),"",VLOOKUP(B226,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G226" s="2">
-        <v>225</v>
-      </c>
+      <c r="G226" s="2"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="4" t="str">
         <f>IF((B227=""),"",VLOOKUP(B227,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G227" s="2">
-        <v>226</v>
-      </c>
+      <c r="G227" s="2"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="4" t="str">
         <f>IF((B228=""),"",VLOOKUP(B228,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G228" s="2">
-        <v>227</v>
-      </c>
+      <c r="G228" s="2"/>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="4" t="str">
         <f>IF((B229=""),"",VLOOKUP(B229,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G229" s="2">
-        <v>228</v>
-      </c>
+      <c r="G229" s="2"/>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="4" t="str">
         <f>IF((B230=""),"",VLOOKUP(B230,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G230" s="2">
-        <v>229</v>
-      </c>
+      <c r="G230" s="2"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="4" t="str">
         <f>IF((B231=""),"",VLOOKUP(B231,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G231" s="2">
-        <v>230</v>
-      </c>
+      <c r="G231" s="2"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="4" t="str">
         <f>IF((B232=""),"",VLOOKUP(B232,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G232" s="2">
-        <v>231</v>
-      </c>
+      <c r="G232" s="2"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="4" t="str">
         <f>IF((B233=""),"",VLOOKUP(B233,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G233" s="2">
-        <v>232</v>
-      </c>
+      <c r="G233" s="2"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="4" t="str">
         <f>IF((B234=""),"",VLOOKUP(B234,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G234" s="2">
-        <v>233</v>
-      </c>
+      <c r="G234" s="2"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="4" t="str">
         <f>IF((B235=""),"",VLOOKUP(B235,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G235" s="2">
-        <v>234</v>
-      </c>
+      <c r="G235" s="2"/>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="4" t="str">
         <f>IF((B236=""),"",VLOOKUP(B236,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G236" s="2">
-        <v>235</v>
-      </c>
+      <c r="G236" s="2"/>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="4" t="str">
         <f>IF((B237=""),"",VLOOKUP(B237,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G237" s="2">
-        <v>236</v>
-      </c>
+      <c r="G237" s="2"/>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B238" s="3"/>
       <c r="C238" s="4" t="str">
         <f>IF((B238=""),"",VLOOKUP(B238,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G238" s="2">
-        <v>237</v>
-      </c>
+      <c r="G238" s="2"/>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="4" t="str">
         <f>IF((B239=""),"",VLOOKUP(B239,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G239" s="2">
-        <v>238</v>
-      </c>
+      <c r="G239" s="2"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="4" t="str">
         <f>IF((B240=""),"",VLOOKUP(B240,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G240" s="2">
-        <v>239</v>
-      </c>
+      <c r="G240" s="2"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="4" t="str">
         <f>IF((B241=""),"",VLOOKUP(B241,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G241" s="2">
-        <v>240</v>
-      </c>
+      <c r="G241" s="2"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="4" t="str">
         <f>IF((B242=""),"",VLOOKUP(B242,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G242" s="2">
-        <v>241</v>
-      </c>
+      <c r="G242" s="2"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="4" t="str">
         <f>IF((B243=""),"",VLOOKUP(B243,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G243" s="2">
-        <v>242</v>
-      </c>
+      <c r="G243" s="2"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="4" t="str">
         <f>IF((B244=""),"",VLOOKUP(B244,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G244" s="2">
-        <v>243</v>
-      </c>
+      <c r="G244" s="2"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="4" t="str">
         <f>IF((B245=""),"",VLOOKUP(B245,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G245" s="2">
-        <v>244</v>
-      </c>
+      <c r="G245" s="2"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="4" t="str">
         <f>IF((B246=""),"",VLOOKUP(B246,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G246" s="2">
-        <v>245</v>
-      </c>
+      <c r="G246" s="2"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="4" t="str">
         <f>IF((B247=""),"",VLOOKUP(B247,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G247" s="2">
-        <v>246</v>
-      </c>
+      <c r="G247" s="2"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="4" t="str">
         <f>IF((B248=""),"",VLOOKUP(B248,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G248" s="2">
-        <v>247</v>
-      </c>
+      <c r="G248" s="2"/>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="4" t="str">
         <f>IF((B249=""),"",VLOOKUP(B249,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G249" s="2">
-        <v>248</v>
-      </c>
+      <c r="G249" s="2"/>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="4" t="str">
         <f>IF((B250=""),"",VLOOKUP(B250,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G250" s="2">
-        <v>249</v>
-      </c>
+      <c r="G250" s="2"/>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="4" t="str">
         <f>IF((B251=""),"",VLOOKUP(B251,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G251" s="2">
-        <v>250</v>
-      </c>
+      <c r="G251" s="2"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="4" t="str">
         <f>IF((B252=""),"",VLOOKUP(B252,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G252" s="2">
-        <v>251</v>
-      </c>
+      <c r="G252" s="2"/>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="4" t="str">
         <f>IF((B253=""),"",VLOOKUP(B253,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G253" s="2">
-        <v>252</v>
-      </c>
+      <c r="G253" s="2"/>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="4" t="str">
         <f>IF((B254=""),"",VLOOKUP(B254,Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v/>
       </c>
-      <c r="G254" s="2">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="2">
-        <v>254</v>
-      </c>
-      <c r="B255" s="3"/>
-      <c r="C255" s="4" t="str">
-        <f>IF((B255=""),"",VLOOKUP(B255,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G255" s="2">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="2">
-        <v>255</v>
-      </c>
-      <c r="B256" s="3"/>
-      <c r="C256" s="4" t="str">
-        <f>IF((B256=""),"",VLOOKUP(B256,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G256" s="2">
-        <v>255</v>
-      </c>
+      <c r="G254" s="2"/>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="2">
-        <v>256</v>
-      </c>
-      <c r="B257" s="3"/>
-      <c r="C257" s="4" t="str">
-        <f>IF((B257=""),"",VLOOKUP(B257,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G257" s="2">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="2">
-        <v>257</v>
-      </c>
-      <c r="B258" s="3"/>
-      <c r="C258" s="4" t="str">
-        <f>IF((B258=""),"",VLOOKUP(B258,Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G258" s="2">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="B261" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="C261" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="D261" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="E261" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="F261" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="G261" s="52" t="s">
-        <v>296</v>
+      <c r="A257" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="B257" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="C257" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="D257" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="E257" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="F257" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="G257" s="52" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D261" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <autoFilter ref="D1:D257" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -23275,13 +23033,13 @@
           <x14:formula1>
             <xm:f>Lookups!$U$3:$U$16</xm:f>
           </x14:formula1>
-          <xm:sqref>D167:D258 D2:D162</xm:sqref>
+          <xm:sqref>D163:D254 D2:D158</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$66</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B258</xm:sqref>
+          <xm:sqref>B2:B254</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -23296,7 +23054,9 @@
   </sheetPr>
   <dimension ref="A1:BG329"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -23367,7 +23127,7 @@
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
@@ -23463,7 +23223,7 @@
         <v>31</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>109</v>
@@ -23509,7 +23269,7 @@
     </row>
     <row r="6" spans="1:59">
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>24</v>
@@ -23524,7 +23284,7 @@
         <v>12</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U6" s="19" t="s">
         <v>95</v>
@@ -23532,7 +23292,7 @@
     </row>
     <row r="7" spans="1:59">
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>24</v>
@@ -23544,7 +23304,7 @@
         <v>47</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U7" s="19" t="s">
         <v>94</v>
@@ -23552,7 +23312,7 @@
     </row>
     <row r="8" spans="1:59">
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>24</v>
@@ -23564,7 +23324,7 @@
         <v>61</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U8" s="19" t="s">
         <v>84</v>
@@ -23572,7 +23332,7 @@
     </row>
     <row r="9" spans="1:59">
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>24</v>
@@ -23581,18 +23341,18 @@
         <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="U9" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:59">
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>24</v>
@@ -23601,7 +23361,7 @@
         <v>32</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U10" s="19" t="s">
         <v>98</v>
@@ -23609,7 +23369,7 @@
     </row>
     <row r="11" spans="1:59">
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>24</v>
@@ -23619,12 +23379,12 @@
       </c>
       <c r="O11" s="8"/>
       <c r="U11" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:59">
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>24</v>
@@ -23639,7 +23399,7 @@
     </row>
     <row r="13" spans="1:59">
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>61</v>
@@ -23654,7 +23414,7 @@
     </row>
     <row r="14" spans="1:59">
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>61</v>
@@ -23664,18 +23424,18 @@
       </c>
       <c r="O14" s="8"/>
       <c r="U14" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:59">
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>61</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M15" s="8"/>
       <c r="O15" s="8"/>
@@ -23688,22 +23448,22 @@
         <v>42</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M16" s="8"/>
       <c r="U16" s="55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="8:21">
       <c r="H17" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M17" s="8"/>
       <c r="U17" s="8"/>
@@ -23743,7 +23503,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M21" s="8"/>
       <c r="U21" s="8"/>
@@ -23773,7 +23533,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M24" s="8"/>
       <c r="U24" s="8"/>
@@ -23873,7 +23633,7 @@
         <v>31</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M34" s="8"/>
       <c r="U34" s="8"/>
@@ -23913,7 +23673,7 @@
         <v>29</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M38" s="8"/>
       <c r="U38" s="8"/>
@@ -23923,7 +23683,7 @@
         <v>29</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M39" s="8"/>
       <c r="U39" s="8"/>
@@ -24959,12 +24719,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25197,20 +24959,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
+    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25235,12 +24998,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
-    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F32154-305A-49FA-AB56-9C730B9C82B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE9D403-7FF9-4851-940F-D598A8ADAB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="395">
   <si>
     <t>No</t>
   </si>
@@ -1141,9 +1141,6 @@
     <t>{"start_date_locked": true}</t>
   </si>
   <si>
-    <t>{"phase_name":"Early Engagement","work_type_id": 6, "ea_act_id": 3, "event_name": "IPD/EP Approved (Day One)", "start_at": 28 }</t>
-  </si>
-  <si>
     <t>{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of Revised EAC Application Development", "start_at": 1 }</t>
   </si>
   <si>
@@ -1210,9 +1207,6 @@
     <t>Add PHASE "Revised DPD Development (Proponent Time)" (a renamed copy of original PHASE),Add PHASE "Readiness Decision" (a copy of original PHASE)</t>
   </si>
   <si>
-    <t>[{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised DPD Development (Proponent Time)", "legislated": false },{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised Readiness Decision", "legislated": false }]</t>
-  </si>
-  <si>
     <t>[{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised DPD Development (Proponent Time)", "legislated": false },{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Readiness Decision", "legislated": false }]</t>
   </si>
   <si>
@@ -1232,18 +1226,28 @@
   </si>
   <si>
     <t>TESTED</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Early Engagement","work_type_id": 6, "ea_act_id": 3, "event_name": "IPD/EP Approved (Day One)", "start_at": 1 }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1571,7 +1575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1588,14 +1592,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1604,7 +1608,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1616,19 +1620,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1637,22 +1641,22 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1697,7 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,45 +1725,48 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1768,10 +1775,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2136,7 +2143,7 @@
         <v>304</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>9</v>
@@ -2165,7 +2172,7 @@
         <v>152</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>9</v>
@@ -2194,7 +2201,7 @@
         <v>153</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>9</v>
@@ -2223,7 +2230,7 @@
         <v>154</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>9</v>
@@ -2252,7 +2259,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>9</v>
@@ -2281,7 +2288,7 @@
         <v>156</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>9</v>
@@ -2310,7 +2317,7 @@
         <v>157</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>9</v>
@@ -2339,7 +2346,7 @@
         <v>158</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>9</v>
@@ -2368,7 +2375,7 @@
         <v>159</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>9</v>
@@ -2397,7 +2404,7 @@
         <v>160</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>9</v>
@@ -2426,7 +2433,7 @@
         <v>161</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>9</v>
@@ -2455,7 +2462,7 @@
         <v>162</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>9</v>
@@ -3107,11 +3114,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M337"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -16852,11 +16859,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -16885,7 +16892,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -17032,6 +17039,7 @@
       <c r="E9" s="2">
         <v>8</v>
       </c>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
@@ -17050,6 +17058,7 @@
       <c r="E10" s="2">
         <v>9</v>
       </c>
+      <c r="F10" s="69"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
@@ -17062,12 +17071,13 @@
         <f>IF((B11=""),"",VLOOKUP(B11,Events!$A$2:$D$336,4,FALSE))</f>
         <v>IPD/EP Approval Decision (Day Zero)</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="70" t="s">
         <v>271</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
+      <c r="F11" s="69"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
@@ -17159,7 +17169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -17177,7 +17187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -17195,7 +17205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -17213,7 +17223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -17231,7 +17241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -17249,7 +17259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -17266,8 +17276,9 @@
       <c r="E22" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="69"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -17285,7 +17296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -17296,14 +17307,15 @@
         <f>IF((B24=""),"",VLOOKUP(B24,Events!$A$2:$D$336,4,FALSE))</f>
         <v>CEAO's Readiness Decision (EAC Assessment)</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="70" t="s">
         <v>273</v>
       </c>
       <c r="E24" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="69"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -17314,14 +17326,15 @@
         <f>IF((B25=""),"",VLOOKUP(B25,Events!$A$2:$D$336,4,FALSE))</f>
         <v>CEAO's Readiness Decision (EAC Assessment)</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="70" t="s">
         <v>274</v>
       </c>
       <c r="E25" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="69"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -17332,14 +17345,14 @@
         <f>IF((B26=""),"",VLOOKUP(B26,Events!$A$2:$D$336,4,FALSE))</f>
         <v>CEAO's Readiness Decision (EAC Assessment)</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="70" t="s">
         <v>277</v>
       </c>
       <c r="E26" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -17357,7 +17370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -17375,7 +17388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -17393,7 +17406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -17411,7 +17424,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -17429,7 +17442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -18082,10 +18095,10 @@
   <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -18141,7 +18154,7 @@
         <v>297</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -18573,7 +18586,7 @@
         <v>312</v>
       </c>
       <c r="F20" s="66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G20" s="2">
         <v>19</v>
@@ -18597,7 +18610,7 @@
         <v>297</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G21" s="2">
         <v>20</v>
@@ -18621,7 +18634,7 @@
         <v>297</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G22" s="2">
         <v>21</v>
@@ -18765,7 +18778,7 @@
         <v>315</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="G28" s="2">
         <v>27</v>
@@ -18786,10 +18799,10 @@
         <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G29" s="2">
         <v>28</v>
@@ -18810,10 +18823,10 @@
         <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="G30" s="2">
         <v>29</v>
@@ -19053,7 +19066,7 @@
         <v>317</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G40" s="2">
         <v>39</v>
@@ -19077,7 +19090,7 @@
         <v>297</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G41" s="2">
         <v>40</v>
@@ -19101,7 +19114,7 @@
         <v>297</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G42" s="2">
         <v>41</v>
@@ -19554,10 +19567,10 @@
         <v>97</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F61" s="70" t="s">
         <v>387</v>
-      </c>
-      <c r="F61" s="68" t="s">
-        <v>388</v>
       </c>
       <c r="G61" s="2">
         <v>60</v>
@@ -19581,7 +19594,7 @@
         <v>319</v>
       </c>
       <c r="F62" s="66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G62" s="2">
         <v>61</v>
@@ -19605,7 +19618,7 @@
         <v>322</v>
       </c>
       <c r="F63" s="66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G63" s="2">
         <v>62</v>
@@ -19629,7 +19642,7 @@
         <v>324</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G64" s="2">
         <v>63</v>
@@ -19653,7 +19666,7 @@
         <v>325</v>
       </c>
       <c r="F65" s="66" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G65" s="2">
         <v>64</v>
@@ -19677,7 +19690,7 @@
         <v>326</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G66" s="2">
         <v>65</v>
@@ -19701,7 +19714,7 @@
         <v>327</v>
       </c>
       <c r="F67" s="66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G67" s="2">
         <v>66</v>
@@ -19725,7 +19738,7 @@
         <v>328</v>
       </c>
       <c r="F68" s="66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G68" s="2">
         <v>67</v>
@@ -19749,7 +19762,7 @@
         <v>329</v>
       </c>
       <c r="F69" s="66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G69" s="2">
         <v>68</v>
@@ -19773,7 +19786,7 @@
         <v>334</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G70" s="2">
         <v>69</v>
@@ -20061,7 +20074,7 @@
         <v>330</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G82" s="2">
         <v>81</v>
@@ -20085,7 +20098,7 @@
         <v>331</v>
       </c>
       <c r="F83" s="66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G83" s="2">
         <v>82</v>
@@ -20298,10 +20311,10 @@
         <v>97</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="G92" s="2">
         <v>91</v>
@@ -20325,7 +20338,7 @@
         <v>319</v>
       </c>
       <c r="F93" s="66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G93" s="2">
         <v>92</v>
@@ -20349,7 +20362,7 @@
         <v>322</v>
       </c>
       <c r="F94" s="66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G94" s="2">
         <v>93</v>
@@ -20373,7 +20386,7 @@
         <v>329</v>
       </c>
       <c r="F95" s="66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G95" s="2">
         <v>94</v>
@@ -20397,7 +20410,7 @@
         <v>334</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G96" s="2">
         <v>95</v>
@@ -20421,7 +20434,7 @@
         <v>332</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G97" s="2">
         <v>96</v>
@@ -20445,7 +20458,7 @@
         <v>333</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G98" s="2">
         <v>97</v>
@@ -20469,7 +20482,7 @@
         <v>334</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G99" s="2">
         <v>98</v>
@@ -20733,7 +20746,7 @@
         <v>297</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G110" s="2">
         <v>109</v>
@@ -20757,7 +20770,7 @@
         <v>297</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G111" s="2">
         <v>110</v>
@@ -21213,7 +21226,7 @@
         <v>312</v>
       </c>
       <c r="F130" s="66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G130" s="2">
         <v>129</v>
@@ -21237,7 +21250,7 @@
         <v>297</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G131" s="2">
         <v>130</v>
@@ -21261,7 +21274,7 @@
         <v>297</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G132" s="2">
         <v>131</v>
@@ -21501,7 +21514,7 @@
         <v>336</v>
       </c>
       <c r="F142" s="66" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G142" s="2">
         <v>141</v>
@@ -21522,10 +21535,10 @@
         <v>85</v>
       </c>
       <c r="E143" s="68" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G143" s="2">
         <v>142</v>
@@ -21549,7 +21562,7 @@
         <v>337</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G144" s="2">
         <v>143</v>
@@ -21789,7 +21802,7 @@
         <v>340</v>
       </c>
       <c r="F154" s="66" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G154" s="2">
         <v>153</v>
@@ -21933,7 +21946,7 @@
         <v>342</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G160" s="2">
         <v>159</v>
@@ -23269,7 +23282,7 @@
     </row>
     <row r="6" spans="1:59">
       <c r="B6" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>24</v>
@@ -24719,14 +24732,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24959,21 +24970,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
-    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24998,9 +25008,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
+    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F32154-305A-49FA-AB56-9C730B9C82B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D598A7FB-D144-4454-9B35-0D4BD8F73DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="394">
   <si>
     <t>No</t>
   </si>
@@ -931,9 +931,6 @@
     <t>Environmental Assessment Certificate REFUSED</t>
   </si>
   <si>
-    <t>======================================================================</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
@@ -1141,9 +1138,6 @@
     <t>{"start_date_locked": true}</t>
   </si>
   <si>
-    <t>{"phase_name":"Early Engagement","work_type_id": 6, "ea_act_id": 3, "event_name": "IPD/EP Approved (Day One)", "start_at": 28 }</t>
-  </si>
-  <si>
     <t>{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of Revised EAC Application Development", "start_at": 1 }</t>
   </si>
   <si>
@@ -1210,9 +1204,6 @@
     <t>Add PHASE "Revised DPD Development (Proponent Time)" (a renamed copy of original PHASE),Add PHASE "Readiness Decision" (a copy of original PHASE)</t>
   </si>
   <si>
-    <t>[{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised DPD Development (Proponent Time)", "legislated": false },{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised Readiness Decision", "legislated": false }]</t>
-  </si>
-  <si>
     <t>[{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised DPD Development (Proponent Time)", "legislated": false },{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Readiness Decision", "legislated": false }]</t>
   </si>
   <si>
@@ -1232,18 +1223,28 @@
   </si>
   <si>
     <t>TESTED</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Early Engagement","work_type_id": 6, "ea_act_id": 3, "event_name": "IPD/EP Approved (Day One)", "start_at": 1 }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1571,7 +1572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1588,14 +1589,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1604,7 +1605,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1616,19 +1617,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1637,22 +1638,22 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1697,7 +1698,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,45 +1722,48 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1768,10 +1772,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2133,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>9</v>
@@ -2165,7 +2169,7 @@
         <v>152</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>9</v>
@@ -2194,7 +2198,7 @@
         <v>153</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>9</v>
@@ -2223,7 +2227,7 @@
         <v>154</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>9</v>
@@ -2252,7 +2256,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>9</v>
@@ -2281,7 +2285,7 @@
         <v>156</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>9</v>
@@ -2310,7 +2314,7 @@
         <v>157</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>9</v>
@@ -2339,7 +2343,7 @@
         <v>158</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>9</v>
@@ -2368,7 +2372,7 @@
         <v>159</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>9</v>
@@ -2397,7 +2401,7 @@
         <v>160</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>9</v>
@@ -2426,7 +2430,7 @@
         <v>161</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>9</v>
@@ -2455,7 +2459,7 @@
         <v>162</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>9</v>
@@ -3107,11 +3111,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M337"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3777,10 +3781,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F17" s="65" t="s">
         <v>43</v>
@@ -6014,7 +6018,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E72" s="4" t="str">
         <f>IF((C72=""),"",VLOOKUP(C72,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7552,7 +7556,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E110" s="4" t="str">
         <f>IF((C110=""),"",VLOOKUP(C110,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -7636,7 +7640,7 @@
         <v>4</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E112" s="4" t="str">
         <f>IF((C112=""),"",VLOOKUP(C112,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8508,7 +8512,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E134" s="4" t="str">
         <f>IF((C134=""),"",VLOOKUP(C134,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -8592,7 +8596,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E136" s="4" t="str">
         <f>IF((C136=""),"",VLOOKUP(C136,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15990,7 +15994,7 @@
         <v>11</v>
       </c>
       <c r="D318" s="59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E318" s="4" t="str">
         <f>IF((C318=""),"",VLOOKUP(C318,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16071,7 +16075,7 @@
         <v>12</v>
       </c>
       <c r="D320" s="58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E320" s="4" t="str">
         <f>IF((C320=""),"",VLOOKUP(C320,Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16856,7 +16860,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -16885,7 +16889,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -16954,7 +16958,7 @@
         <v>Project Transitioning FROM the EA Act (2002)</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -16972,7 +16976,7 @@
         <v>Project Transitioning FROM the EA Act (2002)</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -17032,6 +17036,7 @@
       <c r="E9" s="2">
         <v>8</v>
       </c>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
@@ -17050,6 +17055,7 @@
       <c r="E10" s="2">
         <v>9</v>
       </c>
+      <c r="F10" s="69"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
@@ -17062,12 +17068,13 @@
         <f>IF((B11=""),"",VLOOKUP(B11,Events!$A$2:$D$336,4,FALSE))</f>
         <v>IPD/EP Approval Decision (Day Zero)</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="70" t="s">
         <v>271</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
+      <c r="F11" s="69"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
@@ -17159,7 +17166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -17177,7 +17184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -17195,7 +17202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -17213,7 +17220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -17231,7 +17238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -17249,7 +17256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -17266,8 +17273,9 @@
       <c r="E22" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="69"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -17285,7 +17293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -17296,14 +17304,15 @@
         <f>IF((B24=""),"",VLOOKUP(B24,Events!$A$2:$D$336,4,FALSE))</f>
         <v>CEAO's Readiness Decision (EAC Assessment)</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="70" t="s">
         <v>273</v>
       </c>
       <c r="E24" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="69"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -17314,14 +17323,15 @@
         <f>IF((B25=""),"",VLOOKUP(B25,Events!$A$2:$D$336,4,FALSE))</f>
         <v>CEAO's Readiness Decision (EAC Assessment)</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="70" t="s">
         <v>274</v>
       </c>
       <c r="E25" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="69"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -17332,14 +17342,14 @@
         <f>IF((B26=""),"",VLOOKUP(B26,Events!$A$2:$D$336,4,FALSE))</f>
         <v>CEAO's Readiness Decision (EAC Assessment)</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="70" t="s">
         <v>277</v>
       </c>
       <c r="E26" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -17357,7 +17367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -17375,7 +17385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -17393,7 +17403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -17411,7 +17421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -17429,7 +17439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -18081,11 +18091,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B242" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="D250" sqref="D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -18135,13 +18145,13 @@
         <v>Assessment Transitions to the EA Act (2018) Early Engagement PHASE</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -18162,10 +18172,10 @@
         <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
@@ -18186,10 +18196,10 @@
         <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
@@ -18210,10 +18220,10 @@
         <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G5" s="2">
         <v>4</v>
@@ -18234,10 +18244,10 @@
         <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>
@@ -18258,10 +18268,10 @@
         <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G7" s="2">
         <v>6</v>
@@ -18282,10 +18292,10 @@
         <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G8" s="2">
         <v>7</v>
@@ -18306,10 +18316,10 @@
         <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -18330,10 +18340,10 @@
         <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G10" s="2">
         <v>9</v>
@@ -18354,10 +18364,10 @@
         <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
@@ -18378,10 +18388,10 @@
         <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G12" s="2">
         <v>11</v>
@@ -18402,10 +18412,10 @@
         <v>87</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G13" s="2">
         <v>12</v>
@@ -18426,10 +18436,10 @@
         <v>88</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G14" s="2">
         <v>13</v>
@@ -18450,10 +18460,10 @@
         <v>86</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G15" s="2">
         <v>14</v>
@@ -18474,10 +18484,10 @@
         <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G16" s="2">
         <v>15</v>
@@ -18498,10 +18508,10 @@
         <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G17" s="2">
         <v>16</v>
@@ -18522,10 +18532,10 @@
         <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G18" s="2">
         <v>17</v>
@@ -18546,10 +18556,10 @@
         <v>86</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G19" s="2">
         <v>18</v>
@@ -18570,10 +18580,10 @@
         <v>84</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F20" s="66" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G20" s="2">
         <v>19</v>
@@ -18591,13 +18601,13 @@
         <v>EAO's Viewpoint is POSITIVE</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G21" s="2">
         <v>20</v>
@@ -18615,13 +18625,13 @@
         <v>EAO's Viewpoint is NEGATIVE</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G22" s="2">
         <v>21</v>
@@ -18645,7 +18655,7 @@
         <v>90</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G23" s="2">
         <v>22</v>
@@ -18669,7 +18679,7 @@
         <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G24" s="2">
         <v>23</v>
@@ -18693,7 +18703,7 @@
         <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G25" s="2">
         <v>24</v>
@@ -18714,10 +18724,10 @@
         <v>93</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G26" s="2">
         <v>25</v>
@@ -18738,10 +18748,10 @@
         <v>94</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G27" s="2">
         <v>26</v>
@@ -18762,10 +18772,10 @@
         <v>84</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="G28" s="2">
         <v>27</v>
@@ -18786,10 +18796,10 @@
         <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G29" s="2">
         <v>28</v>
@@ -18810,10 +18820,10 @@
         <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G30" s="2">
         <v>29</v>
@@ -18834,10 +18844,10 @@
         <v>95</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G31" s="2">
         <v>30</v>
@@ -18861,7 +18871,7 @@
         <v>90</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G32" s="2">
         <v>31</v>
@@ -18885,7 +18895,7 @@
         <v>89</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G33" s="2">
         <v>32</v>
@@ -18909,7 +18919,7 @@
         <v>96</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G34" s="2">
         <v>33</v>
@@ -18930,10 +18940,10 @@
         <v>93</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G35" s="2">
         <v>34</v>
@@ -18957,7 +18967,7 @@
         <v>90</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G36" s="2">
         <v>35</v>
@@ -18981,7 +18991,7 @@
         <v>89</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G37" s="2">
         <v>36</v>
@@ -19005,7 +19015,7 @@
         <v>92</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G38" s="2">
         <v>37</v>
@@ -19026,10 +19036,10 @@
         <v>93</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G39" s="2">
         <v>38</v>
@@ -19050,10 +19060,10 @@
         <v>84</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G40" s="2">
         <v>39</v>
@@ -19071,13 +19081,13 @@
         <v>EAO's Viewpoint is POSITIVE</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G41" s="2">
         <v>40</v>
@@ -19095,13 +19105,13 @@
         <v>EAO's Viewpoint is NEGATIVE</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G42" s="2">
         <v>41</v>
@@ -19122,10 +19132,10 @@
         <v>95</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G43" s="2">
         <v>42</v>
@@ -19149,7 +19159,7 @@
         <v>90</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G44" s="2">
         <v>43</v>
@@ -19173,7 +19183,7 @@
         <v>89</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G45" s="2">
         <v>44</v>
@@ -19197,7 +19207,7 @@
         <v>96</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G46" s="2">
         <v>45</v>
@@ -19218,10 +19228,10 @@
         <v>93</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G47" s="2">
         <v>46</v>
@@ -19245,7 +19255,7 @@
         <v>90</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G48" s="2">
         <v>47</v>
@@ -19269,7 +19279,7 @@
         <v>89</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G49" s="2">
         <v>48</v>
@@ -19293,7 +19303,7 @@
         <v>92</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G50" s="2">
         <v>49</v>
@@ -19314,10 +19324,10 @@
         <v>93</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G51" s="2">
         <v>50</v>
@@ -19338,10 +19348,10 @@
         <v>95</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G52" s="2">
         <v>51</v>
@@ -19365,7 +19375,7 @@
         <v>90</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G53" s="2">
         <v>52</v>
@@ -19389,7 +19399,7 @@
         <v>89</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G54" s="2">
         <v>53</v>
@@ -19413,7 +19423,7 @@
         <v>96</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G55" s="2">
         <v>54</v>
@@ -19434,10 +19444,10 @@
         <v>93</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G56" s="2">
         <v>55</v>
@@ -19461,7 +19471,7 @@
         <v>90</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G57" s="2">
         <v>56</v>
@@ -19485,7 +19495,7 @@
         <v>89</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G58" s="2">
         <v>57</v>
@@ -19509,7 +19519,7 @@
         <v>92</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G59" s="2">
         <v>58</v>
@@ -19530,10 +19540,10 @@
         <v>93</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G60" s="2">
         <v>59</v>
@@ -19554,10 +19564,10 @@
         <v>97</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F61" s="68" t="s">
-        <v>388</v>
+        <v>385</v>
+      </c>
+      <c r="F61" s="70" t="s">
+        <v>386</v>
       </c>
       <c r="G61" s="2">
         <v>60</v>
@@ -19578,10 +19588,10 @@
         <v>87</v>
       </c>
       <c r="E62" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F62" s="66" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G62" s="2">
         <v>61</v>
@@ -19602,10 +19612,10 @@
         <v>84</v>
       </c>
       <c r="E63" s="66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F63" s="66" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G63" s="2">
         <v>62</v>
@@ -19626,10 +19636,10 @@
         <v>97</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G64" s="2">
         <v>63</v>
@@ -19650,10 +19660,10 @@
         <v>85</v>
       </c>
       <c r="E65" s="66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F65" s="66" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G65" s="2">
         <v>64</v>
@@ -19674,10 +19684,10 @@
         <v>84</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G66" s="2">
         <v>65</v>
@@ -19698,10 +19708,10 @@
         <v>84</v>
       </c>
       <c r="E67" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F67" s="66" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G67" s="2">
         <v>66</v>
@@ -19722,10 +19732,10 @@
         <v>88</v>
       </c>
       <c r="E68" s="66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F68" s="66" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G68" s="2">
         <v>67</v>
@@ -19746,10 +19756,10 @@
         <v>84</v>
       </c>
       <c r="E69" s="66" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F69" s="66" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G69" s="2">
         <v>68</v>
@@ -19767,13 +19777,13 @@
         <v>Project is Referred to Minister for Process Planning - s.18(1)(b)</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G70" s="2">
         <v>69</v>
@@ -19797,7 +19807,7 @@
         <v>90</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G71" s="2">
         <v>70</v>
@@ -19821,7 +19831,7 @@
         <v>89</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G72" s="2">
         <v>71</v>
@@ -19845,7 +19855,7 @@
         <v>96</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G73" s="2">
         <v>72</v>
@@ -19866,10 +19876,10 @@
         <v>93</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G74" s="2">
         <v>73</v>
@@ -19893,7 +19903,7 @@
         <v>90</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G75" s="2">
         <v>74</v>
@@ -19917,7 +19927,7 @@
         <v>89</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G76" s="2">
         <v>75</v>
@@ -19941,7 +19951,7 @@
         <v>92</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G77" s="2">
         <v>76</v>
@@ -19962,10 +19972,10 @@
         <v>93</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G78" s="2">
         <v>77</v>
@@ -19989,7 +19999,7 @@
         <v>89</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G79" s="2">
         <v>78</v>
@@ -20013,7 +20023,7 @@
         <v>96</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G80" s="2">
         <v>79</v>
@@ -20034,10 +20044,10 @@
         <v>93</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G81" s="2">
         <v>80</v>
@@ -20058,10 +20068,10 @@
         <v>97</v>
       </c>
       <c r="E82" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G82" s="2">
         <v>81</v>
@@ -20082,10 +20092,10 @@
         <v>84</v>
       </c>
       <c r="E83" s="66" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F83" s="66" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G83" s="2">
         <v>82</v>
@@ -20109,7 +20119,7 @@
         <v>90</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G84" s="2">
         <v>83</v>
@@ -20133,7 +20143,7 @@
         <v>89</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G85" s="2">
         <v>84</v>
@@ -20157,7 +20167,7 @@
         <v>96</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G86" s="2">
         <v>85</v>
@@ -20178,10 +20188,10 @@
         <v>93</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G87" s="2">
         <v>86</v>
@@ -20205,7 +20215,7 @@
         <v>90</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G88" s="2">
         <v>87</v>
@@ -20229,7 +20239,7 @@
         <v>89</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G89" s="2">
         <v>88</v>
@@ -20253,7 +20263,7 @@
         <v>92</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G90" s="2">
         <v>89</v>
@@ -20274,10 +20284,10 @@
         <v>93</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G91" s="2">
         <v>90</v>
@@ -20298,10 +20308,10 @@
         <v>97</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G92" s="2">
         <v>91</v>
@@ -20322,10 +20332,10 @@
         <v>87</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F93" s="66" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G93" s="2">
         <v>92</v>
@@ -20346,10 +20356,10 @@
         <v>84</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F94" s="66" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G94" s="2">
         <v>93</v>
@@ -20370,10 +20380,10 @@
         <v>84</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F95" s="66" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G95" s="2">
         <v>94</v>
@@ -20391,13 +20401,13 @@
         <v>Project is Referred to Minister for Process Planning - s.18(1)(b)</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G96" s="2">
         <v>95</v>
@@ -20418,10 +20428,10 @@
         <v>98</v>
       </c>
       <c r="E97" s="55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G97" s="2">
         <v>96</v>
@@ -20442,10 +20452,10 @@
         <v>98</v>
       </c>
       <c r="E98" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G98" s="2">
         <v>97</v>
@@ -20463,13 +20473,13 @@
         <v>Other form of Federal Involvement (Coordination, etc.)</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E99" s="55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G99" s="2">
         <v>98</v>
@@ -20490,10 +20500,10 @@
         <v>95</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G100" s="2">
         <v>99</v>
@@ -20517,7 +20527,7 @@
         <v>90</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G101" s="2">
         <v>100</v>
@@ -20541,7 +20551,7 @@
         <v>89</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G102" s="2">
         <v>101</v>
@@ -20565,7 +20575,7 @@
         <v>96</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G103" s="2">
         <v>102</v>
@@ -20586,10 +20596,10 @@
         <v>93</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G104" s="2">
         <v>103</v>
@@ -20613,7 +20623,7 @@
         <v>90</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G105" s="2">
         <v>104</v>
@@ -20637,7 +20647,7 @@
         <v>89</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G106" s="2">
         <v>105</v>
@@ -20661,7 +20671,7 @@
         <v>92</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G107" s="2">
         <v>106</v>
@@ -20682,10 +20692,10 @@
         <v>93</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G108" s="2">
         <v>107</v>
@@ -20706,10 +20716,10 @@
         <v>84</v>
       </c>
       <c r="E109" s="66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F109" s="66" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G109" s="2">
         <v>108</v>
@@ -20727,13 +20737,13 @@
         <v>EAO's Viewpoint is POSITIVE</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="F110" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G110" s="2">
         <v>109</v>
@@ -20751,13 +20761,13 @@
         <v>EAO's Viewpoint is NEGATIVE</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="F111" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G111" s="2">
         <v>110</v>
@@ -20778,10 +20788,10 @@
         <v>95</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G112" s="2">
         <v>111</v>
@@ -20805,7 +20815,7 @@
         <v>90</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G113" s="2">
         <v>112</v>
@@ -20829,7 +20839,7 @@
         <v>89</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G114" s="2">
         <v>113</v>
@@ -20853,7 +20863,7 @@
         <v>96</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G115" s="2">
         <v>114</v>
@@ -20874,10 +20884,10 @@
         <v>93</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G116" s="2">
         <v>115</v>
@@ -20901,7 +20911,7 @@
         <v>90</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G117" s="2">
         <v>116</v>
@@ -20925,7 +20935,7 @@
         <v>89</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G118" s="2">
         <v>117</v>
@@ -20949,7 +20959,7 @@
         <v>92</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G119" s="2">
         <v>118</v>
@@ -20970,10 +20980,10 @@
         <v>93</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G120" s="2">
         <v>119</v>
@@ -20994,10 +21004,10 @@
         <v>95</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G121" s="2">
         <v>120</v>
@@ -21021,7 +21031,7 @@
         <v>90</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G122" s="2">
         <v>121</v>
@@ -21045,7 +21055,7 @@
         <v>89</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G123" s="2">
         <v>122</v>
@@ -21069,7 +21079,7 @@
         <v>96</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G124" s="2">
         <v>123</v>
@@ -21090,10 +21100,10 @@
         <v>93</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G125" s="2">
         <v>124</v>
@@ -21117,7 +21127,7 @@
         <v>90</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G126" s="2">
         <v>125</v>
@@ -21141,7 +21151,7 @@
         <v>89</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G127" s="2">
         <v>126</v>
@@ -21165,7 +21175,7 @@
         <v>92</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G128" s="2">
         <v>127</v>
@@ -21186,10 +21196,10 @@
         <v>93</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G129" s="2">
         <v>128</v>
@@ -21210,10 +21220,10 @@
         <v>84</v>
       </c>
       <c r="E130" s="66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F130" s="66" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G130" s="2">
         <v>129</v>
@@ -21231,13 +21241,13 @@
         <v>EAO's Viewpoint is POSITIVE</v>
       </c>
       <c r="D131" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="F131" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G131" s="2">
         <v>130</v>
@@ -21255,13 +21265,13 @@
         <v>EAO's Viewpoint is NEGATIVE</v>
       </c>
       <c r="D132" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="F132" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G132" s="2">
         <v>131</v>
@@ -21282,10 +21292,10 @@
         <v>95</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G133" s="2">
         <v>132</v>
@@ -21309,7 +21319,7 @@
         <v>90</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G134" s="2">
         <v>133</v>
@@ -21333,7 +21343,7 @@
         <v>89</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G135" s="2">
         <v>134</v>
@@ -21357,7 +21367,7 @@
         <v>96</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G136" s="2">
         <v>135</v>
@@ -21378,10 +21388,10 @@
         <v>93</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G137" s="2">
         <v>136</v>
@@ -21405,7 +21415,7 @@
         <v>90</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G138" s="2">
         <v>137</v>
@@ -21429,7 +21439,7 @@
         <v>89</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G139" s="2">
         <v>138</v>
@@ -21453,7 +21463,7 @@
         <v>92</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G140" s="2">
         <v>139</v>
@@ -21474,10 +21484,10 @@
         <v>93</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G141" s="2">
         <v>140</v>
@@ -21498,10 +21508,10 @@
         <v>84</v>
       </c>
       <c r="E142" s="66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F142" s="66" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G142" s="2">
         <v>141</v>
@@ -21522,10 +21532,10 @@
         <v>85</v>
       </c>
       <c r="E143" s="68" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G143" s="2">
         <v>142</v>
@@ -21546,10 +21556,10 @@
         <v>88</v>
       </c>
       <c r="E144" s="66" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G144" s="2">
         <v>143</v>
@@ -21570,10 +21580,10 @@
         <v>95</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G145" s="2">
         <v>144</v>
@@ -21597,7 +21607,7 @@
         <v>90</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G146" s="2">
         <v>145</v>
@@ -21621,7 +21631,7 @@
         <v>89</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G147" s="2">
         <v>146</v>
@@ -21645,7 +21655,7 @@
         <v>96</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G148" s="2">
         <v>147</v>
@@ -21666,10 +21676,10 @@
         <v>93</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G149" s="2">
         <v>148</v>
@@ -21693,7 +21703,7 @@
         <v>90</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G150" s="2">
         <v>149</v>
@@ -21717,7 +21727,7 @@
         <v>89</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G151" s="2">
         <v>150</v>
@@ -21741,7 +21751,7 @@
         <v>92</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G152" s="2">
         <v>151</v>
@@ -21762,10 +21772,10 @@
         <v>93</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G153" s="2">
         <v>152</v>
@@ -21786,10 +21796,10 @@
         <v>84</v>
       </c>
       <c r="E154" s="66" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F154" s="66" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G154" s="2">
         <v>153</v>
@@ -21813,7 +21823,7 @@
         <v>90</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G155" s="2">
         <v>154</v>
@@ -21837,7 +21847,7 @@
         <v>89</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G156" s="2">
         <v>155</v>
@@ -21861,7 +21871,7 @@
         <v>92</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G157" s="2">
         <v>156</v>
@@ -21882,10 +21892,10 @@
         <v>93</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G158" s="2">
         <v>157</v>
@@ -21906,10 +21916,10 @@
         <v>91</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G159" s="2">
         <v>158</v>
@@ -21930,10 +21940,10 @@
         <v>99</v>
       </c>
       <c r="E160" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G160" s="2">
         <v>159</v>
@@ -21954,10 +21964,10 @@
         <v>91</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G161" s="2">
         <v>160</v>
@@ -21978,10 +21988,10 @@
         <v>93</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G162" s="2">
         <v>161</v>
@@ -23000,27 +23010,13 @@
       <c r="G254" s="2"/>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="B257" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="C257" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="D257" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="E257" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="F257" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="G257" s="52" t="s">
-        <v>295</v>
-      </c>
+      <c r="A257" s="52"/>
+      <c r="B257" s="52"/>
+      <c r="C257" s="52"/>
+      <c r="D257" s="52"/>
+      <c r="E257" s="52"/>
+      <c r="F257" s="52"/>
+      <c r="G257" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:D257" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
@@ -23269,7 +23265,7 @@
     </row>
     <row r="6" spans="1:59">
       <c r="B6" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>24</v>
@@ -23455,7 +23451,7 @@
       </c>
       <c r="M16" s="8"/>
       <c r="U16" s="55" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="8:21">

--- a/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D598A7FB-D144-4454-9B35-0D4BD8F73DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0891B01-B3C5-4230-8118-3AB25E6D708C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="393">
   <si>
     <t>No</t>
   </si>
@@ -1085,9 +1085,6 @@
   </si>
   <si>
     <t>[{"phase_name":"Early Engagement","work_type_id": 6, "ea_act_id": 3, "is_active": false }]</t>
-  </si>
-  <si>
-    <t>{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of DPD Development (Day after SoE)", "start_at": 1 }</t>
   </si>
   <si>
     <t>{"phase_name":"Pre-EA (EAC Assessment)","work_type_id": 6, "ea_act_id": 3, "event_name": "Last Day of Pre-EA (EAC Assessment)", "start_at": 28 }</t>
@@ -2140,7 +2137,7 @@
         <v>303</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>9</v>
@@ -2169,7 +2166,7 @@
         <v>152</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>9</v>
@@ -2198,7 +2195,7 @@
         <v>153</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>9</v>
@@ -2227,7 +2224,7 @@
         <v>154</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>9</v>
@@ -2256,7 +2253,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>9</v>
@@ -2285,7 +2282,7 @@
         <v>156</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>9</v>
@@ -2314,7 +2311,7 @@
         <v>157</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>9</v>
@@ -2343,7 +2340,7 @@
         <v>158</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>9</v>
@@ -2372,7 +2369,7 @@
         <v>159</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>9</v>
@@ -2401,7 +2398,7 @@
         <v>160</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>9</v>
@@ -2430,7 +2427,7 @@
         <v>161</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>9</v>
@@ -2459,7 +2456,7 @@
         <v>162</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>9</v>
@@ -3109,13 +3106,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M337"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3173,7 +3171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3212,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3251,7 +3249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3290,7 +3288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3332,7 +3330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3371,7 +3369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3410,7 +3408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3452,7 +3450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3491,7 +3489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3530,7 +3528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3572,7 +3570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3614,7 +3612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3653,7 +3651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3695,7 +3693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3734,7 +3732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3773,7 +3771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+    <row r="17" spans="1:13" ht="15" hidden="1" thickBot="1">
       <c r="A17" s="2">
         <v>9999</v>
       </c>
@@ -3781,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E17" s="64" t="s">
         <v>303</v>
@@ -3811,7 +3809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -3850,7 +3848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -3892,7 +3890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -4051,7 +4049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -4093,7 +4091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -4135,7 +4133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -4177,7 +4175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -4258,7 +4256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -4339,7 +4337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -4459,7 +4457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" hidden="1">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -4579,7 +4577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" hidden="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -4660,7 +4658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" hidden="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -4741,7 +4739,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" hidden="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -4783,7 +4781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -4864,7 +4862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" hidden="1">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -4906,7 +4904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" hidden="1">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -4948,7 +4946,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" hidden="1">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -4990,7 +4988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" hidden="1">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -5149,7 +5147,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" hidden="1">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -5191,7 +5189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -5272,7 +5270,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -5314,7 +5312,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" hidden="1">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -5395,7 +5393,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" hidden="1">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -5437,7 +5435,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" hidden="1">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -5518,7 +5516,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" hidden="1">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -5560,7 +5558,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" hidden="1">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -5641,7 +5639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" hidden="1">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -5683,7 +5681,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" hidden="1">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -5764,7 +5762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" hidden="1">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -5806,7 +5804,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" hidden="1">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -5926,7 +5924,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" hidden="1">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -5968,7 +5966,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" hidden="1">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -6010,7 +6008,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" hidden="1">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -6049,7 +6047,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" hidden="1">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -6088,7 +6086,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" hidden="1">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -6130,7 +6128,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" hidden="1">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -6169,7 +6167,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" hidden="1">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -6208,7 +6206,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" hidden="1">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -6250,7 +6248,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" hidden="1">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -6289,7 +6287,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" hidden="1">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -6331,7 +6329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" hidden="1">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -6373,7 +6371,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" hidden="1">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -6412,7 +6410,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" hidden="1">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -6454,7 +6452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -6496,7 +6494,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" hidden="1">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -6535,7 +6533,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -6577,7 +6575,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" hidden="1">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -6619,7 +6617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" hidden="1">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -6658,7 +6656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" hidden="1">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -6697,7 +6695,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" hidden="1">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -6736,7 +6734,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" hidden="1">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -6778,7 +6776,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" hidden="1">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -6820,7 +6818,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" hidden="1">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -6859,7 +6857,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" hidden="1">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -6901,7 +6899,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" hidden="1">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -6940,7 +6938,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -6979,7 +6977,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -7021,7 +7019,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" hidden="1">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -7060,7 +7058,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" hidden="1">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -7099,7 +7097,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" hidden="1">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -7141,7 +7139,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" hidden="1">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -7183,7 +7181,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" hidden="1">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -7222,7 +7220,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" hidden="1">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -7264,7 +7262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" hidden="1">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -7306,7 +7304,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" hidden="1">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -7345,7 +7343,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" hidden="1">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -7387,7 +7385,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" hidden="1">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -7429,7 +7427,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15" thickBot="1">
+    <row r="107" spans="1:13" hidden="1">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -7468,7 +7466,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" hidden="1">
       <c r="A108" s="41">
         <v>106</v>
       </c>
@@ -7508,7 +7506,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15" thickBot="1">
+    <row r="109" spans="1:13" ht="15" hidden="1" thickBot="1">
       <c r="A109" s="42">
         <v>107</v>
       </c>
@@ -7548,7 +7546,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" hidden="1">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -7587,7 +7585,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" hidden="1">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -7629,7 +7627,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" hidden="1">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -7671,7 +7669,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" hidden="1">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -7710,7 +7708,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" hidden="1">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -7749,7 +7747,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" hidden="1">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -7788,7 +7786,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" hidden="1">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -7830,7 +7828,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" hidden="1">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -7872,7 +7870,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" hidden="1">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -7911,7 +7909,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" hidden="1">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -7953,7 +7951,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" hidden="1">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -7995,7 +7993,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" hidden="1">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -8034,7 +8032,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" hidden="1">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -8073,7 +8071,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" hidden="1">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -8115,7 +8113,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" hidden="1">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -8154,7 +8152,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" hidden="1">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -8193,7 +8191,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" hidden="1">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -8232,7 +8230,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" hidden="1">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -8271,7 +8269,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" hidden="1">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -8310,7 +8308,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" hidden="1">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -8349,7 +8347,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" hidden="1">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -8388,7 +8386,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" hidden="1">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -8427,7 +8425,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15" thickBot="1">
+    <row r="132" spans="1:13" hidden="1">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -8466,7 +8464,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15" thickBot="1">
+    <row r="133" spans="1:13" ht="15" hidden="1" thickBot="1">
       <c r="A133" s="44">
         <v>131</v>
       </c>
@@ -8504,7 +8502,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" hidden="1">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -8543,7 +8541,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" hidden="1">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -8585,7 +8583,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" hidden="1">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -8627,7 +8625,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" hidden="1">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -8666,7 +8664,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" hidden="1">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -8705,7 +8703,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" hidden="1">
       <c r="A139" s="2">
         <v>137</v>
       </c>
@@ -8747,7 +8745,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" hidden="1">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -8789,7 +8787,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" hidden="1">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -8828,7 +8826,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" hidden="1">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -8867,7 +8865,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" hidden="1">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -8909,7 +8907,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" hidden="1">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -8951,7 +8949,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" hidden="1">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -8993,7 +8991,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" hidden="1">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -9035,7 +9033,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" hidden="1">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -9074,7 +9072,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" hidden="1">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -9113,7 +9111,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" hidden="1">
       <c r="A149" s="2">
         <v>147</v>
       </c>
@@ -9155,7 +9153,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" hidden="1">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -9194,7 +9192,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" hidden="1">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -9233,7 +9231,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" hidden="1">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -9272,7 +9270,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" hidden="1">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -9311,7 +9309,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" hidden="1">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -9350,7 +9348,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" hidden="1">
       <c r="A155" s="2">
         <v>153</v>
       </c>
@@ -9392,7 +9390,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" hidden="1">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -9434,7 +9432,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" hidden="1">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -9473,7 +9471,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" hidden="1">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -9515,7 +9513,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" hidden="1">
       <c r="A159" s="2">
         <v>157</v>
       </c>
@@ -9557,7 +9555,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" hidden="1">
       <c r="A160" s="2">
         <v>158</v>
       </c>
@@ -9599,7 +9597,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" hidden="1">
       <c r="A161" s="2">
         <v>159</v>
       </c>
@@ -9641,7 +9639,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" hidden="1">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -9680,7 +9678,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" hidden="1">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -9719,7 +9717,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" hidden="1">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -9758,7 +9756,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" hidden="1">
       <c r="A165" s="2">
         <v>163</v>
       </c>
@@ -9800,7 +9798,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" hidden="1">
       <c r="A166" s="2">
         <v>164</v>
       </c>
@@ -9842,7 +9840,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" hidden="1">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -9881,7 +9879,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" hidden="1">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -9923,7 +9921,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" hidden="1">
       <c r="A169" s="2">
         <v>167</v>
       </c>
@@ -9965,7 +9963,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" hidden="1">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -10004,7 +10002,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" hidden="1">
       <c r="A171" s="2">
         <v>169</v>
       </c>
@@ -10046,7 +10044,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" hidden="1">
       <c r="A172" s="2">
         <v>170</v>
       </c>
@@ -10088,7 +10086,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" hidden="1">
       <c r="A173" s="2">
         <v>171</v>
       </c>
@@ -10127,7 +10125,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" hidden="1">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -10169,7 +10167,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" hidden="1">
       <c r="A175" s="2">
         <v>173</v>
       </c>
@@ -10211,7 +10209,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" hidden="1">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -10250,7 +10248,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" hidden="1">
       <c r="A177" s="2">
         <v>175</v>
       </c>
@@ -10292,7 +10290,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" hidden="1">
       <c r="A178" s="2">
         <v>176</v>
       </c>
@@ -10334,7 +10332,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" hidden="1">
       <c r="A179" s="2">
         <v>177</v>
       </c>
@@ -10373,7 +10371,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" hidden="1">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -10415,7 +10413,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" hidden="1">
       <c r="A181" s="2">
         <v>179</v>
       </c>
@@ -10457,7 +10455,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" hidden="1">
       <c r="A182" s="2">
         <v>180</v>
       </c>
@@ -10496,7 +10494,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" hidden="1">
       <c r="A183" s="2">
         <v>181</v>
       </c>
@@ -10535,7 +10533,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" hidden="1">
       <c r="A184" s="2">
         <v>182</v>
       </c>
@@ -10577,7 +10575,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" hidden="1">
       <c r="A185" s="2">
         <v>183</v>
       </c>
@@ -10619,7 +10617,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" hidden="1">
       <c r="A186" s="2">
         <v>184</v>
       </c>
@@ -10658,7 +10656,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" hidden="1">
       <c r="A187" s="2">
         <v>185</v>
       </c>
@@ -10697,7 +10695,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" hidden="1">
       <c r="A188" s="2">
         <v>186</v>
       </c>
@@ -10739,7 +10737,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" hidden="1">
       <c r="A189" s="2">
         <v>187</v>
       </c>
@@ -10778,7 +10776,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" hidden="1">
       <c r="A190" s="2">
         <v>188</v>
       </c>
@@ -10817,7 +10815,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" hidden="1">
       <c r="A191" s="2">
         <v>189</v>
       </c>
@@ -10859,7 +10857,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" hidden="1">
       <c r="A192" s="2">
         <v>190</v>
       </c>
@@ -10898,7 +10896,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" hidden="1">
       <c r="A193" s="2">
         <v>191</v>
       </c>
@@ -10940,7 +10938,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" hidden="1">
       <c r="A194" s="2">
         <v>192</v>
       </c>
@@ -10979,7 +10977,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195" s="2">
         <v>193</v>
       </c>
@@ -11021,7 +11019,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" hidden="1">
       <c r="A196" s="2">
         <v>194</v>
       </c>
@@ -11063,7 +11061,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" hidden="1">
       <c r="A197" s="2">
         <v>195</v>
       </c>
@@ -11102,7 +11100,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" hidden="1">
       <c r="A198" s="2">
         <v>196</v>
       </c>
@@ -11144,7 +11142,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" hidden="1">
       <c r="A199" s="2">
         <v>197</v>
       </c>
@@ -11186,7 +11184,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" hidden="1">
       <c r="A200" s="2">
         <v>198</v>
       </c>
@@ -11225,7 +11223,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" hidden="1">
       <c r="A201" s="2">
         <v>199</v>
       </c>
@@ -11267,7 +11265,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" hidden="1">
       <c r="A202" s="2">
         <v>200</v>
       </c>
@@ -11309,7 +11307,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" hidden="1">
       <c r="A203" s="2">
         <v>201</v>
       </c>
@@ -11348,7 +11346,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" hidden="1">
       <c r="A204" s="2">
         <v>202</v>
       </c>
@@ -11387,7 +11385,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" hidden="1">
       <c r="A205" s="2">
         <v>203</v>
       </c>
@@ -11426,7 +11424,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" hidden="1">
       <c r="A206" s="2">
         <v>204</v>
       </c>
@@ -11468,7 +11466,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" hidden="1">
       <c r="A207" s="2">
         <v>205</v>
       </c>
@@ -11510,7 +11508,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" hidden="1">
       <c r="A208" s="2">
         <v>206</v>
       </c>
@@ -11549,7 +11547,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" hidden="1">
       <c r="A209" s="2">
         <v>207</v>
       </c>
@@ -11591,7 +11589,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" hidden="1">
       <c r="A210" s="2">
         <v>208</v>
       </c>
@@ -11633,7 +11631,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" hidden="1">
       <c r="A211" s="2">
         <v>209</v>
       </c>
@@ -11675,7 +11673,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" hidden="1">
       <c r="A212" s="2">
         <v>210</v>
       </c>
@@ -11717,7 +11715,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" hidden="1">
       <c r="A213" s="2">
         <v>211</v>
       </c>
@@ -11756,7 +11754,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" hidden="1">
       <c r="A214" s="2">
         <v>212</v>
       </c>
@@ -11798,7 +11796,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" hidden="1">
       <c r="A215" s="2">
         <v>213</v>
       </c>
@@ -11837,7 +11835,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" hidden="1">
       <c r="A216" s="2">
         <v>214</v>
       </c>
@@ -11879,7 +11877,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" hidden="1">
       <c r="A217" s="2">
         <v>215</v>
       </c>
@@ -11918,7 +11916,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" hidden="1">
       <c r="A218" s="2">
         <v>216</v>
       </c>
@@ -11957,7 +11955,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" hidden="1">
       <c r="A219" s="2">
         <v>217</v>
       </c>
@@ -11999,7 +11997,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" hidden="1">
       <c r="A220" s="2">
         <v>218</v>
       </c>
@@ -12038,7 +12036,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" hidden="1">
       <c r="A221" s="2">
         <v>219</v>
       </c>
@@ -12080,7 +12078,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" hidden="1">
       <c r="A222" s="2">
         <v>220</v>
       </c>
@@ -12122,7 +12120,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" hidden="1">
       <c r="A223" s="2">
         <v>221</v>
       </c>
@@ -12161,7 +12159,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" hidden="1">
       <c r="A224" s="2">
         <v>222</v>
       </c>
@@ -12203,7 +12201,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" hidden="1">
       <c r="A225" s="2">
         <v>223</v>
       </c>
@@ -12245,7 +12243,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" hidden="1">
       <c r="A226" s="2">
         <v>224</v>
       </c>
@@ -12287,7 +12285,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" hidden="1">
       <c r="A227" s="2">
         <v>225</v>
       </c>
@@ -12329,7 +12327,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" hidden="1">
       <c r="A228" s="2">
         <v>226</v>
       </c>
@@ -12368,7 +12366,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" hidden="1">
       <c r="A229" s="2">
         <v>227</v>
       </c>
@@ -12407,7 +12405,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" hidden="1">
       <c r="A230" s="2">
         <v>228</v>
       </c>
@@ -12446,7 +12444,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" hidden="1">
       <c r="A231" s="2">
         <v>229</v>
       </c>
@@ -12488,7 +12486,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" hidden="1">
       <c r="A232" s="2">
         <v>230</v>
       </c>
@@ -12530,7 +12528,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" hidden="1">
       <c r="A233" s="2">
         <v>231</v>
       </c>
@@ -12569,7 +12567,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" hidden="1">
       <c r="A234" s="2">
         <v>232</v>
       </c>
@@ -12611,7 +12609,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" hidden="1">
       <c r="A235" s="2">
         <v>233</v>
       </c>
@@ -12653,7 +12651,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" hidden="1">
       <c r="A236" s="2">
         <v>234</v>
       </c>
@@ -12692,7 +12690,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" hidden="1">
       <c r="A237" s="2">
         <v>235</v>
       </c>
@@ -12734,7 +12732,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" hidden="1">
       <c r="A238" s="2">
         <v>236</v>
       </c>
@@ -12776,7 +12774,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" hidden="1">
       <c r="A239" s="2">
         <v>237</v>
       </c>
@@ -12815,7 +12813,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" hidden="1">
       <c r="A240" s="2">
         <v>238</v>
       </c>
@@ -12857,7 +12855,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" hidden="1">
       <c r="A241" s="2">
         <v>239</v>
       </c>
@@ -12899,7 +12897,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" hidden="1">
       <c r="A242" s="2">
         <v>240</v>
       </c>
@@ -12938,7 +12936,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" hidden="1">
       <c r="A243" s="2">
         <v>241</v>
       </c>
@@ -12980,7 +12978,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" hidden="1">
       <c r="A244" s="2">
         <v>242</v>
       </c>
@@ -13022,7 +13020,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" hidden="1">
       <c r="A245" s="2">
         <v>243</v>
       </c>
@@ -13061,7 +13059,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" hidden="1">
       <c r="A246" s="2">
         <v>244</v>
       </c>
@@ -13103,7 +13101,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" hidden="1">
       <c r="A247" s="2">
         <v>245</v>
       </c>
@@ -13145,7 +13143,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" hidden="1">
       <c r="A248" s="2">
         <v>246</v>
       </c>
@@ -13184,7 +13182,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" hidden="1">
       <c r="A249" s="2">
         <v>247</v>
       </c>
@@ -13223,7 +13221,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" hidden="1">
       <c r="A250" s="2">
         <v>248</v>
       </c>
@@ -13265,7 +13263,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" hidden="1">
       <c r="A251" s="2">
         <v>249</v>
       </c>
@@ -13307,7 +13305,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" hidden="1">
       <c r="A252" s="2">
         <v>250</v>
       </c>
@@ -13346,7 +13344,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" hidden="1">
       <c r="A253" s="2">
         <v>251</v>
       </c>
@@ -13385,7 +13383,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" hidden="1">
       <c r="A254" s="2">
         <v>252</v>
       </c>
@@ -13424,7 +13422,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" hidden="1">
       <c r="A255" s="2">
         <v>253</v>
       </c>
@@ -13466,7 +13464,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" hidden="1">
       <c r="A256" s="2">
         <v>254</v>
       </c>
@@ -13505,7 +13503,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" hidden="1">
       <c r="A257" s="2">
         <v>255</v>
       </c>
@@ -13544,7 +13542,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" hidden="1">
       <c r="A258" s="2">
         <v>256</v>
       </c>
@@ -13586,7 +13584,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" hidden="1">
       <c r="A259" s="2">
         <v>257</v>
       </c>
@@ -13625,7 +13623,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" hidden="1">
       <c r="A260" s="2">
         <v>258</v>
       </c>
@@ -13667,7 +13665,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" hidden="1">
       <c r="A261" s="2">
         <v>259</v>
       </c>
@@ -13706,7 +13704,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" hidden="1">
       <c r="A262" s="2">
         <v>260</v>
       </c>
@@ -13748,7 +13746,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" hidden="1">
       <c r="A263" s="2">
         <v>261</v>
       </c>
@@ -13790,7 +13788,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" hidden="1">
       <c r="A264" s="2">
         <v>262</v>
       </c>
@@ -13829,7 +13827,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" hidden="1">
       <c r="A265" s="2">
         <v>263</v>
       </c>
@@ -13871,7 +13869,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" hidden="1">
       <c r="A266" s="2">
         <v>264</v>
       </c>
@@ -13913,7 +13911,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" hidden="1">
       <c r="A267" s="2">
         <v>265</v>
       </c>
@@ -13952,7 +13950,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" hidden="1">
       <c r="A268" s="2">
         <v>266</v>
       </c>
@@ -13994,7 +13992,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" hidden="1">
       <c r="A269" s="2">
         <v>267</v>
       </c>
@@ -14036,7 +14034,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" hidden="1">
       <c r="A270" s="2">
         <v>268</v>
       </c>
@@ -14075,7 +14073,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" hidden="1">
       <c r="A271" s="2">
         <v>269</v>
       </c>
@@ -14114,7 +14112,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" hidden="1">
       <c r="A272" s="2">
         <v>270</v>
       </c>
@@ -14153,7 +14151,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" hidden="1">
       <c r="A273" s="2">
         <v>271</v>
       </c>
@@ -14192,7 +14190,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" hidden="1">
       <c r="A274" s="2">
         <v>272</v>
       </c>
@@ -14231,7 +14229,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" hidden="1">
       <c r="A275" s="2">
         <v>273</v>
       </c>
@@ -14273,7 +14271,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" hidden="1">
       <c r="A276" s="2">
         <v>274</v>
       </c>
@@ -14315,7 +14313,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" hidden="1">
       <c r="A277" s="2">
         <v>275</v>
       </c>
@@ -14354,7 +14352,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" hidden="1">
       <c r="A278" s="2">
         <v>276</v>
       </c>
@@ -14393,7 +14391,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" hidden="1">
       <c r="A279" s="2">
         <v>277</v>
       </c>
@@ -14435,7 +14433,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" hidden="1">
       <c r="A280" s="2">
         <v>278</v>
       </c>
@@ -14477,7 +14475,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" hidden="1">
       <c r="A281" s="2">
         <v>279</v>
       </c>
@@ -14519,7 +14517,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" hidden="1">
       <c r="A282" s="2">
         <v>280</v>
       </c>
@@ -14561,7 +14559,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" hidden="1">
       <c r="A283" s="2">
         <v>281</v>
       </c>
@@ -14600,7 +14598,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" hidden="1">
       <c r="A284" s="2">
         <v>282</v>
       </c>
@@ -14642,7 +14640,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" hidden="1">
       <c r="A285" s="2">
         <v>283</v>
       </c>
@@ -14681,7 +14679,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" hidden="1">
       <c r="A286" s="2">
         <v>284</v>
       </c>
@@ -14720,7 +14718,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" hidden="1">
       <c r="A287" s="2">
         <v>285</v>
       </c>
@@ -14762,7 +14760,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" hidden="1">
       <c r="A288" s="2">
         <v>286</v>
       </c>
@@ -14801,7 +14799,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" hidden="1">
       <c r="A289" s="2">
         <v>287</v>
       </c>
@@ -14843,7 +14841,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" hidden="1">
       <c r="A290" s="2">
         <v>288</v>
       </c>
@@ -14885,7 +14883,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" hidden="1">
       <c r="A291" s="2">
         <v>289</v>
       </c>
@@ -14924,7 +14922,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" hidden="1">
       <c r="A292" s="2">
         <v>290</v>
       </c>
@@ -14966,7 +14964,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" hidden="1">
       <c r="A293" s="2">
         <v>291</v>
       </c>
@@ -15008,7 +15006,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" hidden="1">
       <c r="A294" s="2">
         <v>292</v>
       </c>
@@ -15050,7 +15048,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" hidden="1">
       <c r="A295" s="2">
         <v>293</v>
       </c>
@@ -15092,7 +15090,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" hidden="1">
       <c r="A296" s="2">
         <v>294</v>
       </c>
@@ -15131,7 +15129,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" hidden="1">
       <c r="A297" s="2">
         <v>295</v>
       </c>
@@ -15170,7 +15168,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" hidden="1">
       <c r="A298" s="2">
         <v>296</v>
       </c>
@@ -15209,7 +15207,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" hidden="1">
       <c r="A299" s="2">
         <v>297</v>
       </c>
@@ -15251,7 +15249,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" hidden="1">
       <c r="A300" s="2">
         <v>298</v>
       </c>
@@ -15293,7 +15291,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" hidden="1">
       <c r="A301" s="2">
         <v>299</v>
       </c>
@@ -15332,7 +15330,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" hidden="1">
       <c r="A302" s="2">
         <v>300</v>
       </c>
@@ -15374,7 +15372,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" hidden="1">
       <c r="A303" s="2">
         <v>301</v>
       </c>
@@ -15416,7 +15414,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" hidden="1">
       <c r="A304" s="2">
         <v>302</v>
       </c>
@@ -15455,7 +15453,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" hidden="1">
       <c r="A305" s="2">
         <v>303</v>
       </c>
@@ -15497,7 +15495,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" hidden="1">
       <c r="A306" s="2">
         <v>304</v>
       </c>
@@ -15539,7 +15537,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" hidden="1">
       <c r="A307" s="2">
         <v>305</v>
       </c>
@@ -15578,7 +15576,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" hidden="1">
       <c r="A308" s="2">
         <v>306</v>
       </c>
@@ -15620,7 +15618,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" hidden="1">
       <c r="A309" s="2">
         <v>307</v>
       </c>
@@ -15662,7 +15660,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" hidden="1">
       <c r="A310" s="2">
         <v>308</v>
       </c>
@@ -15701,7 +15699,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" hidden="1">
       <c r="A311" s="2">
         <v>309</v>
       </c>
@@ -15743,7 +15741,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" hidden="1">
       <c r="A312" s="2">
         <v>310</v>
       </c>
@@ -15785,7 +15783,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" hidden="1">
       <c r="A313" s="2">
         <v>311</v>
       </c>
@@ -15824,7 +15822,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" hidden="1">
       <c r="A314" s="2">
         <v>312</v>
       </c>
@@ -15866,7 +15864,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" hidden="1">
       <c r="A315" s="2">
         <v>313</v>
       </c>
@@ -15908,7 +15906,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" hidden="1">
       <c r="A316" s="2">
         <v>314</v>
       </c>
@@ -15947,7 +15945,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" hidden="1">
       <c r="A317" s="2">
         <v>315</v>
       </c>
@@ -15986,7 +15984,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" hidden="1">
       <c r="A318" s="2">
         <v>316</v>
       </c>
@@ -16025,7 +16023,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" hidden="1">
       <c r="A319" s="2">
         <v>317</v>
       </c>
@@ -16067,7 +16065,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" hidden="1">
       <c r="A320" s="2">
         <v>318</v>
       </c>
@@ -16106,7 +16104,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" hidden="1">
       <c r="A321" s="2">
         <v>319</v>
       </c>
@@ -16145,7 +16143,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" hidden="1">
       <c r="A322" s="2">
         <v>320</v>
       </c>
@@ -16184,7 +16182,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" hidden="1">
       <c r="A323" s="2">
         <v>321</v>
       </c>
@@ -16223,7 +16221,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" hidden="1">
       <c r="A324" s="2">
         <v>322</v>
       </c>
@@ -16265,7 +16263,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" hidden="1">
       <c r="A325" s="2">
         <v>323</v>
       </c>
@@ -16307,7 +16305,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" hidden="1">
       <c r="A326" s="2">
         <v>324</v>
       </c>
@@ -16346,7 +16344,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" hidden="1">
       <c r="A327" s="2">
         <v>325</v>
       </c>
@@ -16388,7 +16386,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" hidden="1">
       <c r="A328" s="2">
         <v>326</v>
       </c>
@@ -16430,7 +16428,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" hidden="1">
       <c r="A329" s="2">
         <v>327</v>
       </c>
@@ -16469,7 +16467,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" hidden="1">
       <c r="A330" s="2">
         <v>328</v>
       </c>
@@ -16511,7 +16509,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" hidden="1">
       <c r="A331" s="2">
         <v>329</v>
       </c>
@@ -16553,7 +16551,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" hidden="1">
       <c r="A332" s="2">
         <v>330</v>
       </c>
@@ -16592,7 +16590,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" hidden="1">
       <c r="A333" s="2">
         <v>331</v>
       </c>
@@ -16634,7 +16632,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" hidden="1">
       <c r="A334" s="2">
         <v>332</v>
       </c>
@@ -16676,7 +16674,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" hidden="1">
       <c r="A335" s="2">
         <v>333</v>
       </c>
@@ -16715,7 +16713,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" hidden="1">
       <c r="A336" s="2">
         <v>334</v>
       </c>
@@ -16754,7 +16752,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" hidden="1">
       <c r="A337" s="2">
         <v>335</v>
       </c>
@@ -16797,7 +16795,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M337" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:M337" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Early Engagement"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Decision"/>
+        <filter val="Extension"/>
+        <filter val="Finance"/>
+        <filter val="Milestone"/>
+        <filter val="PCP"/>
+        <filter val="Suspension"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="H1:H16 H18:H337">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="END">
       <formula>NOT(ISERROR(SEARCH("END",H1)))</formula>
@@ -16860,7 +16874,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -16889,7 +16903,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -18092,10 +18106,10 @@
   <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B242" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D250" sqref="D250"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -18151,7 +18165,7 @@
         <v>296</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -18247,7 +18261,7 @@
         <v>302</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>
@@ -18295,7 +18309,7 @@
         <v>317</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G8" s="2">
         <v>7</v>
@@ -18319,7 +18333,7 @@
         <v>304</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -18343,7 +18357,7 @@
         <v>305</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G10" s="2">
         <v>9</v>
@@ -18367,7 +18381,7 @@
         <v>306</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
@@ -18391,7 +18405,7 @@
         <v>307</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G12" s="2">
         <v>11</v>
@@ -18463,7 +18477,7 @@
         <v>308</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G15" s="2">
         <v>14</v>
@@ -18487,7 +18501,7 @@
         <v>309</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G16" s="2">
         <v>15</v>
@@ -18559,7 +18573,7 @@
         <v>310</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G19" s="2">
         <v>18</v>
@@ -18583,7 +18597,7 @@
         <v>311</v>
       </c>
       <c r="F20" s="66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G20" s="2">
         <v>19</v>
@@ -18607,7 +18621,7 @@
         <v>296</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G21" s="2">
         <v>20</v>
@@ -18631,7 +18645,7 @@
         <v>296</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G22" s="2">
         <v>21</v>
@@ -18679,7 +18693,7 @@
         <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G24" s="2">
         <v>23</v>
@@ -18703,7 +18717,7 @@
         <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G25" s="2">
         <v>24</v>
@@ -18727,7 +18741,7 @@
         <v>312</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G26" s="2">
         <v>25</v>
@@ -18751,7 +18765,7 @@
         <v>313</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G27" s="2">
         <v>26</v>
@@ -18775,7 +18789,7 @@
         <v>314</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G28" s="2">
         <v>27</v>
@@ -18796,10 +18810,10 @@
         <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G29" s="2">
         <v>28</v>
@@ -18820,10 +18834,10 @@
         <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="G30" s="2">
         <v>29</v>
@@ -18847,7 +18861,7 @@
         <v>315</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G31" s="2">
         <v>30</v>
@@ -18895,7 +18909,7 @@
         <v>89</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G33" s="2">
         <v>32</v>
@@ -18919,7 +18933,7 @@
         <v>96</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G34" s="2">
         <v>33</v>
@@ -18943,7 +18957,7 @@
         <v>312</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G35" s="2">
         <v>34</v>
@@ -18991,7 +19005,7 @@
         <v>89</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G37" s="2">
         <v>36</v>
@@ -19015,7 +19029,7 @@
         <v>92</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G38" s="2">
         <v>37</v>
@@ -19039,7 +19053,7 @@
         <v>312</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G39" s="2">
         <v>38</v>
@@ -19063,7 +19077,7 @@
         <v>316</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G40" s="2">
         <v>39</v>
@@ -19087,7 +19101,7 @@
         <v>296</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G41" s="2">
         <v>40</v>
@@ -19111,7 +19125,7 @@
         <v>296</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G42" s="2">
         <v>41</v>
@@ -19135,7 +19149,7 @@
         <v>315</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G43" s="2">
         <v>42</v>
@@ -19183,7 +19197,7 @@
         <v>89</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G45" s="2">
         <v>44</v>
@@ -19207,7 +19221,7 @@
         <v>96</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G46" s="2">
         <v>45</v>
@@ -19231,7 +19245,7 @@
         <v>312</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G47" s="2">
         <v>46</v>
@@ -19279,7 +19293,7 @@
         <v>89</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G49" s="2">
         <v>48</v>
@@ -19303,7 +19317,7 @@
         <v>92</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G50" s="2">
         <v>49</v>
@@ -19327,7 +19341,7 @@
         <v>312</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G51" s="2">
         <v>50</v>
@@ -19351,7 +19365,7 @@
         <v>315</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G52" s="2">
         <v>51</v>
@@ -19399,7 +19413,7 @@
         <v>89</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G54" s="2">
         <v>53</v>
@@ -19423,7 +19437,7 @@
         <v>96</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G55" s="2">
         <v>54</v>
@@ -19447,7 +19461,7 @@
         <v>312</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G56" s="2">
         <v>55</v>
@@ -19495,7 +19509,7 @@
         <v>89</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G58" s="2">
         <v>57</v>
@@ -19519,7 +19533,7 @@
         <v>92</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G59" s="2">
         <v>58</v>
@@ -19543,7 +19557,7 @@
         <v>312</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G60" s="2">
         <v>59</v>
@@ -19564,10 +19578,10 @@
         <v>97</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F61" s="70" t="s">
         <v>385</v>
-      </c>
-      <c r="F61" s="70" t="s">
-        <v>386</v>
       </c>
       <c r="G61" s="2">
         <v>60</v>
@@ -19591,7 +19605,7 @@
         <v>318</v>
       </c>
       <c r="F62" s="66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G62" s="2">
         <v>61</v>
@@ -19615,7 +19629,7 @@
         <v>321</v>
       </c>
       <c r="F63" s="66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G63" s="2">
         <v>62</v>
@@ -19639,7 +19653,7 @@
         <v>323</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G64" s="2">
         <v>63</v>
@@ -19663,7 +19677,7 @@
         <v>324</v>
       </c>
       <c r="F65" s="66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G65" s="2">
         <v>64</v>
@@ -19687,7 +19701,7 @@
         <v>325</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G66" s="2">
         <v>65</v>
@@ -19711,7 +19725,7 @@
         <v>326</v>
       </c>
       <c r="F67" s="66" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G67" s="2">
         <v>66</v>
@@ -19735,7 +19749,7 @@
         <v>327</v>
       </c>
       <c r="F68" s="66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G68" s="2">
         <v>67</v>
@@ -19759,7 +19773,7 @@
         <v>328</v>
       </c>
       <c r="F69" s="66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G69" s="2">
         <v>68</v>
@@ -19783,7 +19797,7 @@
         <v>333</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G70" s="2">
         <v>69</v>
@@ -19831,7 +19845,7 @@
         <v>89</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G72" s="2">
         <v>71</v>
@@ -19855,7 +19869,7 @@
         <v>96</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G73" s="2">
         <v>72</v>
@@ -19879,7 +19893,7 @@
         <v>312</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G74" s="2">
         <v>73</v>
@@ -19927,7 +19941,7 @@
         <v>89</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G76" s="2">
         <v>75</v>
@@ -19951,7 +19965,7 @@
         <v>92</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G77" s="2">
         <v>76</v>
@@ -19975,7 +19989,7 @@
         <v>312</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G78" s="2">
         <v>77</v>
@@ -19999,7 +20013,7 @@
         <v>89</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G79" s="2">
         <v>78</v>
@@ -20023,7 +20037,7 @@
         <v>96</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G80" s="2">
         <v>79</v>
@@ -20047,7 +20061,7 @@
         <v>312</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G81" s="2">
         <v>80</v>
@@ -20071,7 +20085,7 @@
         <v>329</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G82" s="2">
         <v>81</v>
@@ -20095,7 +20109,7 @@
         <v>330</v>
       </c>
       <c r="F83" s="66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G83" s="2">
         <v>82</v>
@@ -20143,7 +20157,7 @@
         <v>89</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G85" s="2">
         <v>84</v>
@@ -20167,7 +20181,7 @@
         <v>96</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G86" s="2">
         <v>85</v>
@@ -20191,7 +20205,7 @@
         <v>312</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G87" s="2">
         <v>86</v>
@@ -20239,7 +20253,7 @@
         <v>89</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G89" s="2">
         <v>88</v>
@@ -20263,7 +20277,7 @@
         <v>92</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G90" s="2">
         <v>89</v>
@@ -20287,7 +20301,7 @@
         <v>312</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G91" s="2">
         <v>90</v>
@@ -20308,10 +20322,10 @@
         <v>97</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="G92" s="2">
         <v>91</v>
@@ -20335,7 +20349,7 @@
         <v>318</v>
       </c>
       <c r="F93" s="66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G93" s="2">
         <v>92</v>
@@ -20359,7 +20373,7 @@
         <v>321</v>
       </c>
       <c r="F94" s="66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G94" s="2">
         <v>93</v>
@@ -20383,7 +20397,7 @@
         <v>328</v>
       </c>
       <c r="F95" s="66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G95" s="2">
         <v>94</v>
@@ -20407,7 +20421,7 @@
         <v>333</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G96" s="2">
         <v>95</v>
@@ -20431,7 +20445,7 @@
         <v>331</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G97" s="2">
         <v>96</v>
@@ -20455,7 +20469,7 @@
         <v>332</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G98" s="2">
         <v>97</v>
@@ -20479,7 +20493,7 @@
         <v>333</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G99" s="2">
         <v>98</v>
@@ -20503,7 +20517,7 @@
         <v>315</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G100" s="2">
         <v>99</v>
@@ -20551,7 +20565,7 @@
         <v>89</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G102" s="2">
         <v>101</v>
@@ -20575,7 +20589,7 @@
         <v>96</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G103" s="2">
         <v>102</v>
@@ -20599,7 +20613,7 @@
         <v>312</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G104" s="2">
         <v>103</v>
@@ -20647,7 +20661,7 @@
         <v>89</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G106" s="2">
         <v>105</v>
@@ -20671,7 +20685,7 @@
         <v>92</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G107" s="2">
         <v>106</v>
@@ -20695,7 +20709,7 @@
         <v>312</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G108" s="2">
         <v>107</v>
@@ -20719,7 +20733,7 @@
         <v>334</v>
       </c>
       <c r="F109" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G109" s="2">
         <v>108</v>
@@ -20743,7 +20757,7 @@
         <v>296</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G110" s="2">
         <v>109</v>
@@ -20767,7 +20781,7 @@
         <v>296</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G111" s="2">
         <v>110</v>
@@ -20791,7 +20805,7 @@
         <v>315</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G112" s="2">
         <v>111</v>
@@ -20839,7 +20853,7 @@
         <v>89</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G114" s="2">
         <v>113</v>
@@ -20863,7 +20877,7 @@
         <v>96</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G115" s="2">
         <v>114</v>
@@ -20887,7 +20901,7 @@
         <v>312</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G116" s="2">
         <v>115</v>
@@ -20935,7 +20949,7 @@
         <v>89</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G118" s="2">
         <v>117</v>
@@ -20959,7 +20973,7 @@
         <v>92</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G119" s="2">
         <v>118</v>
@@ -20983,7 +20997,7 @@
         <v>312</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G120" s="2">
         <v>119</v>
@@ -21007,7 +21021,7 @@
         <v>315</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G121" s="2">
         <v>120</v>
@@ -21055,7 +21069,7 @@
         <v>89</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G123" s="2">
         <v>122</v>
@@ -21079,7 +21093,7 @@
         <v>96</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G124" s="2">
         <v>123</v>
@@ -21103,7 +21117,7 @@
         <v>312</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G125" s="2">
         <v>124</v>
@@ -21151,7 +21165,7 @@
         <v>89</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G127" s="2">
         <v>126</v>
@@ -21175,7 +21189,7 @@
         <v>92</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G128" s="2">
         <v>127</v>
@@ -21199,7 +21213,7 @@
         <v>312</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G129" s="2">
         <v>128</v>
@@ -21223,7 +21237,7 @@
         <v>311</v>
       </c>
       <c r="F130" s="66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G130" s="2">
         <v>129</v>
@@ -21247,7 +21261,7 @@
         <v>296</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G131" s="2">
         <v>130</v>
@@ -21271,7 +21285,7 @@
         <v>296</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G132" s="2">
         <v>131</v>
@@ -21295,7 +21309,7 @@
         <v>315</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G133" s="2">
         <v>132</v>
@@ -21343,7 +21357,7 @@
         <v>89</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G135" s="2">
         <v>134</v>
@@ -21367,7 +21381,7 @@
         <v>96</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G136" s="2">
         <v>135</v>
@@ -21391,7 +21405,7 @@
         <v>312</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G137" s="2">
         <v>136</v>
@@ -21439,7 +21453,7 @@
         <v>89</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G139" s="2">
         <v>138</v>
@@ -21463,7 +21477,7 @@
         <v>92</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G140" s="2">
         <v>139</v>
@@ -21487,7 +21501,7 @@
         <v>312</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G141" s="2">
         <v>140</v>
@@ -21511,7 +21525,7 @@
         <v>335</v>
       </c>
       <c r="F142" s="66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G142" s="2">
         <v>141</v>
@@ -21532,10 +21546,10 @@
         <v>85</v>
       </c>
       <c r="E143" s="68" t="s">
+        <v>386</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="G143" s="2">
         <v>142</v>
@@ -21559,7 +21573,7 @@
         <v>336</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G144" s="2">
         <v>143</v>
@@ -21583,7 +21597,7 @@
         <v>315</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G145" s="2">
         <v>144</v>
@@ -21631,7 +21645,7 @@
         <v>89</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G147" s="2">
         <v>146</v>
@@ -21655,7 +21669,7 @@
         <v>96</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G148" s="2">
         <v>147</v>
@@ -21679,7 +21693,7 @@
         <v>312</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G149" s="2">
         <v>148</v>
@@ -21727,7 +21741,7 @@
         <v>89</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G151" s="2">
         <v>150</v>
@@ -21751,7 +21765,7 @@
         <v>92</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G152" s="2">
         <v>151</v>
@@ -21775,7 +21789,7 @@
         <v>312</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G153" s="2">
         <v>152</v>
@@ -21799,7 +21813,7 @@
         <v>339</v>
       </c>
       <c r="F154" s="66" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G154" s="2">
         <v>153</v>
@@ -21847,7 +21861,7 @@
         <v>89</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G156" s="2">
         <v>155</v>
@@ -21871,7 +21885,7 @@
         <v>92</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G157" s="2">
         <v>156</v>
@@ -21895,7 +21909,7 @@
         <v>312</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G158" s="2">
         <v>157</v>
@@ -21919,7 +21933,7 @@
         <v>340</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G159" s="2">
         <v>158</v>
@@ -21943,7 +21957,7 @@
         <v>341</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G160" s="2">
         <v>159</v>
@@ -21967,7 +21981,7 @@
         <v>340</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G161" s="2">
         <v>160</v>
@@ -21991,7 +22005,7 @@
         <v>312</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G162" s="2">
         <v>161</v>
@@ -23265,7 +23279,7 @@
     </row>
     <row r="6" spans="1:59">
       <c r="B6" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>24</v>
@@ -24715,14 +24729,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24955,21 +24967,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
-    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24994,9 +25005,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
+    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0891B01-B3C5-4230-8118-3AB25E6D708C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E1DCBD-ED3F-457B-BD23-5AD012B2EA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -3113,7 +3113,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -16870,11 +16870,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -17161,6 +17161,7 @@
       <c r="E15" s="2">
         <v>14</v>
       </c>
+      <c r="F15" s="69"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
@@ -18105,11 +18106,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -24729,12 +24730,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24967,20 +24970,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
+    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25005,12 +25009,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
-    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E1DCBD-ED3F-457B-BD23-5AD012B2EA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F123F9C-CE9F-4B5B-B48F-14EF8FE1ACF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,7 +1569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1773,6 +1773,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2086,7 +2089,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C13"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3110,10 +3113,10 @@
   <dimension ref="A1:M337"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomRight" activeCell="D186" sqref="D186:D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3171,7 +3174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3771,7 +3774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" hidden="1" thickBot="1">
+    <row r="17" spans="1:13" ht="15" thickBot="1">
       <c r="A17" s="2">
         <v>9999</v>
       </c>
@@ -3809,7 +3812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1">
+    <row r="72" spans="1:13">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -6047,7 +6050,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1">
+    <row r="73" spans="1:13">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1">
+    <row r="75" spans="1:13">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -6167,7 +6170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1">
+    <row r="76" spans="1:13">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1">
+    <row r="77" spans="1:13">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1">
+    <row r="78" spans="1:13">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -6371,7 +6374,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1">
+    <row r="81" spans="1:13">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -6494,7 +6497,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1">
+    <row r="84" spans="1:13">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -6617,7 +6620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1">
+    <row r="87" spans="1:13">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -6656,7 +6659,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1">
+    <row r="88" spans="1:13">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -6695,7 +6698,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1">
+    <row r="89" spans="1:13">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -6818,7 +6821,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1">
+    <row r="92" spans="1:13">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -6899,7 +6902,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1">
+    <row r="94" spans="1:13">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -6938,7 +6941,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1">
+    <row r="95" spans="1:13">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -7019,7 +7022,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1">
+    <row r="97" spans="1:13">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -7058,7 +7061,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1">
+    <row r="98" spans="1:13">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -7181,7 +7184,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1">
+    <row r="101" spans="1:13">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -7304,7 +7307,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1">
+    <row r="104" spans="1:13">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -7427,7 +7430,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1">
+    <row r="107" spans="1:13" ht="15" thickBot="1">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -7466,7 +7469,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1">
+    <row r="108" spans="1:13">
       <c r="A108" s="41">
         <v>106</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15" hidden="1" thickBot="1">
+    <row r="109" spans="1:13" ht="15" thickBot="1">
       <c r="A109" s="42">
         <v>107</v>
       </c>
@@ -7546,7 +7549,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1">
+    <row r="110" spans="1:13">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1">
+    <row r="113" spans="1:13">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -7708,7 +7711,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1">
+    <row r="114" spans="1:13">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -7747,7 +7750,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1">
+    <row r="115" spans="1:13">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -7870,7 +7873,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1">
+    <row r="118" spans="1:13">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -7993,7 +7996,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1">
+    <row r="121" spans="1:13">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -8032,7 +8035,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1">
+    <row r="122" spans="1:13">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -8113,7 +8116,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1">
+    <row r="124" spans="1:13">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -8152,7 +8155,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1">
+    <row r="125" spans="1:13">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -8191,7 +8194,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1">
+    <row r="126" spans="1:13">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -8308,7 +8311,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1">
+    <row r="129" spans="1:13">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1">
+    <row r="132" spans="1:13" ht="15" thickBot="1">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -8464,7 +8467,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15" hidden="1" thickBot="1">
+    <row r="133" spans="1:13" ht="15" thickBot="1">
       <c r="A133" s="44">
         <v>131</v>
       </c>
@@ -8502,7 +8505,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1">
+    <row r="134" spans="1:13">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1">
+    <row r="137" spans="1:13">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -8664,7 +8667,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1">
+    <row r="138" spans="1:13">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1">
+    <row r="141" spans="1:13">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -8826,7 +8829,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1">
+    <row r="142" spans="1:13">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -9033,7 +9036,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1">
+    <row r="147" spans="1:13">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -9072,7 +9075,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1">
+    <row r="148" spans="1:13">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -9153,7 +9156,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1">
+    <row r="150" spans="1:13">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -9192,7 +9195,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1">
+    <row r="151" spans="1:13">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -9231,7 +9234,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1">
+    <row r="152" spans="1:13">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -9270,7 +9273,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1">
+    <row r="153" spans="1:13">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -9309,7 +9312,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1">
+    <row r="154" spans="1:13">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -9432,7 +9435,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1">
+    <row r="157" spans="1:13">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -9639,7 +9642,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1">
+    <row r="162" spans="1:13">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -9678,7 +9681,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1">
+    <row r="163" spans="1:13">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -9717,7 +9720,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1">
+    <row r="164" spans="1:13">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -9840,7 +9843,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1">
+    <row r="167" spans="1:13">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -9963,7 +9966,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1">
+    <row r="170" spans="1:13">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -10086,7 +10089,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1">
+    <row r="173" spans="1:13">
       <c r="A173" s="2">
         <v>171</v>
       </c>
@@ -10209,7 +10212,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1">
+    <row r="176" spans="1:13">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -10332,7 +10335,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1">
+    <row r="179" spans="1:13">
       <c r="A179" s="2">
         <v>177</v>
       </c>
@@ -10455,7 +10458,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1">
+    <row r="182" spans="1:13">
       <c r="A182" s="2">
         <v>180</v>
       </c>
@@ -10494,7 +10497,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1">
+    <row r="183" spans="1:13">
       <c r="A183" s="2">
         <v>181</v>
       </c>
@@ -10617,7 +10620,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1">
+    <row r="186" spans="1:13">
       <c r="A186" s="2">
         <v>184</v>
       </c>
@@ -10656,7 +10659,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1">
+    <row r="187" spans="1:13">
       <c r="A187" s="2">
         <v>185</v>
       </c>
@@ -10737,7 +10740,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1">
+    <row r="189" spans="1:13">
       <c r="A189" s="2">
         <v>187</v>
       </c>
@@ -10776,7 +10779,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1">
+    <row r="190" spans="1:13">
       <c r="A190" s="2">
         <v>188</v>
       </c>
@@ -10857,7 +10860,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1">
+    <row r="192" spans="1:13">
       <c r="A192" s="2">
         <v>190</v>
       </c>
@@ -10896,7 +10899,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1">
+    <row r="193" spans="1:13">
       <c r="A193" s="2">
         <v>191</v>
       </c>
@@ -10938,7 +10941,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1">
+    <row r="194" spans="1:13">
       <c r="A194" s="2">
         <v>192</v>
       </c>
@@ -11061,7 +11064,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1">
+    <row r="197" spans="1:13">
       <c r="A197" s="2">
         <v>195</v>
       </c>
@@ -11184,7 +11187,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1">
+    <row r="200" spans="1:13">
       <c r="A200" s="2">
         <v>198</v>
       </c>
@@ -11307,7 +11310,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1">
+    <row r="203" spans="1:13">
       <c r="A203" s="2">
         <v>201</v>
       </c>
@@ -11346,7 +11349,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1">
+    <row r="204" spans="1:13">
       <c r="A204" s="2">
         <v>202</v>
       </c>
@@ -11385,7 +11388,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1">
+    <row r="205" spans="1:13">
       <c r="A205" s="2">
         <v>203</v>
       </c>
@@ -11508,7 +11511,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1">
+    <row r="208" spans="1:13">
       <c r="A208" s="2">
         <v>206</v>
       </c>
@@ -11715,7 +11718,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1">
+    <row r="213" spans="1:13">
       <c r="A213" s="2">
         <v>211</v>
       </c>
@@ -11796,7 +11799,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1">
+    <row r="215" spans="1:13">
       <c r="A215" s="2">
         <v>213</v>
       </c>
@@ -11877,7 +11880,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1">
+    <row r="217" spans="1:13">
       <c r="A217" s="2">
         <v>215</v>
       </c>
@@ -11916,7 +11919,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1">
+    <row r="218" spans="1:13">
       <c r="A218" s="2">
         <v>216</v>
       </c>
@@ -11997,7 +12000,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1">
+    <row r="220" spans="1:13">
       <c r="A220" s="2">
         <v>218</v>
       </c>
@@ -12120,7 +12123,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1">
+    <row r="223" spans="1:13">
       <c r="A223" s="2">
         <v>221</v>
       </c>
@@ -12327,7 +12330,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1">
+    <row r="228" spans="1:13">
       <c r="A228" s="2">
         <v>226</v>
       </c>
@@ -12366,7 +12369,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1">
+    <row r="229" spans="1:13">
       <c r="A229" s="2">
         <v>227</v>
       </c>
@@ -12405,7 +12408,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1">
+    <row r="230" spans="1:13">
       <c r="A230" s="2">
         <v>228</v>
       </c>
@@ -12528,7 +12531,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1">
+    <row r="233" spans="1:13">
       <c r="A233" s="2">
         <v>231</v>
       </c>
@@ -12651,7 +12654,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1">
+    <row r="236" spans="1:13">
       <c r="A236" s="2">
         <v>234</v>
       </c>
@@ -12774,7 +12777,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1">
+    <row r="239" spans="1:13">
       <c r="A239" s="2">
         <v>237</v>
       </c>
@@ -12897,7 +12900,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1">
+    <row r="242" spans="1:13">
       <c r="A242" s="2">
         <v>240</v>
       </c>
@@ -13020,7 +13023,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1">
+    <row r="245" spans="1:13">
       <c r="A245" s="2">
         <v>243</v>
       </c>
@@ -13143,7 +13146,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1">
+    <row r="248" spans="1:13">
       <c r="A248" s="2">
         <v>246</v>
       </c>
@@ -13182,7 +13185,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1">
+    <row r="249" spans="1:13">
       <c r="A249" s="2">
         <v>247</v>
       </c>
@@ -13305,7 +13308,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1">
+    <row r="252" spans="1:13">
       <c r="A252" s="2">
         <v>250</v>
       </c>
@@ -13344,7 +13347,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1">
+    <row r="253" spans="1:13">
       <c r="A253" s="2">
         <v>251</v>
       </c>
@@ -13383,7 +13386,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1">
+    <row r="254" spans="1:13">
       <c r="A254" s="2">
         <v>252</v>
       </c>
@@ -13464,7 +13467,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1">
+    <row r="256" spans="1:13">
       <c r="A256" s="2">
         <v>254</v>
       </c>
@@ -13503,7 +13506,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1">
+    <row r="257" spans="1:13">
       <c r="A257" s="2">
         <v>255</v>
       </c>
@@ -13584,7 +13587,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1">
+    <row r="259" spans="1:13">
       <c r="A259" s="2">
         <v>257</v>
       </c>
@@ -13623,7 +13626,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:13" hidden="1">
+    <row r="260" spans="1:13">
       <c r="A260" s="2">
         <v>258</v>
       </c>
@@ -13665,7 +13668,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:13" hidden="1">
+    <row r="261" spans="1:13">
       <c r="A261" s="2">
         <v>259</v>
       </c>
@@ -13788,7 +13791,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1">
+    <row r="264" spans="1:13">
       <c r="A264" s="2">
         <v>262</v>
       </c>
@@ -13911,7 +13914,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:13" hidden="1">
+    <row r="267" spans="1:13">
       <c r="A267" s="2">
         <v>265</v>
       </c>
@@ -14034,7 +14037,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:13" hidden="1">
+    <row r="270" spans="1:13">
       <c r="A270" s="2">
         <v>268</v>
       </c>
@@ -14073,7 +14076,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:13" hidden="1">
+    <row r="271" spans="1:13">
       <c r="A271" s="2">
         <v>269</v>
       </c>
@@ -14190,7 +14193,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:13" hidden="1">
+    <row r="274" spans="1:13">
       <c r="A274" s="2">
         <v>272</v>
       </c>
@@ -14313,7 +14316,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:13" hidden="1">
+    <row r="277" spans="1:13">
       <c r="A277" s="2">
         <v>275</v>
       </c>
@@ -14352,7 +14355,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:13" hidden="1">
+    <row r="278" spans="1:13">
       <c r="A278" s="2">
         <v>276</v>
       </c>
@@ -14559,7 +14562,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1">
+    <row r="283" spans="1:13">
       <c r="A283" s="2">
         <v>281</v>
       </c>
@@ -14640,7 +14643,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1">
+    <row r="285" spans="1:13">
       <c r="A285" s="2">
         <v>283</v>
       </c>
@@ -14679,7 +14682,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1">
+    <row r="286" spans="1:13">
       <c r="A286" s="2">
         <v>284</v>
       </c>
@@ -14760,7 +14763,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1">
+    <row r="288" spans="1:13">
       <c r="A288" s="2">
         <v>286</v>
       </c>
@@ -14883,7 +14886,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1">
+    <row r="291" spans="1:13">
       <c r="A291" s="2">
         <v>289</v>
       </c>
@@ -15090,7 +15093,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1">
+    <row r="296" spans="1:13">
       <c r="A296" s="2">
         <v>294</v>
       </c>
@@ -15129,7 +15132,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:13" hidden="1">
+    <row r="297" spans="1:13">
       <c r="A297" s="2">
         <v>295</v>
       </c>
@@ -15168,7 +15171,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1">
+    <row r="298" spans="1:13">
       <c r="A298" s="2">
         <v>296</v>
       </c>
@@ -15291,7 +15294,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:13" hidden="1">
+    <row r="301" spans="1:13">
       <c r="A301" s="2">
         <v>299</v>
       </c>
@@ -15414,7 +15417,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:13" hidden="1">
+    <row r="304" spans="1:13">
       <c r="A304" s="2">
         <v>302</v>
       </c>
@@ -15537,7 +15540,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:13" hidden="1">
+    <row r="307" spans="1:13">
       <c r="A307" s="2">
         <v>305</v>
       </c>
@@ -15660,7 +15663,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:13" hidden="1">
+    <row r="310" spans="1:13">
       <c r="A310" s="2">
         <v>308</v>
       </c>
@@ -15783,7 +15786,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:13" hidden="1">
+    <row r="313" spans="1:13">
       <c r="A313" s="2">
         <v>311</v>
       </c>
@@ -15906,7 +15909,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:13" hidden="1">
+    <row r="316" spans="1:13">
       <c r="A316" s="2">
         <v>314</v>
       </c>
@@ -15945,7 +15948,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:13" hidden="1">
+    <row r="317" spans="1:13">
       <c r="A317" s="2">
         <v>315</v>
       </c>
@@ -15984,7 +15987,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:13" hidden="1">
+    <row r="318" spans="1:13">
       <c r="A318" s="2">
         <v>316</v>
       </c>
@@ -16065,7 +16068,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:13" hidden="1">
+    <row r="320" spans="1:13">
       <c r="A320" s="2">
         <v>318</v>
       </c>
@@ -16104,7 +16107,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:13" hidden="1">
+    <row r="321" spans="1:13">
       <c r="A321" s="2">
         <v>319</v>
       </c>
@@ -16143,7 +16146,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:13" hidden="1">
+    <row r="322" spans="1:13">
       <c r="A322" s="2">
         <v>320</v>
       </c>
@@ -16182,7 +16185,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:13" hidden="1">
+    <row r="323" spans="1:13">
       <c r="A323" s="2">
         <v>321</v>
       </c>
@@ -16305,7 +16308,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:13" hidden="1">
+    <row r="326" spans="1:13">
       <c r="A326" s="2">
         <v>324</v>
       </c>
@@ -16428,7 +16431,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:13" hidden="1">
+    <row r="329" spans="1:13">
       <c r="A329" s="2">
         <v>327</v>
       </c>
@@ -16551,7 +16554,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:13" hidden="1">
+    <row r="332" spans="1:13">
       <c r="A332" s="2">
         <v>330</v>
       </c>
@@ -16674,7 +16677,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:13" hidden="1">
+    <row r="335" spans="1:13">
       <c r="A335" s="2">
         <v>333</v>
       </c>
@@ -16713,7 +16716,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:13" hidden="1">
+    <row r="336" spans="1:13">
       <c r="A336" s="2">
         <v>334</v>
       </c>
@@ -16796,11 +16799,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M337" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Early Engagement"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="6">
       <filters>
         <filter val="Decision"/>
@@ -16871,10 +16869,10 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="D37:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -16923,6 +16921,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
@@ -16941,6 +16940,7 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
@@ -16959,6 +16959,7 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
@@ -16977,6 +16978,7 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
@@ -17014,6 +17016,7 @@
       <c r="E7" s="2">
         <v>6</v>
       </c>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
@@ -17032,6 +17035,7 @@
       <c r="E8" s="2">
         <v>7</v>
       </c>
+      <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
@@ -17107,6 +17111,7 @@
       <c r="E12" s="2">
         <v>11</v>
       </c>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
@@ -17125,6 +17130,7 @@
       <c r="E13" s="2">
         <v>12</v>
       </c>
+      <c r="F13" s="69"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
@@ -17143,6 +17149,7 @@
       <c r="E14" s="2">
         <v>13</v>
       </c>
+      <c r="F14" s="69"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
@@ -17180,6 +17187,7 @@
       <c r="E16" s="2">
         <v>15</v>
       </c>
+      <c r="F16" s="69"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
@@ -17198,6 +17206,7 @@
       <c r="E17" s="2">
         <v>16</v>
       </c>
+      <c r="F17" s="69"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
@@ -17216,6 +17225,7 @@
       <c r="E18" s="2">
         <v>17</v>
       </c>
+      <c r="F18" s="71"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
@@ -17234,6 +17244,7 @@
       <c r="E19" s="2">
         <v>18</v>
       </c>
+      <c r="F19" s="69"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
@@ -17252,6 +17263,7 @@
       <c r="E20" s="2">
         <v>19</v>
       </c>
+      <c r="F20" s="69"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
@@ -17270,6 +17282,7 @@
       <c r="E21" s="2">
         <v>20</v>
       </c>
+      <c r="F21" s="71"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
@@ -17307,6 +17320,7 @@
       <c r="E23" s="2">
         <v>22</v>
       </c>
+      <c r="F23" s="69"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
@@ -17363,6 +17377,7 @@
       <c r="E26" s="2">
         <v>25</v>
       </c>
+      <c r="F26" s="69"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
@@ -17381,6 +17396,7 @@
       <c r="E27" s="2">
         <v>26</v>
       </c>
+      <c r="F27" s="69"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
@@ -17399,6 +17415,7 @@
       <c r="E28" s="2">
         <v>27</v>
       </c>
+      <c r="F28" s="69"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
@@ -17417,6 +17434,7 @@
       <c r="E29" s="2">
         <v>28</v>
       </c>
+      <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
@@ -17435,6 +17453,7 @@
       <c r="E30" s="2">
         <v>29</v>
       </c>
+      <c r="F30" s="69"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
@@ -17453,6 +17472,7 @@
       <c r="E31" s="2">
         <v>30</v>
       </c>
+      <c r="F31" s="69"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
@@ -17471,8 +17491,9 @@
       <c r="E32" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="69"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -17489,8 +17510,9 @@
       <c r="E33" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="69"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -17507,8 +17529,9 @@
       <c r="E34" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="69"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -17525,8 +17548,9 @@
       <c r="E35" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="69"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -17543,8 +17567,9 @@
       <c r="E36" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="69"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -17562,7 +17587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -17580,7 +17605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -17597,8 +17622,9 @@
       <c r="E39" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="69"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -17615,8 +17641,9 @@
       <c r="E40" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="71"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -17633,8 +17660,9 @@
       <c r="E41" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="69"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -17651,8 +17679,9 @@
       <c r="E42" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="69"/>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -17669,8 +17698,9 @@
       <c r="E43" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="69"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -17687,8 +17717,9 @@
       <c r="E44" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="69"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -17705,8 +17736,9 @@
       <c r="E45" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="69"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -17723,8 +17755,9 @@
       <c r="E46" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="71"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -17741,8 +17774,9 @@
       <c r="E47" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="69"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -17759,8 +17793,9 @@
       <c r="E48" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="69"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -17777,8 +17812,9 @@
       <c r="E49" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="71"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -17795,8 +17831,9 @@
       <c r="E50" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="69"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -17813,8 +17850,9 @@
       <c r="E51" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="69"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -17831,8 +17869,9 @@
       <c r="E52" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="69"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -17849,8 +17888,9 @@
       <c r="E53" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="69"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -17867,8 +17907,9 @@
       <c r="E54" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="69"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -17885,8 +17926,9 @@
       <c r="E55" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="71"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -17903,8 +17945,9 @@
       <c r="E56" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="69"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -17921,8 +17964,9 @@
       <c r="E57" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="69"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -17939,8 +17983,9 @@
       <c r="E58" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="69"/>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -17957,8 +18002,9 @@
       <c r="E59" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="69"/>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -17975,8 +18021,9 @@
       <c r="E60" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="71"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -17993,8 +18040,9 @@
       <c r="E61" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="69"/>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -18011,8 +18059,9 @@
       <c r="E62" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="69"/>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -18029,8 +18078,9 @@
       <c r="E63" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="69"/>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -18047,8 +18097,9 @@
       <c r="E64" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="69"/>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -18065,8 +18116,9 @@
       <c r="E65" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="69"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -18083,6 +18135,7 @@
       <c r="E66" s="2">
         <v>65</v>
       </c>
+      <c r="F66" s="69"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E15" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
@@ -18107,10 +18160,10 @@
   <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
+      <selection pane="bottomRight" activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -24730,14 +24783,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24970,21 +25021,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
-    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25009,9 +25059,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
+    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E1DCBD-ED3F-457B-BD23-5AD012B2EA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB68491-F4FF-47AD-9CB0-23697C731E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,7 +1569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1773,6 +1773,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2086,7 +2089,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C13"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3110,10 +3113,10 @@
   <dimension ref="A1:M337"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomRight" activeCell="D186" sqref="D186:D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3171,7 +3174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3771,7 +3774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" hidden="1" thickBot="1">
+    <row r="17" spans="1:13" ht="15" thickBot="1">
       <c r="A17" s="2">
         <v>9999</v>
       </c>
@@ -3809,7 +3812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1">
+    <row r="72" spans="1:13">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -6047,7 +6050,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1">
+    <row r="73" spans="1:13">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1">
+    <row r="75" spans="1:13">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -6167,7 +6170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1">
+    <row r="76" spans="1:13">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1">
+    <row r="77" spans="1:13">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1">
+    <row r="78" spans="1:13">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -6371,7 +6374,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1">
+    <row r="81" spans="1:13">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -6494,7 +6497,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1">
+    <row r="84" spans="1:13">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -6617,7 +6620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1">
+    <row r="87" spans="1:13">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -6656,7 +6659,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1">
+    <row r="88" spans="1:13">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -6695,7 +6698,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1">
+    <row r="89" spans="1:13">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -6818,7 +6821,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1">
+    <row r="92" spans="1:13">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -6899,7 +6902,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1">
+    <row r="94" spans="1:13">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -6938,7 +6941,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1">
+    <row r="95" spans="1:13">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -7019,7 +7022,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1">
+    <row r="97" spans="1:13">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -7058,7 +7061,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1">
+    <row r="98" spans="1:13">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -7181,7 +7184,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1">
+    <row r="101" spans="1:13">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -7304,7 +7307,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1">
+    <row r="104" spans="1:13">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -7427,7 +7430,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1">
+    <row r="107" spans="1:13" ht="15" thickBot="1">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -7466,7 +7469,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1">
+    <row r="108" spans="1:13">
       <c r="A108" s="41">
         <v>106</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15" hidden="1" thickBot="1">
+    <row r="109" spans="1:13" ht="15" thickBot="1">
       <c r="A109" s="42">
         <v>107</v>
       </c>
@@ -7546,7 +7549,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1">
+    <row r="110" spans="1:13">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1">
+    <row r="113" spans="1:13">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -7708,7 +7711,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1">
+    <row r="114" spans="1:13">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -7747,7 +7750,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1">
+    <row r="115" spans="1:13">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -7870,7 +7873,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1">
+    <row r="118" spans="1:13">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -7993,7 +7996,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1">
+    <row r="121" spans="1:13">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -8032,7 +8035,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1">
+    <row r="122" spans="1:13">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -8113,7 +8116,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1">
+    <row r="124" spans="1:13">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -8152,7 +8155,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1">
+    <row r="125" spans="1:13">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -8191,7 +8194,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1">
+    <row r="126" spans="1:13">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -8308,7 +8311,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1">
+    <row r="129" spans="1:13">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1">
+    <row r="132" spans="1:13" ht="15" thickBot="1">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -8464,7 +8467,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15" hidden="1" thickBot="1">
+    <row r="133" spans="1:13" ht="15" thickBot="1">
       <c r="A133" s="44">
         <v>131</v>
       </c>
@@ -8502,7 +8505,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1">
+    <row r="134" spans="1:13">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1">
+    <row r="137" spans="1:13">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -8664,7 +8667,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1">
+    <row r="138" spans="1:13">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1">
+    <row r="141" spans="1:13">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -8826,7 +8829,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1">
+    <row r="142" spans="1:13">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -9033,7 +9036,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1">
+    <row r="147" spans="1:13">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -9072,7 +9075,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1">
+    <row r="148" spans="1:13">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -9153,7 +9156,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1">
+    <row r="150" spans="1:13">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -9192,7 +9195,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1">
+    <row r="151" spans="1:13">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -9231,7 +9234,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1">
+    <row r="152" spans="1:13">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -9270,7 +9273,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1">
+    <row r="153" spans="1:13">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -9309,7 +9312,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1">
+    <row r="154" spans="1:13">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -9432,7 +9435,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1">
+    <row r="157" spans="1:13">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -9639,7 +9642,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1">
+    <row r="162" spans="1:13">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -9678,7 +9681,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1">
+    <row r="163" spans="1:13">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -9717,7 +9720,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1">
+    <row r="164" spans="1:13">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -9840,7 +9843,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1">
+    <row r="167" spans="1:13">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -9963,7 +9966,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1">
+    <row r="170" spans="1:13">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -10086,7 +10089,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1">
+    <row r="173" spans="1:13">
       <c r="A173" s="2">
         <v>171</v>
       </c>
@@ -10209,7 +10212,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1">
+    <row r="176" spans="1:13">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -10332,7 +10335,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1">
+    <row r="179" spans="1:13">
       <c r="A179" s="2">
         <v>177</v>
       </c>
@@ -10455,7 +10458,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1">
+    <row r="182" spans="1:13">
       <c r="A182" s="2">
         <v>180</v>
       </c>
@@ -10494,7 +10497,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1">
+    <row r="183" spans="1:13">
       <c r="A183" s="2">
         <v>181</v>
       </c>
@@ -10617,7 +10620,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1">
+    <row r="186" spans="1:13">
       <c r="A186" s="2">
         <v>184</v>
       </c>
@@ -10656,7 +10659,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1">
+    <row r="187" spans="1:13">
       <c r="A187" s="2">
         <v>185</v>
       </c>
@@ -10737,7 +10740,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1">
+    <row r="189" spans="1:13">
       <c r="A189" s="2">
         <v>187</v>
       </c>
@@ -10776,7 +10779,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1">
+    <row r="190" spans="1:13">
       <c r="A190" s="2">
         <v>188</v>
       </c>
@@ -10857,7 +10860,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1">
+    <row r="192" spans="1:13">
       <c r="A192" s="2">
         <v>190</v>
       </c>
@@ -10896,7 +10899,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1">
+    <row r="193" spans="1:13">
       <c r="A193" s="2">
         <v>191</v>
       </c>
@@ -10938,7 +10941,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1">
+    <row r="194" spans="1:13">
       <c r="A194" s="2">
         <v>192</v>
       </c>
@@ -11061,7 +11064,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1">
+    <row r="197" spans="1:13">
       <c r="A197" s="2">
         <v>195</v>
       </c>
@@ -11184,7 +11187,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1">
+    <row r="200" spans="1:13">
       <c r="A200" s="2">
         <v>198</v>
       </c>
@@ -11307,7 +11310,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1">
+    <row r="203" spans="1:13">
       <c r="A203" s="2">
         <v>201</v>
       </c>
@@ -11346,7 +11349,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1">
+    <row r="204" spans="1:13">
       <c r="A204" s="2">
         <v>202</v>
       </c>
@@ -11385,7 +11388,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1">
+    <row r="205" spans="1:13">
       <c r="A205" s="2">
         <v>203</v>
       </c>
@@ -11508,7 +11511,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1">
+    <row r="208" spans="1:13">
       <c r="A208" s="2">
         <v>206</v>
       </c>
@@ -11715,7 +11718,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1">
+    <row r="213" spans="1:13">
       <c r="A213" s="2">
         <v>211</v>
       </c>
@@ -11796,7 +11799,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1">
+    <row r="215" spans="1:13">
       <c r="A215" s="2">
         <v>213</v>
       </c>
@@ -11877,7 +11880,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1">
+    <row r="217" spans="1:13">
       <c r="A217" s="2">
         <v>215</v>
       </c>
@@ -11916,7 +11919,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1">
+    <row r="218" spans="1:13">
       <c r="A218" s="2">
         <v>216</v>
       </c>
@@ -11997,7 +12000,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1">
+    <row r="220" spans="1:13">
       <c r="A220" s="2">
         <v>218</v>
       </c>
@@ -12120,7 +12123,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1">
+    <row r="223" spans="1:13">
       <c r="A223" s="2">
         <v>221</v>
       </c>
@@ -12327,7 +12330,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1">
+    <row r="228" spans="1:13">
       <c r="A228" s="2">
         <v>226</v>
       </c>
@@ -12366,7 +12369,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1">
+    <row r="229" spans="1:13">
       <c r="A229" s="2">
         <v>227</v>
       </c>
@@ -12405,7 +12408,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1">
+    <row r="230" spans="1:13">
       <c r="A230" s="2">
         <v>228</v>
       </c>
@@ -12528,7 +12531,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1">
+    <row r="233" spans="1:13">
       <c r="A233" s="2">
         <v>231</v>
       </c>
@@ -12651,7 +12654,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1">
+    <row r="236" spans="1:13">
       <c r="A236" s="2">
         <v>234</v>
       </c>
@@ -12774,7 +12777,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1">
+    <row r="239" spans="1:13">
       <c r="A239" s="2">
         <v>237</v>
       </c>
@@ -12897,7 +12900,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1">
+    <row r="242" spans="1:13">
       <c r="A242" s="2">
         <v>240</v>
       </c>
@@ -13020,7 +13023,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1">
+    <row r="245" spans="1:13">
       <c r="A245" s="2">
         <v>243</v>
       </c>
@@ -13143,7 +13146,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1">
+    <row r="248" spans="1:13">
       <c r="A248" s="2">
         <v>246</v>
       </c>
@@ -13182,7 +13185,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1">
+    <row r="249" spans="1:13">
       <c r="A249" s="2">
         <v>247</v>
       </c>
@@ -13305,7 +13308,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1">
+    <row r="252" spans="1:13">
       <c r="A252" s="2">
         <v>250</v>
       </c>
@@ -13344,7 +13347,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1">
+    <row r="253" spans="1:13">
       <c r="A253" s="2">
         <v>251</v>
       </c>
@@ -13383,7 +13386,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1">
+    <row r="254" spans="1:13">
       <c r="A254" s="2">
         <v>252</v>
       </c>
@@ -13464,7 +13467,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1">
+    <row r="256" spans="1:13">
       <c r="A256" s="2">
         <v>254</v>
       </c>
@@ -13503,7 +13506,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1">
+    <row r="257" spans="1:13">
       <c r="A257" s="2">
         <v>255</v>
       </c>
@@ -13584,7 +13587,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1">
+    <row r="259" spans="1:13">
       <c r="A259" s="2">
         <v>257</v>
       </c>
@@ -13623,7 +13626,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:13" hidden="1">
+    <row r="260" spans="1:13">
       <c r="A260" s="2">
         <v>258</v>
       </c>
@@ -13665,7 +13668,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:13" hidden="1">
+    <row r="261" spans="1:13">
       <c r="A261" s="2">
         <v>259</v>
       </c>
@@ -13788,7 +13791,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1">
+    <row r="264" spans="1:13">
       <c r="A264" s="2">
         <v>262</v>
       </c>
@@ -13911,7 +13914,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:13" hidden="1">
+    <row r="267" spans="1:13">
       <c r="A267" s="2">
         <v>265</v>
       </c>
@@ -14034,7 +14037,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:13" hidden="1">
+    <row r="270" spans="1:13">
       <c r="A270" s="2">
         <v>268</v>
       </c>
@@ -14073,7 +14076,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:13" hidden="1">
+    <row r="271" spans="1:13">
       <c r="A271" s="2">
         <v>269</v>
       </c>
@@ -14190,7 +14193,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:13" hidden="1">
+    <row r="274" spans="1:13">
       <c r="A274" s="2">
         <v>272</v>
       </c>
@@ -14313,7 +14316,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:13" hidden="1">
+    <row r="277" spans="1:13">
       <c r="A277" s="2">
         <v>275</v>
       </c>
@@ -14352,7 +14355,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:13" hidden="1">
+    <row r="278" spans="1:13">
       <c r="A278" s="2">
         <v>276</v>
       </c>
@@ -14559,7 +14562,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1">
+    <row r="283" spans="1:13">
       <c r="A283" s="2">
         <v>281</v>
       </c>
@@ -14640,7 +14643,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1">
+    <row r="285" spans="1:13">
       <c r="A285" s="2">
         <v>283</v>
       </c>
@@ -14679,7 +14682,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1">
+    <row r="286" spans="1:13">
       <c r="A286" s="2">
         <v>284</v>
       </c>
@@ -14760,7 +14763,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1">
+    <row r="288" spans="1:13">
       <c r="A288" s="2">
         <v>286</v>
       </c>
@@ -14883,7 +14886,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1">
+    <row r="291" spans="1:13">
       <c r="A291" s="2">
         <v>289</v>
       </c>
@@ -15090,7 +15093,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1">
+    <row r="296" spans="1:13">
       <c r="A296" s="2">
         <v>294</v>
       </c>
@@ -15129,7 +15132,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:13" hidden="1">
+    <row r="297" spans="1:13">
       <c r="A297" s="2">
         <v>295</v>
       </c>
@@ -15168,7 +15171,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1">
+    <row r="298" spans="1:13">
       <c r="A298" s="2">
         <v>296</v>
       </c>
@@ -15291,7 +15294,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:13" hidden="1">
+    <row r="301" spans="1:13">
       <c r="A301" s="2">
         <v>299</v>
       </c>
@@ -15414,7 +15417,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:13" hidden="1">
+    <row r="304" spans="1:13">
       <c r="A304" s="2">
         <v>302</v>
       </c>
@@ -15537,7 +15540,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:13" hidden="1">
+    <row r="307" spans="1:13">
       <c r="A307" s="2">
         <v>305</v>
       </c>
@@ -15660,7 +15663,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:13" hidden="1">
+    <row r="310" spans="1:13">
       <c r="A310" s="2">
         <v>308</v>
       </c>
@@ -15783,7 +15786,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:13" hidden="1">
+    <row r="313" spans="1:13">
       <c r="A313" s="2">
         <v>311</v>
       </c>
@@ -15906,7 +15909,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:13" hidden="1">
+    <row r="316" spans="1:13">
       <c r="A316" s="2">
         <v>314</v>
       </c>
@@ -15945,7 +15948,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:13" hidden="1">
+    <row r="317" spans="1:13">
       <c r="A317" s="2">
         <v>315</v>
       </c>
@@ -15984,7 +15987,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:13" hidden="1">
+    <row r="318" spans="1:13">
       <c r="A318" s="2">
         <v>316</v>
       </c>
@@ -16065,7 +16068,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:13" hidden="1">
+    <row r="320" spans="1:13">
       <c r="A320" s="2">
         <v>318</v>
       </c>
@@ -16104,7 +16107,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:13" hidden="1">
+    <row r="321" spans="1:13">
       <c r="A321" s="2">
         <v>319</v>
       </c>
@@ -16143,7 +16146,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:13" hidden="1">
+    <row r="322" spans="1:13">
       <c r="A322" s="2">
         <v>320</v>
       </c>
@@ -16182,7 +16185,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:13" hidden="1">
+    <row r="323" spans="1:13">
       <c r="A323" s="2">
         <v>321</v>
       </c>
@@ -16305,7 +16308,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:13" hidden="1">
+    <row r="326" spans="1:13">
       <c r="A326" s="2">
         <v>324</v>
       </c>
@@ -16428,7 +16431,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:13" hidden="1">
+    <row r="329" spans="1:13">
       <c r="A329" s="2">
         <v>327</v>
       </c>
@@ -16551,7 +16554,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:13" hidden="1">
+    <row r="332" spans="1:13">
       <c r="A332" s="2">
         <v>330</v>
       </c>
@@ -16674,7 +16677,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:13" hidden="1">
+    <row r="335" spans="1:13">
       <c r="A335" s="2">
         <v>333</v>
       </c>
@@ -16713,7 +16716,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:13" hidden="1">
+    <row r="336" spans="1:13">
       <c r="A336" s="2">
         <v>334</v>
       </c>
@@ -16796,11 +16799,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M337" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Early Engagement"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="6">
       <filters>
         <filter val="Decision"/>
@@ -16871,10 +16869,10 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -16923,6 +16921,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
@@ -16941,6 +16940,7 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
@@ -16959,6 +16959,7 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
@@ -16977,6 +16978,7 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
@@ -17014,6 +17016,7 @@
       <c r="E7" s="2">
         <v>6</v>
       </c>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
@@ -17032,6 +17035,7 @@
       <c r="E8" s="2">
         <v>7</v>
       </c>
+      <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
@@ -17107,6 +17111,7 @@
       <c r="E12" s="2">
         <v>11</v>
       </c>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
@@ -17125,6 +17130,7 @@
       <c r="E13" s="2">
         <v>12</v>
       </c>
+      <c r="F13" s="69"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
@@ -17143,6 +17149,7 @@
       <c r="E14" s="2">
         <v>13</v>
       </c>
+      <c r="F14" s="69"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
@@ -17180,6 +17187,7 @@
       <c r="E16" s="2">
         <v>15</v>
       </c>
+      <c r="F16" s="69"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
@@ -17198,6 +17206,7 @@
       <c r="E17" s="2">
         <v>16</v>
       </c>
+      <c r="F17" s="69"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
@@ -17216,6 +17225,7 @@
       <c r="E18" s="2">
         <v>17</v>
       </c>
+      <c r="F18" s="71"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
@@ -17234,6 +17244,7 @@
       <c r="E19" s="2">
         <v>18</v>
       </c>
+      <c r="F19" s="69"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
@@ -17252,6 +17263,7 @@
       <c r="E20" s="2">
         <v>19</v>
       </c>
+      <c r="F20" s="69"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
@@ -17270,6 +17282,7 @@
       <c r="E21" s="2">
         <v>20</v>
       </c>
+      <c r="F21" s="71"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
@@ -17307,6 +17320,7 @@
       <c r="E23" s="2">
         <v>22</v>
       </c>
+      <c r="F23" s="69"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
@@ -17363,6 +17377,7 @@
       <c r="E26" s="2">
         <v>25</v>
       </c>
+      <c r="F26" s="69"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
@@ -17381,6 +17396,7 @@
       <c r="E27" s="2">
         <v>26</v>
       </c>
+      <c r="F27" s="69"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
@@ -17399,6 +17415,7 @@
       <c r="E28" s="2">
         <v>27</v>
       </c>
+      <c r="F28" s="69"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
@@ -17417,6 +17434,7 @@
       <c r="E29" s="2">
         <v>28</v>
       </c>
+      <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
@@ -17435,6 +17453,7 @@
       <c r="E30" s="2">
         <v>29</v>
       </c>
+      <c r="F30" s="69"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
@@ -17453,6 +17472,7 @@
       <c r="E31" s="2">
         <v>30</v>
       </c>
+      <c r="F31" s="69"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
@@ -17471,8 +17491,9 @@
       <c r="E32" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="69"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -17489,8 +17510,9 @@
       <c r="E33" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="69"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -17507,8 +17529,9 @@
       <c r="E34" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="69"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -17525,8 +17548,9 @@
       <c r="E35" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="69"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -17543,8 +17567,9 @@
       <c r="E36" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="69"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -17562,7 +17587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -17580,7 +17605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -17597,8 +17622,9 @@
       <c r="E39" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="69"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -17615,8 +17641,9 @@
       <c r="E40" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="71"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -17633,8 +17660,9 @@
       <c r="E41" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="69"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -17651,8 +17679,9 @@
       <c r="E42" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="69"/>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -17669,8 +17698,9 @@
       <c r="E43" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="69"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -17687,8 +17717,9 @@
       <c r="E44" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="69"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -17705,8 +17736,9 @@
       <c r="E45" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="69"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -17723,8 +17755,9 @@
       <c r="E46" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="71"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -17741,8 +17774,9 @@
       <c r="E47" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="69"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -17759,8 +17793,9 @@
       <c r="E48" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="69"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -17777,8 +17812,9 @@
       <c r="E49" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="71"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -17795,8 +17831,9 @@
       <c r="E50" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="69"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -17813,8 +17850,9 @@
       <c r="E51" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="69"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -17831,8 +17869,9 @@
       <c r="E52" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="69"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -17849,8 +17888,9 @@
       <c r="E53" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="69"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -17867,8 +17907,9 @@
       <c r="E54" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="69"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -17885,8 +17926,9 @@
       <c r="E55" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="71"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -17903,8 +17945,9 @@
       <c r="E56" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="69"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -17921,8 +17964,9 @@
       <c r="E57" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="69"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -17939,8 +17983,9 @@
       <c r="E58" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="69"/>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -17957,8 +18002,9 @@
       <c r="E59" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="69"/>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -17975,8 +18021,9 @@
       <c r="E60" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="71"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -17993,8 +18040,9 @@
       <c r="E61" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="69"/>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -18011,8 +18059,9 @@
       <c r="E62" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="69"/>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -18029,8 +18078,9 @@
       <c r="E63" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="69"/>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -18047,8 +18097,9 @@
       <c r="E64" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="69"/>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -18065,8 +18116,9 @@
       <c r="E65" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="69"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -18083,6 +18135,7 @@
       <c r="E66" s="2">
         <v>65</v>
       </c>
+      <c r="F66" s="69"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E15" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
@@ -18107,10 +18160,10 @@
   <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
+      <selection pane="bottomRight" activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>

--- a/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB68491-F4FF-47AD-9CB0-23697C731E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C0D24-AFBE-498A-A83E-F2AA80F017AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -3112,11 +3112,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M337"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B151" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D186" sqref="D186:D204"/>
+      <selection pane="bottomRight" activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M97" s="2">
         <v>95</v>
@@ -16868,8 +16868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
@@ -24783,14 +24783,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25023,21 +25021,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
-    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25062,9 +25059,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
+    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/002_EAC_Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C0D24-AFBE-498A-A83E-F2AA80F017AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9AD25D-A25D-4207-95F2-85F617FB95E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -3112,7 +3112,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M337"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -18159,11 +18159,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A99" sqref="A99:XFD99"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31:D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -18909,7 +18909,7 @@
         <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>315</v>
@@ -19197,7 +19197,7 @@
         <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>315</v>
@@ -19413,7 +19413,7 @@
         <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>315</v>
@@ -20565,7 +20565,7 @@
         <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>315</v>
@@ -20853,7 +20853,7 @@
         <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>315</v>
@@ -21069,7 +21069,7 @@
         <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>315</v>
@@ -21357,7 +21357,7 @@
         <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>315</v>
@@ -21645,7 +21645,7 @@
         <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>315</v>
@@ -24783,12 +24783,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25021,20 +25023,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
+    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25059,12 +25062,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0BEEB2-93D8-45BE-86D5-11172DAC5CD0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBE489-EE2E-427D-B9CD-0FAE2F0995FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
-    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>